--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="GameEvent" sheetId="5" r:id="rId3"/>
     <sheet name="Modifier" sheetId="3" r:id="rId4"/>
     <sheet name="request(未完成)" sheetId="2" r:id="rId5"/>
+    <sheet name="音色" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="571">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1291,10 +1292,6 @@
   </si>
   <si>
     <t>02010300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裡面的每一個string就是一個按壓事件，例如"127,48"(127按鍵音，以48的音量按下)，目前暫定一個訊息只能記錄一則事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2422,6 +2419,95 @@
   </si>
   <si>
     <t>02020836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppSwitchKeyboardInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckAppSwitchKeyboardInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppReadKeyboardInstruments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnAppReadKeyboardInstruments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyboardFinishSwitchInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckKeyboardFinishSwitchInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App讀取電子琴音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳App讀取電子琴音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App更換電子琴音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到App更換電子琴音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子琴完成更換電子琴音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到App完成更換電子琴音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Name":string
+"Status":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Instruments":[string,...]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02140301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020303</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2610,9 +2696,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2624,6 +2707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,11 +2996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2976,13 +3062,13 @@
       <c r="C2" s="16"/>
       <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -2994,7 +3080,7 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -3032,7 +3118,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
         <v>112</v>
       </c>
@@ -3040,7 +3126,7 @@
         <v>113</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3068,7 +3154,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
         <v>114</v>
       </c>
@@ -3076,7 +3162,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3101,7 +3187,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -3109,7 +3195,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3130,12 +3216,12 @@
         <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -3143,7 +3229,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3168,15 +3254,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3197,11 +3283,11 @@
         <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" t="s">
         <v>268</v>
       </c>
@@ -3209,7 +3295,7 @@
         <v>266</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3230,11 +3316,11 @@
         <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="B11" t="s">
         <v>269</v>
       </c>
@@ -3242,7 +3328,7 @@
         <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3263,14 +3349,14 @@
         <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="B12" t="s">
         <v>270</v>
       </c>
@@ -3278,7 +3364,7 @@
         <v>271</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -3299,22 +3385,22 @@
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
         <v>448</v>
       </c>
-      <c r="C13" t="s">
-        <v>449</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3333,19 +3419,19 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3364,11 +3450,11 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +3462,7 @@
         <v>215</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3401,7 +3487,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3495,7 @@
         <v>119</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3430,11 +3516,11 @@
         <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -3442,7 +3528,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -3467,7 +3553,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -3475,7 +3561,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3496,11 +3582,11 @@
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -3508,7 +3594,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3529,11 +3615,11 @@
         <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -3541,7 +3627,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -3562,15 +3648,15 @@
         <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>442</v>
+      <c r="A22" s="28" t="s">
+        <v>441</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -3579,7 +3665,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -3604,7 +3690,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -3612,7 +3698,7 @@
         <v>124</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -3633,11 +3719,11 @@
         <v>25</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -3645,7 +3731,7 @@
         <v>126</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3670,7 +3756,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3764,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3699,24 +3785,24 @@
         <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3741,15 +3827,15 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -3770,11 +3856,11 @@
         <v>25</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -3807,7 +3893,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -3840,7 +3926,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -3848,7 +3934,7 @@
         <v>133</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -3873,7 +3959,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -3881,7 +3967,7 @@
         <v>132</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -3909,7 +3995,7 @@
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
@@ -3940,22 +4026,22 @@
         <v>25</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -3976,266 +4062,258 @@
         <v>25</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="L35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>22</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" t="s">
+        <v>556</v>
+      </c>
+      <c r="C36" t="s">
+        <v>552</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>557</v>
       </c>
       <c r="C37" t="s">
-        <v>405</v>
+        <v>553</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>494</v>
+        <v>566</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L37" t="s">
-        <v>407</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>558</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>550</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>495</v>
+        <v>567</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" t="s">
-        <v>413</v>
+        <v>559</v>
       </c>
       <c r="C39" t="s">
-        <v>408</v>
+        <v>551</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
       <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>212</v>
+        <v>2</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" t="s">
-        <v>414</v>
+        <v>560</v>
       </c>
       <c r="C40" t="s">
-        <v>409</v>
+        <v>554</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" t="s">
-        <v>422</v>
+        <v>561</v>
       </c>
       <c r="C41" t="s">
-        <v>410</v>
+        <v>555</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" t="s">
-        <v>415</v>
-      </c>
-      <c r="C42" t="s">
-        <v>420</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+        <v>405</v>
+      </c>
+      <c r="L43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
       <c r="B44" t="s">
-        <v>423</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>424</v>
+        <v>177</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -4244,34 +4322,37 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" t="s">
-        <v>418</v>
-      </c>
       <c r="C45" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4283,28 +4364,28 @@
         <v>4</v>
       </c>
       <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
       <c r="B46" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C46" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4316,30 +4397,60 @@
         <v>4</v>
       </c>
       <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47" t="s">
+        <v>409</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>30</v>
-      </c>
+      <c r="A48" s="27"/>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>414</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>419</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -4351,28 +4462,28 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>286</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -4384,156 +4495,132 @@
         <v>2</v>
       </c>
       <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" t="s">
+        <v>423</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" t="s">
+        <v>424</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
         <v>5</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="J51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" t="s">
+        <v>418</v>
+      </c>
+      <c r="C52" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
         <v>5</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" t="s">
-        <v>462</v>
-      </c>
-      <c r="C51" t="s">
-        <v>463</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>287</v>
+      <c r="J52" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="1"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -4548,23 +4635,25 @@
         <v>5</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="28"/>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -4579,25 +4668,25 @@
         <v>5</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
+      <c r="A56" s="28"/>
       <c r="B56" t="s">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4612,7 +4701,7 @@
         <v>5</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>28</v>
@@ -4621,16 +4710,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>461</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -4645,31 +4734,26 @@
         <v>5</v>
       </c>
       <c r="I57">
-        <v>4</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="28"/>
       <c r="B58" t="s">
-        <v>467</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>166</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4678,31 +4762,31 @@
         <v>5</v>
       </c>
       <c r="I58">
-        <v>5</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="28"/>
       <c r="B59" t="s">
-        <v>468</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>179</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -4711,58 +4795,57 @@
         <v>5</v>
       </c>
       <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
+        <v>26</v>
+      </c>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
+        <v>286</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="28"/>
       <c r="B61" t="s">
-        <v>469</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>505</v>
+        <v>180</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4771,31 +4854,31 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>5</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
+      <c r="K61" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="28"/>
       <c r="B62" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C62" t="s">
-        <v>506</v>
+        <v>174</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -4804,36 +4887,64 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="28"/>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="64" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="A64" s="28"/>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>464</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -4845,28 +4956,28 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>467</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -4875,64 +4986,64 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
         <v>6</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>468</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -4941,295 +5052,272 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" t="s">
+        <v>469</v>
+      </c>
+      <c r="C68" t="s">
+        <v>505</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="27"/>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="27"/>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="27"/>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>470</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="27"/>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="27"/>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>6</v>
-      </c>
-      <c r="I68">
-        <v>2</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
-      <c r="B69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <v>6</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
+    <row r="76" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B77" t="s">
         <v>54</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C77" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>7</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="B72" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>4</v>
-      </c>
-      <c r="H72">
-        <v>7</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L72" s="1" t="s">
+      <c r="D77" s="10" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>7</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-      <c r="H74">
-        <v>7</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
-      <c r="B75" t="s">
-        <v>394</v>
-      </c>
-      <c r="C75" t="s">
-        <v>392</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>7</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" t="s">
-        <v>395</v>
-      </c>
-      <c r="C76" t="s">
-        <v>393</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="H76">
-        <v>7</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76" s="4"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>531</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -5244,28 +5332,25 @@
         <v>7</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L77" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A78" s="28"/>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>532</v>
+        <v>309</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -5274,124 +5359,158 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78">
         <v>7</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L78" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="28"/>
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>175</v>
+        <v>528</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>176</v>
+        <v>529</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>313</v>
+        <v>530</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -5403,31 +5522,31 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L83" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>334</v>
+        <v>531</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -5439,96 +5558,52 @@
         <v>2</v>
       </c>
       <c r="H84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L84" t="s">
         <v>303</v>
       </c>
-      <c r="L84" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
-      <c r="B85" t="s">
-        <v>292</v>
-      </c>
-      <c r="C85" t="s">
-        <v>288</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>8</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" s="4"/>
-      <c r="K85" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
-      <c r="B86" t="s">
-        <v>293</v>
-      </c>
-      <c r="C86" t="s">
-        <v>291</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86">
-        <v>8</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" s="4"/>
-      <c r="K86" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L86" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
+    </row>
+    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -5543,28 +5618,25 @@
         <v>8</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L87" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -5573,40 +5645,40 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88">
         <v>8</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L88" t="s">
-        <v>320</v>
+        <v>283</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="28"/>
+      <c r="A89" s="27"/>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5615,31 +5687,34 @@
         <v>8</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
+        <v>283</v>
+      </c>
+      <c r="L89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="27"/>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -5648,31 +5723,31 @@
         <v>8</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="L90" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="28"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5684,31 +5759,26 @@
         <v>8</v>
       </c>
       <c r="I91">
-        <v>5</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>287</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J91" s="4"/>
       <c r="K91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L91" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="27"/>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -5720,95 +5790,98 @@
         <v>8</v>
       </c>
       <c r="I92">
-        <v>5</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>289</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J92" s="4"/>
       <c r="K92" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="L92" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>8</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="L93" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="27"/>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
         <v>8</v>
       </c>
       <c r="I94">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
+        <v>318</v>
+      </c>
+      <c r="L94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="27"/>
       <c r="B95" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -5817,34 +5890,31 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>8</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L95" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="27"/>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -5853,83 +5923,104 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>8</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
+        <v>321</v>
+      </c>
+      <c r="L96" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="27"/>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>8</v>
       </c>
       <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L97" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="27"/>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
         <v>8</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L97" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
-      <c r="B98" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="27"/>
       <c r="B99" t="s">
-        <v>455</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s">
-        <v>453</v>
+        <v>249</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -5944,28 +6035,28 @@
         <v>8</v>
       </c>
       <c r="I99">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="L99" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="27"/>
       <c r="B100" t="s">
-        <v>456</v>
+        <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>454</v>
+        <v>248</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>533</v>
+        <v>328</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -5974,27 +6065,31 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>8</v>
       </c>
       <c r="I100">
-        <v>16</v>
-      </c>
-      <c r="J100" s="4"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="27"/>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -6003,31 +6098,34 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>8</v>
       </c>
       <c r="I101">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
+      </c>
+      <c r="L101" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="28"/>
+      <c r="A102" s="27"/>
       <c r="B102" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>457</v>
+        <v>154</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>534</v>
+        <v>331</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -6036,31 +6134,31 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>8</v>
       </c>
       <c r="I102">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="27"/>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C103" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>535</v>
+        <v>338</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -6069,70 +6167,50 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>8</v>
       </c>
       <c r="I103">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="L103" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
-      <c r="B104" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" t="s">
-        <v>157</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E104">
-        <v>2</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>8</v>
-      </c>
-      <c r="I104">
-        <v>19</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="27"/>
+      <c r="B104" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="27"/>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -6141,31 +6219,34 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>8</v>
       </c>
       <c r="I105">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>51</v>
+        <v>341</v>
+      </c>
+      <c r="L105" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
+      <c r="A106" s="27"/>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>453</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -6174,31 +6255,27 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>8</v>
       </c>
       <c r="I106">
-        <v>20</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="27"/>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>539</v>
+        <v>343</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -6207,34 +6284,31 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L107" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="27"/>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>456</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -6243,31 +6317,31 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>8</v>
       </c>
       <c r="I108">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K108" t="s">
-        <v>21</v>
+      <c r="K108" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="28"/>
+      <c r="A109" s="27"/>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -6276,40 +6350,40 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>8</v>
       </c>
       <c r="I109">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="L109" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="28"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="27"/>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>396</v>
+        <v>157</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -6318,29 +6392,34 @@
         <v>8</v>
       </c>
       <c r="I110">
-        <v>22</v>
-      </c>
-      <c r="J110" s="4"/>
-      <c r="K110" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L110" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="28"/>
+      <c r="A111" s="27"/>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="C111" t="s">
-        <v>397</v>
+        <v>185</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -6349,23 +6428,25 @@
         <v>8</v>
       </c>
       <c r="I111">
-        <v>22</v>
-      </c>
-      <c r="J111" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K111" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
+      <c r="A112" s="27"/>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -6380,23 +6461,25 @@
         <v>8</v>
       </c>
       <c r="I112">
-        <v>23</v>
-      </c>
-      <c r="J112" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K112" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="28"/>
+      <c r="A113" s="27"/>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -6411,26 +6494,28 @@
         <v>8</v>
       </c>
       <c r="I113">
-        <v>23</v>
-      </c>
-      <c r="J113" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K113" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L113" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="28"/>
+      <c r="A114" s="27"/>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -6445,23 +6530,25 @@
         <v>8</v>
       </c>
       <c r="I114">
-        <v>24</v>
-      </c>
-      <c r="J114" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K114" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="28"/>
+      <c r="A115" s="27"/>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>347</v>
+        <v>540</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -6476,32 +6563,34 @@
         <v>8</v>
       </c>
       <c r="I115">
-        <v>24</v>
-      </c>
-      <c r="J115" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K115" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L115" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="28"/>
+      <c r="A116" s="27"/>
       <c r="B116" t="s">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6510,29 +6599,29 @@
         <v>8</v>
       </c>
       <c r="I116">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
+    <row r="117" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="27"/>
       <c r="B117" t="s">
-        <v>391</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -6541,42 +6630,54 @@
         <v>8</v>
       </c>
       <c r="I117">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L117" t="s">
-        <v>346</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="28"/>
-      <c r="B118" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="28"/>
+      <c r="A118" s="27"/>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <v>23</v>
+      </c>
+      <c r="J118" s="4"/>
+      <c r="K118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="27"/>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="C119" t="s">
-        <v>398</v>
+        <v>203</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>348</v>
+        <v>544</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -6585,31 +6686,32 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H119">
         <v>8</v>
       </c>
       <c r="I119">
-        <v>48</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K119" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="J119" s="4"/>
+      <c r="K119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L119" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="27"/>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="C120" t="s">
-        <v>399</v>
+        <v>206</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -6618,34 +6720,29 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>8</v>
       </c>
       <c r="I120">
-        <v>48</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L120" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A121" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="J120" s="4"/>
+      <c r="K120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="27"/>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="C121" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -6654,34 +6751,32 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121">
         <v>8</v>
       </c>
       <c r="I121">
-        <v>49</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J121" s="4"/>
       <c r="K121" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="L121" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="27"/>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>387</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>388</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>353</v>
+        <v>546</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -6690,31 +6785,29 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>8</v>
       </c>
       <c r="I122">
-        <v>49</v>
-      </c>
-      <c r="J122" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K122" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="28"/>
+      <c r="J122" s="4"/>
+      <c r="K122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="27"/>
       <c r="B123" t="s">
-        <v>91</v>
+        <v>390</v>
       </c>
       <c r="C123" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>357</v>
+        <v>547</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -6723,76 +6816,54 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>8</v>
       </c>
       <c r="I123">
-        <v>50</v>
-      </c>
-      <c r="J123" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="J123" s="4"/>
       <c r="K123" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="28"/>
-      <c r="B124" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" t="s">
-        <v>189</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E124">
-        <v>2</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>2</v>
-      </c>
-      <c r="H124">
-        <v>8</v>
-      </c>
-      <c r="I124">
-        <v>50</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L124" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="28"/>
+        <v>344</v>
+      </c>
+      <c r="L123" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="27"/>
+      <c r="B124" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="27"/>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="C125" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6801,29 +6872,31 @@
         <v>8</v>
       </c>
       <c r="I125">
-        <v>51</v>
-      </c>
-      <c r="J125" s="4"/>
-      <c r="K125" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="28"/>
+        <v>48</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="27"/>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="C126" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -6832,29 +6905,31 @@
         <v>8</v>
       </c>
       <c r="I126">
-        <v>51</v>
-      </c>
-      <c r="J126" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K126" s="1" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="L126" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="28"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A127" s="27"/>
       <c r="B127" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -6866,31 +6941,31 @@
         <v>8</v>
       </c>
       <c r="I127">
-        <v>52</v>
-      </c>
-      <c r="J127" s="17" t="s">
-        <v>287</v>
+        <v>49</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L127" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="28"/>
+        <v>434</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="27"/>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="E128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -6902,95 +6977,97 @@
         <v>8</v>
       </c>
       <c r="I128">
-        <v>52</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>289</v>
+        <v>49</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L128" s="1"/>
-    </row>
-    <row r="129" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="28"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="27"/>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>8</v>
       </c>
       <c r="I129">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L129" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="28"/>
+        <v>353</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="27"/>
       <c r="B130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>549</v>
+        <v>357</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130">
         <v>8</v>
       </c>
       <c r="I130">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="L130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="27"/>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -6999,102 +7076,306 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>8</v>
       </c>
       <c r="I131">
+        <v>51</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="27"/>
+      <c r="B132" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" t="s">
+        <v>383</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>8</v>
+      </c>
+      <c r="I132">
+        <v>51</v>
+      </c>
+      <c r="J132" s="4"/>
+      <c r="K132" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="27"/>
+      <c r="B133" t="s">
+        <v>193</v>
+      </c>
+      <c r="C133" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <v>52</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L133" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="27"/>
+      <c r="B134" t="s">
+        <v>194</v>
+      </c>
+      <c r="C134" t="s">
+        <v>190</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
+        <v>8</v>
+      </c>
+      <c r="I134">
+        <v>52</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="27"/>
+      <c r="B135" t="s">
+        <v>195</v>
+      </c>
+      <c r="C135" t="s">
+        <v>171</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>8</v>
+      </c>
+      <c r="I135">
+        <v>53</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L135" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="27"/>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>8</v>
+      </c>
+      <c r="I136">
         <v>54</v>
       </c>
-      <c r="J131" s="4" t="s">
+      <c r="J136" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="27"/>
+      <c r="B137" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>8</v>
+      </c>
+      <c r="I137">
+        <v>54</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K131" s="1" t="s">
+      <c r="K137" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L137" t="s">
         <v>360</v>
       </c>
-      <c r="L131" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="9"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="24" t="s">
+    </row>
+    <row r="138" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B139" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
-    </row>
-    <row r="134" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="9"/>
-    </row>
-    <row r="135" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="26" t="s">
+      <c r="C139" s="7"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+    </row>
+    <row r="140" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B141" t="s">
         <v>259</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C141" t="s">
         <v>260</v>
       </c>
-      <c r="J135" s="4"/>
-      <c r="L135" t="s">
+      <c r="J141" s="4"/>
+      <c r="L141" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="26"/>
-      <c r="J136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="27" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="25"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="27"/>
-      <c r="B139" t="s">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="26"/>
+      <c r="B145" t="s">
         <v>262</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C145" t="s">
         <v>263</v>
       </c>
-      <c r="J139" s="4" t="s">
+      <c r="J145" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L145" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A144:A145"/>
     <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A37:A46"/>
-    <mergeCell ref="A48:A61"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="A80:A131"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="A54:A67"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="A86:A137"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A27:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7107,7 +7388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -7184,61 +7467,61 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
         <v>362</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" t="s">
         <v>367</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" t="s">
         <v>370</v>
       </c>
-      <c r="C4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" t="s">
         <v>385</v>
       </c>
-      <c r="B5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -7302,7 +7585,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -7319,7 +7602,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -7334,7 +7617,7 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -7351,7 +7634,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -7400,7 +7683,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -7411,7 +7694,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" t="s">
         <v>223</v>
       </c>
@@ -7420,7 +7703,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" t="s">
         <v>224</v>
       </c>
@@ -7429,7 +7712,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -7438,7 +7721,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -7453,7 +7736,7 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
@@ -7464,7 +7747,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -7513,7 +7796,7 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B27" t="s">
@@ -7524,7 +7807,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
       <c r="B28" t="s">
         <v>234</v>
       </c>
@@ -7533,10 +7816,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
       <c r="B30" t="s">
         <v>236</v>
       </c>
@@ -7545,7 +7828,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" t="s">
         <v>238</v>
       </c>
@@ -7554,7 +7837,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" t="s">
         <v>240</v>
       </c>
@@ -7563,10 +7846,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -7581,12 +7864,12 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="29"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -7601,12 +7884,12 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
+      <c r="A40" s="25"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
@@ -7621,21 +7904,21 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+      <c r="A45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7651,4 +7934,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="584">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1489,10 +1489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Event":[string,...]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遊戲開始、結束、暫停、跳轉、得分…等，暫定一個訊息只能內涵一個Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1778,17 +1774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"Name":string
-"Splits":int
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>split代表這個檔案分為幾個分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NewFirmwareSplitFileSegment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1798,14 +1783,6 @@
   </si>
   <si>
     <t>RequestRewriteNewFirmwareSplitFileSegment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"FileName":string
-"Split":int
-"Order":unsigned int
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1829,14 +1806,6 @@
   </si>
   <si>
     <t>收到傳送新電子琴主程式分割結束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Status":short
-"FileName":string
-"Split":int
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2266,42 +2235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02000503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02120503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02000504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02120504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02000505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02120505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02110506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02100507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02020507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02000600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2508,6 +2441,125 @@
   </si>
   <si>
     <t>02020303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+"Order":unsigned int
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+"Split":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split的數字代表這個檔案分為幾個分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestRewriteHardwareLogFileSegment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishWriteHardwareLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckFinishWriteHardwareLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求重傳電子琴log片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成傳送電子琴log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到完成傳送電子琴log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02010503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+"Order":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子琴錯誤log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardwareErrorLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0211050A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Events":[string,...]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2620,7 +2672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2695,6 +2747,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2996,11 +3051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3062,10 +3117,10 @@
       <c r="C2" s="16"/>
       <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>304</v>
@@ -3080,7 +3135,7 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -3118,7 +3173,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>112</v>
       </c>
@@ -3154,7 +3209,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>114</v>
       </c>
@@ -3162,7 +3217,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3187,7 +3242,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -3195,7 +3250,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3216,12 +3271,12 @@
         <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -3229,7 +3284,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3254,15 +3309,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3283,11 +3338,11 @@
         <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" t="s">
         <v>268</v>
       </c>
@@ -3295,7 +3350,7 @@
         <v>266</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3316,11 +3371,11 @@
         <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>269</v>
       </c>
@@ -3328,7 +3383,7 @@
         <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3349,14 +3404,14 @@
         <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>270</v>
       </c>
@@ -3364,7 +3419,7 @@
         <v>271</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -3385,22 +3440,22 @@
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3419,19 +3474,19 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3450,11 +3505,11 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -3462,7 +3517,7 @@
         <v>215</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3487,7 +3542,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -3495,7 +3550,7 @@
         <v>119</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3516,11 +3571,11 @@
         <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -3528,7 +3583,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -3553,7 +3608,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -3561,7 +3616,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3582,11 +3637,11 @@
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -3594,7 +3649,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3615,11 +3670,11 @@
         <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -3627,7 +3682,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -3648,15 +3703,15 @@
         <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>441</v>
+      <c r="A22" s="29" t="s">
+        <v>436</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -3665,7 +3720,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -3690,7 +3745,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3753,7 @@
         <v>124</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -3723,7 +3778,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -3731,7 +3786,7 @@
         <v>126</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3756,7 +3811,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -3764,7 +3819,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3785,24 +3840,24 @@
         <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3827,15 +3882,15 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -3856,11 +3911,11 @@
         <v>25</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -3893,7 +3948,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -3926,7 +3981,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -3934,7 +3989,7 @@
         <v>133</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -3959,7 +4014,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -3967,7 +4022,7 @@
         <v>132</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -3995,7 +4050,7 @@
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B34" t="s">
@@ -4028,20 +4083,17 @@
       <c r="K34" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="L34" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="35" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" t="s">
         <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -4064,17 +4116,20 @@
       <c r="K35" s="1" t="s">
         <v>300</v>
       </c>
+      <c r="L35" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="29"/>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C36" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -4095,19 +4150,19 @@
         <v>25</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C37" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -4128,19 +4183,19 @@
         <v>25</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C38" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -4161,19 +4216,19 @@
         <v>25</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="29"/>
       <c r="B39" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C39" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -4194,19 +4249,19 @@
         <v>25</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="C40" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -4227,19 +4282,19 @@
         <v>25</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
+      <c r="A41" s="29"/>
       <c r="B41" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="C41" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -4260,24 +4315,24 @@
         <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -4298,14 +4353,14 @@
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>405</v>
+        <v>558</v>
       </c>
       <c r="L43" t="s">
-        <v>406</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
       <c r="B44" t="s">
         <v>24</v>
       </c>
@@ -4313,7 +4368,7 @@
         <v>177</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -4337,19 +4392,19 @@
         <v>302</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
       <c r="B45" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -4374,15 +4429,15 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C46" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -4408,15 +4463,15 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
       <c r="B47" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -4437,20 +4492,20 @@
         <v>286</v>
       </c>
       <c r="K47" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" t="s">
         <v>410</v>
       </c>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>414</v>
       </c>
-      <c r="C48" t="s">
-        <v>419</v>
-      </c>
       <c r="D48" s="10" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -4471,19 +4526,19 @@
         <v>286</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>415</v>
       </c>
-      <c r="C49" t="s">
-        <v>420</v>
-      </c>
       <c r="D49" s="10" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -4504,19 +4559,19 @@
         <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>416</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
+      <c r="A50" s="28"/>
       <c r="B50" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C50" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -4537,19 +4592,19 @@
         <v>25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
       <c r="B51" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -4570,19 +4625,19 @@
         <v>25</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="28"/>
       <c r="B52" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -4603,14 +4658,14 @@
         <v>25</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B54" t="s">
@@ -4620,7 +4675,7 @@
         <v>134</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -4645,7 +4700,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
       <c r="B55" t="s">
         <v>34</v>
       </c>
@@ -4653,7 +4708,7 @@
         <v>178</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -4677,8 +4732,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+    <row r="56" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
       <c r="B56" t="s">
         <v>31</v>
       </c>
@@ -4686,7 +4741,7 @@
         <v>135</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4706,20 +4761,20 @@
       <c r="J56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+      <c r="K56" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
       <c r="B57" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C57" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -4736,10 +4791,15 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="4"/>
+      <c r="J57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
+      <c r="A58" s="29"/>
       <c r="B58" t="s">
         <v>136</v>
       </c>
@@ -4747,7 +4807,7 @@
         <v>166</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -4772,7 +4832,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
       <c r="B59" t="s">
         <v>137</v>
       </c>
@@ -4780,7 +4840,7 @@
         <v>179</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -4806,15 +4866,15 @@
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+      <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>563</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>560</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -4823,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -4834,18 +4894,21 @@
       <c r="J60" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
+      <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>564</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>561</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4854,31 +4917,32 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>5</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
+        <v>569</v>
+      </c>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>463</v>
+        <v>565</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>562</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -4887,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -4898,62 +4962,63 @@
       <c r="J62" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
+      <c r="K62" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>428</v>
+      <c r="K63" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>466</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>464</v>
+        <v>180</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -4965,52 +5030,52 @@
         <v>28</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C65" t="s">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>5</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="28"/>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -5019,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -5031,25 +5096,25 @@
         <v>28</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C67" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -5063,26 +5128,26 @@
       <c r="J67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
+      <c r="K67" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C68" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -5094,159 +5159,159 @@
         <v>7</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
-        <v>43</v>
-      </c>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>8</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>500</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>571</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>572</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
-      <c r="B73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" t="s">
-        <v>470</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>6</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -5261,25 +5326,25 @@
         <v>6</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -5294,171 +5359,168 @@
         <v>6</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
-        <v>53</v>
-      </c>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>308</v>
+        <v>509</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>309</v>
+        <v>510</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>4</v>
-      </c>
-      <c r="H80">
-        <v>7</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>445</v>
-      </c>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
+      <c r="A81" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>391</v>
+        <v>143</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>528</v>
+        <v>308</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5467,50 +5529,61 @@
         <v>7</v>
       </c>
       <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81" s="4"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A82" s="29"/>
       <c r="B82" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>392</v>
+        <v>144</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>529</v>
+        <v>309</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>7</v>
       </c>
       <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
+      <c r="A83" s="29"/>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -5525,28 +5598,25 @@
         <v>7</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L83" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="29"/>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -5555,55 +5625,89 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H84">
         <v>7</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L84" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="9"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="29"/>
+      <c r="B85" t="s">
+        <v>392</v>
+      </c>
+      <c r="C85" t="s">
+        <v>390</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
+      <c r="A86" s="29"/>
+      <c r="B86" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>7</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" s="4"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>175</v>
+        <v>516</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -5615,28 +5719,31 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>199</v>
+        <v>310</v>
+      </c>
+      <c r="L87" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
+      <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>176</v>
+        <v>517</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -5645,106 +5752,55 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>8</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L89" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C90" t="s">
-        <v>290</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>8</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K90" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L90" t="s">
-        <v>313</v>
-      </c>
+      <c r="L88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
     </row>
     <row r="91" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
+      <c r="A91" s="28"/>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -5759,23 +5815,25 @@
         <v>8</v>
       </c>
       <c r="I91">
-        <v>2</v>
-      </c>
-      <c r="J91" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K91" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="27"/>
+      <c r="A92" s="28"/>
       <c r="B92" t="s">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -5784,32 +5842,34 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>8</v>
       </c>
       <c r="I92">
-        <v>2</v>
-      </c>
-      <c r="J92" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K92" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L92" t="s">
-        <v>316</v>
+        <v>283</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
+      <c r="A93" s="28"/>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -5824,28 +5884,28 @@
         <v>8</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="L93" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="27"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="28"/>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -5860,34 +5920,34 @@
         <v>8</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="L94" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="27"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="28"/>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -5896,31 +5956,29 @@
         <v>8</v>
       </c>
       <c r="I95">
-        <v>4</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="28"/>
       <c r="B96" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -5929,31 +5987,29 @@
         <v>8</v>
       </c>
       <c r="I96">
-        <v>4</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J96" s="4"/>
       <c r="K96" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="L96" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="28"/>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5965,31 +6021,31 @@
         <v>8</v>
       </c>
       <c r="I97">
-        <v>5</v>
-      </c>
-      <c r="J97" s="17" t="s">
-        <v>287</v>
+        <v>3</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="L97" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="28"/>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -6001,26 +6057,28 @@
         <v>8</v>
       </c>
       <c r="I98">
-        <v>5</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>289</v>
+        <v>3</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
+        <v>318</v>
+      </c>
+      <c r="L98" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="28"/>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -6029,34 +6087,31 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>8</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L99" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="27"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="28"/>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -6065,100 +6120,104 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>8</v>
       </c>
       <c r="I100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
+        <v>321</v>
+      </c>
+      <c r="L100" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="28"/>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>8</v>
       </c>
       <c r="I101">
-        <v>7</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="L101" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="27"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="28"/>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>8</v>
       </c>
       <c r="I102">
-        <v>8</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="27"/>
+        <v>105</v>
+      </c>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="28"/>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -6167,50 +6226,67 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>8</v>
       </c>
       <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L103" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="28"/>
+      <c r="B104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>8</v>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L103" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="27"/>
-      <c r="B104" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="27"/>
+      <c r="I104">
+        <v>7</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="28"/>
       <c r="B105" t="s">
-        <v>454</v>
+        <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>452</v>
+        <v>184</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -6219,34 +6295,34 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>8</v>
       </c>
       <c r="I105">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="L105" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="27"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="28"/>
       <c r="B106" t="s">
-        <v>455</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>453</v>
+        <v>154</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>532</v>
+        <v>331</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -6255,27 +6331,31 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>8</v>
       </c>
       <c r="I106">
-        <v>16</v>
-      </c>
-      <c r="J106" s="4"/>
-      <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="28"/>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -6284,64 +6364,50 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="27"/>
-      <c r="B108" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" t="s">
-        <v>456</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>8</v>
-      </c>
-      <c r="I108">
-        <v>17</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="27"/>
+        <v>254</v>
+      </c>
+      <c r="L107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="28"/>
+      <c r="B108" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="28"/>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>447</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>534</v>
+        <v>340</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -6356,28 +6422,28 @@
         <v>8</v>
       </c>
       <c r="I109">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>75</v>
+        <v>583</v>
       </c>
       <c r="L109" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="27"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="28"/>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>448</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -6386,34 +6452,27 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>8</v>
       </c>
       <c r="I110">
-        <v>19</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L110" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="J110" s="4"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="28"/>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>539</v>
+        <v>342</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -6422,31 +6481,31 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>8</v>
       </c>
       <c r="I111">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="28"/>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>451</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -6455,31 +6514,31 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112">
         <v>8</v>
       </c>
       <c r="I112">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K112" t="s">
-        <v>21</v>
+      <c r="K112" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
+      <c r="A113" s="28"/>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -6488,34 +6547,34 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>8</v>
       </c>
       <c r="I113">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="L113" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="27"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="28"/>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -6530,25 +6589,28 @@
         <v>8</v>
       </c>
       <c r="I114">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J114" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K114" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="27"/>
+      <c r="K114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="28"/>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -6563,34 +6625,31 @@
         <v>8</v>
       </c>
       <c r="I115">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L115" t="s">
-        <v>345</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="27"/>
+      <c r="A116" s="28"/>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>395</v>
+        <v>158</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6599,29 +6658,31 @@
         <v>8</v>
       </c>
       <c r="I116">
-        <v>22</v>
-      </c>
-      <c r="J116" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K116" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="27"/>
+    <row r="117" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="28"/>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>396</v>
+        <v>186</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -6630,23 +6691,28 @@
         <v>8</v>
       </c>
       <c r="I117">
-        <v>22</v>
-      </c>
-      <c r="J117" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K117" s="1" t="s">
-        <v>35</v>
+        <v>302</v>
+      </c>
+      <c r="L117" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="27"/>
+      <c r="A118" s="28"/>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -6661,23 +6727,25 @@
         <v>8</v>
       </c>
       <c r="I118">
-        <v>23</v>
-      </c>
-      <c r="J118" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K118" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="27"/>
+      <c r="A119" s="28"/>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -6692,32 +6760,34 @@
         <v>8</v>
       </c>
       <c r="I119">
-        <v>23</v>
-      </c>
-      <c r="J119" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K119" s="1" t="s">
         <v>302</v>
       </c>
       <c r="L119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="27"/>
+      <c r="A120" s="28"/>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>394</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6726,29 +6796,29 @@
         <v>8</v>
       </c>
       <c r="I120">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="27"/>
+    <row r="121" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="28"/>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>346</v>
+        <v>528</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -6757,26 +6827,23 @@
         <v>8</v>
       </c>
       <c r="I121">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L121" t="s">
-        <v>345</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="27"/>
+      <c r="A122" s="28"/>
       <c r="B122" t="s">
-        <v>387</v>
+        <v>162</v>
       </c>
       <c r="C122" t="s">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -6791,7 +6858,7 @@
         <v>8</v>
       </c>
       <c r="I122">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" t="s">
@@ -6799,15 +6866,15 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="27"/>
+      <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
-        <v>389</v>
+        <v>203</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -6822,43 +6889,58 @@
         <v>8</v>
       </c>
       <c r="I123">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L123" t="s">
         <v>344</v>
       </c>
-      <c r="L123" t="s">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="28"/>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>8</v>
+      </c>
+      <c r="I124">
+        <v>24</v>
+      </c>
+      <c r="J124" s="4"/>
+      <c r="K124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="28"/>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="27"/>
-      <c r="B124" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="27"/>
-      <c r="B125" t="s">
-        <v>85</v>
-      </c>
-      <c r="C125" t="s">
-        <v>397</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>347</v>
-      </c>
       <c r="E125">
         <v>2</v>
       </c>
@@ -6866,31 +6948,32 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>8</v>
       </c>
       <c r="I125">
-        <v>48</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K125" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="J125" s="4"/>
+      <c r="K125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L125" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="28"/>
       <c r="B126" t="s">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>348</v>
+        <v>532</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -6899,34 +6982,29 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>8</v>
       </c>
       <c r="I126">
-        <v>48</v>
-      </c>
-      <c r="J126" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L126" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A127" s="27"/>
+      <c r="J126" s="4"/>
+      <c r="K126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="28"/>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>389</v>
       </c>
       <c r="C127" t="s">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>351</v>
+        <v>533</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -6935,67 +7013,48 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
         <v>8</v>
       </c>
       <c r="I127">
-        <v>49</v>
-      </c>
-      <c r="J127" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="J127" s="4"/>
       <c r="K127" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="27"/>
-      <c r="B128" t="s">
-        <v>90</v>
-      </c>
-      <c r="C128" t="s">
-        <v>188</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E128">
-        <v>2</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>2</v>
-      </c>
-      <c r="H128">
-        <v>8</v>
-      </c>
-      <c r="I128">
-        <v>49</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="27"/>
+        <v>343</v>
+      </c>
+      <c r="L127" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="28"/>
+      <c r="B128" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="28"/>
       <c r="B129" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C129" t="s">
-        <v>165</v>
+        <v>396</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -7010,28 +7069,25 @@
         <v>8</v>
       </c>
       <c r="I129">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J129" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>354</v>
+      <c r="K129" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="27"/>
+      <c r="A130" s="28"/>
       <c r="B130" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -7046,7 +7102,7 @@
         <v>8</v>
       </c>
       <c r="I130">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J130" s="4" t="s">
         <v>25</v>
@@ -7055,25 +7111,25 @@
         <v>302</v>
       </c>
       <c r="L130" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="27"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A131" s="28"/>
       <c r="B131" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>164</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7082,29 +7138,34 @@
         <v>8</v>
       </c>
       <c r="I131">
-        <v>51</v>
-      </c>
-      <c r="J131" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K131" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="27"/>
+        <v>429</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="28"/>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="C132" t="s">
-        <v>383</v>
+        <v>188</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -7113,29 +7174,28 @@
         <v>8</v>
       </c>
       <c r="I132">
-        <v>51</v>
-      </c>
-      <c r="J132" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K132" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L132" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="27"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="28"/>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -7147,31 +7207,31 @@
         <v>8</v>
       </c>
       <c r="I133">
-        <v>52</v>
-      </c>
-      <c r="J133" s="17" t="s">
-        <v>287</v>
+        <v>50</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L133" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="27"/>
+        <v>352</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="28"/>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="C134" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -7183,26 +7243,28 @@
         <v>8</v>
       </c>
       <c r="I134">
-        <v>52</v>
-      </c>
-      <c r="J134" s="5" t="s">
-        <v>289</v>
+        <v>50</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L134" s="1"/>
-    </row>
-    <row r="135" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="27"/>
+        <v>302</v>
+      </c>
+      <c r="L134" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="28"/>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -7211,34 +7273,29 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>8</v>
       </c>
       <c r="I135">
-        <v>53</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J135" s="4"/>
       <c r="K135" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L135" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="27"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="28"/>
       <c r="B136" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>548</v>
+        <v>380</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -7247,133 +7304,273 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>8</v>
       </c>
       <c r="I136">
-        <v>54</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J136" s="4"/>
       <c r="K136" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="27"/>
+        <v>254</v>
+      </c>
+      <c r="L136" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="28"/>
       <c r="B137" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>549</v>
+        <v>374</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>8</v>
       </c>
       <c r="I137">
+        <v>52</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L137" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="28"/>
+      <c r="B138" t="s">
+        <v>194</v>
+      </c>
+      <c r="C138" t="s">
+        <v>190</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>8</v>
+      </c>
+      <c r="I138">
+        <v>52</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="28"/>
+      <c r="B139" t="s">
+        <v>195</v>
+      </c>
+      <c r="C139" t="s">
+        <v>171</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="I139">
+        <v>53</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L139" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="28"/>
+      <c r="B140" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" t="s">
+        <v>172</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="I140">
         <v>54</v>
       </c>
-      <c r="J137" s="4" t="s">
+      <c r="J140" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="28"/>
+      <c r="B141" t="s">
+        <v>94</v>
+      </c>
+      <c r="C141" t="s">
+        <v>191</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>8</v>
+      </c>
+      <c r="I141">
+        <v>54</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="K141" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L141" t="s">
         <v>359</v>
       </c>
-      <c r="L137" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="24" t="s">
+    </row>
+    <row r="142" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
-    </row>
-    <row r="140" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="25" t="s">
+      <c r="C143" s="7"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+    </row>
+    <row r="144" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B145" t="s">
         <v>259</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C145" t="s">
         <v>260</v>
       </c>
-      <c r="J141" s="4"/>
-      <c r="L141" t="s">
+      <c r="J145" s="4"/>
+      <c r="L145" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="25"/>
-      <c r="J142" s="4"/>
-    </row>
-    <row r="143" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="9"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" s="26" t="s">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="26"/>
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="26"/>
-      <c r="B145" t="s">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="27"/>
+      <c r="B149" t="s">
         <v>262</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C149" t="s">
         <v>263</v>
       </c>
-      <c r="J145" s="4" t="s">
+      <c r="J149" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L149" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A148:A149"/>
     <mergeCell ref="A4:A20"/>
     <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A54:A67"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A77:A84"/>
-    <mergeCell ref="A86:A137"/>
+    <mergeCell ref="A54:A70"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="A90:A141"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="A27:A32"/>
@@ -7388,7 +7585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7467,61 +7664,61 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" t="s">
         <v>361</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
         <v>366</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
         <v>369</v>
-      </c>
-      <c r="C4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" t="s">
         <v>384</v>
       </c>
-      <c r="B5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7534,7 +7731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
@@ -7585,7 +7782,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -7602,7 +7799,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -7617,7 +7814,7 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -7634,7 +7831,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -7683,7 +7880,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -7694,7 +7891,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>223</v>
       </c>
@@ -7703,7 +7900,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>224</v>
       </c>
@@ -7712,7 +7909,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -7721,7 +7918,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -7736,7 +7933,7 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
@@ -7747,7 +7944,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -7796,7 +7993,7 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B27" t="s">
@@ -7807,7 +8004,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" t="s">
         <v>234</v>
       </c>
@@ -7816,10 +8013,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" t="s">
         <v>236</v>
       </c>
@@ -7828,7 +8025,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" t="s">
         <v>238</v>
       </c>
@@ -7837,7 +8034,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" t="s">
         <v>240</v>
       </c>
@@ -7846,10 +8043,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -7864,12 +8061,12 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -7884,12 +8081,12 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
@@ -7904,21 +8101,21 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
+      <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
+      <c r="A44" s="27"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
+      <c r="A45" s="27"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
+      <c r="A46" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="645">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2560,6 +2560,258 @@
   </si>
   <si>
     <t>{"Events":[string,...]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解釋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴鍵按下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高(24~84)
+B(float):音量(0~1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴鍵放開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高(24~84)
+B(int):-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下琴鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(int)得分種類
+B:(int)分數
+C:(int)總分
+D:(int)目前連擊數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分種類：0-Miss, 1-Bad, 2-Ok, 3-Good, 4-Great, 5-Perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftOctave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressKey,20.33,42,0.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score,1,100,324000,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八度種類: -1-降八度, 0-正常八度, 1-升八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(float)目前速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(int)目前八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度介於0.4~1.6之間，1為原速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustSpeed,0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳轉時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeJump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(float)跳轉後的時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦控制踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間暫停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(int)狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高(24~84)
+音量(0~1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(float):時間
+B(int):音高
+C(float):音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameControlPedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameControlPedal,1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(float)持續踏著的時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A代表從現在起要踏著多久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftOctave,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeJump,37.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴-&gt;App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):踏下狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1為暫停，-1為繼續</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-踏下，-1-放開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換踏板狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PedalState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):踏板狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-無，1-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3053,9 +3305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7583,14 +7835,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7598,14 +7942,203 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="60.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" t="s">
+        <v>614</v>
+      </c>
+      <c r="G5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" t="s">
+        <v>619</v>
+      </c>
+      <c r="G6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D8" t="s">
+        <v>618</v>
+      </c>
+      <c r="E8" t="s">
+        <v>629</v>
+      </c>
+      <c r="F8" t="s">
+        <v>630</v>
+      </c>
+      <c r="G8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
     <sheet name="IO Event" sheetId="4" r:id="rId2"/>
     <sheet name="GameEvent" sheetId="5" r:id="rId3"/>
     <sheet name="Modifier" sheetId="3" r:id="rId4"/>
-    <sheet name="request(未完成)" sheetId="2" r:id="rId5"/>
-    <sheet name="音色" sheetId="6" r:id="rId6"/>
+    <sheet name="音色" sheetId="6" r:id="rId5"/>
+    <sheet name="request(未完成)" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="750">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1314,10 +1315,6 @@
     <t>{
 "Status":short
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功時回傳status=0，若status&lt;0代表失敗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2587,11 +2584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A(int):音高(24~84)
-B(float):音量(0~1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>琴鍵放開</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2601,11 +2593,6 @@
   </si>
   <si>
     <t>A,B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A(int):音高(24~84)
-B(int):-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2811,7 +2798,443 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-無，1-</t>
+    <t>成功時回傳status=0，status=-1代表失敗，status=1代表已在這個場景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新啟動App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新啟動電子琴程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到重新啟動App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到重新啟動電子琴程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestartKeyboardProgram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckRestartKeyboardProgram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20020103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1為示範，2為練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchMode,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反覆練彈模式由於會不停在示範狀態和練習狀態之間切換，所以可以透過這個訊號告知目前狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由電腦控制的切換八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):目前八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftOctaveState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換八度狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下八度鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftOctave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):按鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1:降八度鍵，1:升八度鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下力度鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換力度狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensitiveState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):力度狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力度狀態: 0-關閉力度感應，1-開啟力度感應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:無踏下，1:踏下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八度種類: -1:降八度, 0:正常八度, 1:升八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下延音鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換延音狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sustain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SustainState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):延音狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延音狀態: 0-關閉延音，1-開啟延音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):電源狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下電源鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換電源狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電源狀態: 0-關閉電源，1-開啟電源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下暫停鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下速度鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉速度旋鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉小節旋鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionKnob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedKnob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1:往回，1:往後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1:減速，1:加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整音樂音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(float)音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~1之間，0為無音量，1為最大音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整鋼琴音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PianoVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PedalPlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入耳機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarphonePlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(int)狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:無，1:插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由遊戲去播放的琴音，不是玩家彈出的琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電腦播放琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlaySound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高(24~84)
+音量(0~1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高
+B(float):音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高(24~84)</t>
+  </si>
+  <si>
+    <t>A(int):音高
+B(float):音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高
+B(int):-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,0.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App-&gt;琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由app控制的切換八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由App去播放的琴音，不是玩家彈出的琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高
+B(float):時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間代表多久以後落到打擊點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallEffect,36,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由app去控制流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallSpeedModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整落下速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度: 常見速度有32(快)、28、24、20、16(慢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常每首歌曲都有內建的落下速度，所以不用調整。這個是給Instant模式中即時由App控制燈光使用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換畫面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉螢幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App-&gt;琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnOffScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustVolume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3303,11 +3726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3369,13 +3792,13 @@
       <c r="C2" s="16"/>
       <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -3433,7 +3856,7 @@
         <v>113</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3469,7 +3892,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3502,7 +3925,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3523,7 +3946,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -3536,7 +3959,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3566,10 +3989,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3590,7 +4013,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
@@ -3602,7 +4025,7 @@
         <v>266</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3623,7 +4046,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
@@ -3635,7 +4058,7 @@
         <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3656,7 +4079,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L11" t="s">
         <v>265</v>
@@ -3671,7 +4094,7 @@
         <v>271</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -3692,7 +4115,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L12" t="s">
         <v>272</v>
@@ -3701,13 +4124,13 @@
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" t="s">
         <v>442</v>
       </c>
-      <c r="C13" t="s">
-        <v>443</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3726,19 +4149,19 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3757,7 +4180,7 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -3769,7 +4192,7 @@
         <v>215</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3802,7 +4225,7 @@
         <v>119</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3823,7 +4246,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3835,7 +4258,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -3868,7 +4291,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3889,7 +4312,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -3901,7 +4324,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -3922,7 +4345,7 @@
         <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -3934,7 +4357,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -3955,7 +4378,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3963,7 +4386,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -3972,7 +4395,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -4005,7 +4428,7 @@
         <v>124</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -4038,7 +4461,7 @@
         <v>126</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -4071,7 +4494,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4092,24 +4515,50 @@
         <v>25</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" t="s">
+        <v>642</v>
+      </c>
+      <c r="C26" t="s">
+        <v>646</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="A27" s="29"/>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>644</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>646</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4118,136 +4567,104 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>643</v>
       </c>
       <c r="C28" t="s">
-        <v>438</v>
+        <v>647</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>484</v>
+        <v>651</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J28" s="4"/>
       <c r="K28" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>648</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>297</v>
+        <v>652</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="K29" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4256,96 +4673,124 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>437</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>20</v>
-      </c>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>378</v>
+        <v>133</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -4354,34 +4799,31 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L35" t="s">
-        <v>299</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
-        <v>542</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>551</v>
+        <v>485</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -4390,64 +4832,36 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" t="s">
-        <v>543</v>
-      </c>
-      <c r="C37" t="s">
-        <v>539</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>548</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="A38" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="B38" t="s">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>536</v>
+        <v>258</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>553</v>
+        <v>298</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -4456,31 +4870,31 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" t="s">
-        <v>545</v>
+        <v>257</v>
       </c>
       <c r="C39" t="s">
-        <v>537</v>
+        <v>377</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -4489,37 +4903,40 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>549</v>
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C40" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4528,99 +4945,124 @@
         <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>434</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
       <c r="B41" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C41" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="9"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" t="s">
+        <v>543</v>
+      </c>
+      <c r="C42" t="s">
+        <v>535</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
-        <v>22</v>
-      </c>
+      <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>544</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>536</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="L43" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>545</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>539</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -4629,443 +5071,418 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L44" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" t="s">
+        <v>546</v>
+      </c>
+      <c r="C45" t="s">
+        <v>540</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" t="s">
-        <v>408</v>
-      </c>
-      <c r="C45" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" t="s">
-        <v>409</v>
-      </c>
-      <c r="C46" t="s">
-        <v>405</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" t="s">
-        <v>416</v>
-      </c>
-      <c r="C47" t="s">
-        <v>406</v>
-      </c>
       <c r="D47" s="10" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" t="s">
-        <v>410</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>4</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
       <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C50" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>4</v>
       </c>
       <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C51" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" t="s">
         <v>413</v>
       </c>
-      <c r="C52" t="s">
-        <v>420</v>
-      </c>
       <c r="D52" s="10" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="28"/>
+      <c r="B53" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" t="s">
+        <v>416</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="28"/>
+      <c r="B55" t="s">
+        <v>411</v>
+      </c>
+      <c r="C55" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
         <v>5</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="K55" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="28"/>
+      <c r="B56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56" t="s">
+        <v>419</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>32</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" t="s">
-        <v>456</v>
-      </c>
-      <c r="C57" t="s">
-        <v>457</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>166</v>
-      </c>
       <c r="D58" s="10" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5074,31 +5491,31 @@
         <v>5</v>
       </c>
       <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>287</v>
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A59" s="29"/>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5107,26 +5524,25 @@
         <v>5</v>
       </c>
       <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>289</v>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>563</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>560</v>
+        <v>135</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>566</v>
+        <v>501</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -5135,32 +5551,31 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="L60" s="1"/>
+        <v>568</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>564</v>
+        <v>455</v>
       </c>
       <c r="C61" t="s">
-        <v>561</v>
+        <v>456</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>567</v>
+        <v>502</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -5169,138 +5584,138 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>5</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>565</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>562</v>
+        <v>166</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>568</v>
+        <v>503</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62">
-        <v>4</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63">
-        <v>5</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>562</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>5</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>458</v>
+        <v>563</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>560</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -5309,31 +5724,32 @@
         <v>5</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K65" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>564</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>561</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -5342,25 +5758,26 @@
         <v>5</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>461</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>459</v>
+        <v>173</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -5375,25 +5792,25 @@
         <v>5</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>462</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -5408,58 +5825,58 @@
         <v>5</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>457</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>5</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>463</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>499</v>
+        <v>181</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -5468,31 +5885,31 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>5</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
+      <c r="K70" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C71" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -5501,31 +5918,31 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>5</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>571</v>
+        <v>461</v>
       </c>
       <c r="C72" t="s">
-        <v>572</v>
+        <v>459</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -5534,168 +5951,168 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72">
         <v>5</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
-        <v>43</v>
-      </c>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>498</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
+      <c r="K74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="25"/>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>499</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>570</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" t="s">
-        <v>465</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="H77">
-        <v>6</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -5710,25 +6127,25 @@
         <v>6</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -5743,171 +6160,168 @@
         <v>6</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" t="s">
+        <v>464</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="28"/>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="28"/>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" t="s">
         <v>54</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C85" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>7</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
-      <c r="B82" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>4</v>
-      </c>
-      <c r="H82">
-        <v>7</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="D85" s="10" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>7</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="29"/>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>4</v>
-      </c>
-      <c r="H84">
-        <v>7</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
-      <c r="B85" t="s">
-        <v>392</v>
-      </c>
-      <c r="C85" t="s">
-        <v>390</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>514</v>
-      </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5916,50 +6330,61 @@
         <v>7</v>
       </c>
       <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85" s="4"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A86" s="29"/>
       <c r="B86" t="s">
-        <v>393</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>144</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>515</v>
+        <v>308</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86">
         <v>7</v>
       </c>
       <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" s="4"/>
-      <c r="K86" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="87" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -5974,28 +6399,25 @@
         <v>7</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L87" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -6004,55 +6426,89 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88">
         <v>7</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L88" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="9"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="29"/>
+      <c r="B89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C89" t="s">
+        <v>389</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" s="4"/>
+      <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="28"/>
+      <c r="A90" s="29"/>
+      <c r="B90" t="s">
+        <v>392</v>
+      </c>
+      <c r="C90" t="s">
+        <v>390</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" s="4"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>175</v>
+        <v>515</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -6064,28 +6520,31 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>199</v>
+        <v>309</v>
+      </c>
+      <c r="L91" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
+      <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>176</v>
+        <v>516</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -6094,106 +6553,55 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="28"/>
-      <c r="B93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" t="s">
-        <v>150</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="E93">
-        <v>2</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>8</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L93" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
-      <c r="B94" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="s">
-        <v>290</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94">
-        <v>8</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K94" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L94" t="s">
-        <v>313</v>
-      </c>
+      <c r="L92" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
     </row>
     <row r="95" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A95" s="28"/>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -6208,23 +6616,25 @@
         <v>8</v>
       </c>
       <c r="I95">
-        <v>2</v>
-      </c>
-      <c r="J95" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K95" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -6233,32 +6643,34 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H96">
         <v>8</v>
       </c>
       <c r="I96">
-        <v>2</v>
-      </c>
-      <c r="J96" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K96" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L96" t="s">
-        <v>316</v>
+        <v>283</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A97" s="28"/>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -6273,28 +6685,28 @@
         <v>8</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="L97" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A98" s="28"/>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -6309,34 +6721,34 @@
         <v>8</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="L98" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A99" s="28"/>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -6345,31 +6757,29 @@
         <v>8</v>
       </c>
       <c r="I99">
-        <v>4</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J99" s="4"/>
       <c r="K99" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -6378,31 +6788,29 @@
         <v>8</v>
       </c>
       <c r="I100">
-        <v>4</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J100" s="4"/>
       <c r="K100" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="L100" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6414,31 +6822,31 @@
         <v>8</v>
       </c>
       <c r="I101">
-        <v>5</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>287</v>
+        <v>3</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="L101" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A102" s="28"/>
       <c r="B102" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -6450,26 +6858,28 @@
         <v>8</v>
       </c>
       <c r="I102">
-        <v>5</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>289</v>
+        <v>3</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L102" s="1"/>
-    </row>
-    <row r="103" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="L102" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A103" s="28"/>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -6478,34 +6888,31 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>8</v>
       </c>
       <c r="I103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L103" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A104" s="28"/>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -6514,100 +6921,104 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>8</v>
       </c>
       <c r="I104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="L104" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>8</v>
       </c>
       <c r="I105">
-        <v>7</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="L105" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>8</v>
       </c>
       <c r="I106">
-        <v>8</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -6616,50 +7027,67 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>8</v>
       </c>
       <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="28"/>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>8</v>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
-      <c r="B108" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>7</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A109" s="28"/>
       <c r="B109" t="s">
-        <v>449</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>447</v>
+        <v>184</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -6668,34 +7096,34 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109">
         <v>8</v>
       </c>
       <c r="I109">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>583</v>
+        <v>254</v>
       </c>
       <c r="L109" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A110" s="28"/>
       <c r="B110" t="s">
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>448</v>
+        <v>154</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>518</v>
+        <v>330</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -6704,27 +7132,31 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>8</v>
       </c>
       <c r="I110">
-        <v>16</v>
-      </c>
-      <c r="J110" s="4"/>
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A111" s="28"/>
       <c r="B111" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -6733,64 +7165,50 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>8</v>
       </c>
       <c r="I111">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="L111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="28"/>
-      <c r="B112" t="s">
-        <v>89</v>
-      </c>
-      <c r="C112" t="s">
-        <v>451</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>8</v>
-      </c>
-      <c r="I112">
-        <v>17</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="28"/>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="C113" t="s">
-        <v>156</v>
+        <v>446</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>520</v>
+        <v>339</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -6805,28 +7223,28 @@
         <v>8</v>
       </c>
       <c r="I113">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>75</v>
+        <v>582</v>
       </c>
       <c r="L113" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="28"/>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>447</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -6835,34 +7253,27 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>8</v>
       </c>
       <c r="I114">
-        <v>19</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L114" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J114" s="4"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A115" s="28"/>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -6871,31 +7282,31 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>8</v>
       </c>
       <c r="I115">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A116" s="28"/>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>450</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -6904,31 +7315,31 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H116">
         <v>8</v>
       </c>
       <c r="I116">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J116" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K116" t="s">
-        <v>21</v>
+      <c r="K116" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C117" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -6937,34 +7348,34 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>8</v>
       </c>
       <c r="I117">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="L117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A118" s="28"/>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -6979,25 +7390,28 @@
         <v>8</v>
       </c>
       <c r="I118">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K118" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C119" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -7012,34 +7426,31 @@
         <v>8</v>
       </c>
       <c r="I119">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J119" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L119" t="s">
-        <v>344</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>394</v>
+        <v>158</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -7048,29 +7459,31 @@
         <v>8</v>
       </c>
       <c r="I120">
-        <v>22</v>
-      </c>
-      <c r="J120" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K120" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
-        <v>395</v>
+        <v>186</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -7079,23 +7492,28 @@
         <v>8</v>
       </c>
       <c r="I121">
-        <v>22</v>
-      </c>
-      <c r="J121" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K121" s="1" t="s">
-        <v>35</v>
+        <v>302</v>
+      </c>
+      <c r="L121" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -7110,9 +7528,11 @@
         <v>8</v>
       </c>
       <c r="I122">
-        <v>23</v>
-      </c>
-      <c r="J122" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K122" t="s">
         <v>21</v>
       </c>
@@ -7120,13 +7540,13 @@
     <row r="123" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -7141,32 +7561,34 @@
         <v>8</v>
       </c>
       <c r="I123">
-        <v>23</v>
-      </c>
-      <c r="J123" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K123" s="1" t="s">
         <v>302</v>
       </c>
       <c r="L123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>393</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -7175,29 +7597,29 @@
         <v>8</v>
       </c>
       <c r="I124">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>394</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>345</v>
+        <v>527</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -7206,26 +7628,23 @@
         <v>8</v>
       </c>
       <c r="I125">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L125" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s">
-        <v>387</v>
+        <v>202</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -7240,7 +7659,7 @@
         <v>8</v>
       </c>
       <c r="I126">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" t="s">
@@ -7250,13 +7669,13 @@
     <row r="127" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" t="s">
-        <v>389</v>
+        <v>163</v>
       </c>
       <c r="C127" t="s">
-        <v>388</v>
+        <v>203</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -7271,42 +7690,57 @@
         <v>8</v>
       </c>
       <c r="I127">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L127" t="s">
         <v>343</v>
-      </c>
-      <c r="L127" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
-      <c r="B128" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>8</v>
+      </c>
+      <c r="I128">
+        <v>24</v>
+      </c>
+      <c r="J128" s="4"/>
+      <c r="K128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
-        <v>396</v>
+        <v>207</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -7315,31 +7749,32 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129">
         <v>8</v>
       </c>
       <c r="I129">
-        <v>48</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K129" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="J129" s="4"/>
+      <c r="K129" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L129" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>347</v>
+        <v>531</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -7348,34 +7783,29 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>8</v>
       </c>
       <c r="I130">
-        <v>48</v>
-      </c>
-      <c r="J130" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K130" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L130" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="J130" s="4"/>
+      <c r="K130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" t="s">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>387</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>350</v>
+        <v>532</v>
       </c>
       <c r="E131">
         <v>2</v>
@@ -7384,67 +7814,48 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131">
         <v>8</v>
       </c>
       <c r="I131">
-        <v>49</v>
-      </c>
-      <c r="J131" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="J131" s="4"/>
       <c r="K131" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="L131" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="28"/>
-      <c r="B132" t="s">
-        <v>90</v>
-      </c>
-      <c r="C132" t="s">
-        <v>188</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E132">
-        <v>2</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132">
-        <v>8</v>
-      </c>
-      <c r="I132">
-        <v>49</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="B132" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
       <c r="B133" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C133" t="s">
-        <v>165</v>
+        <v>395</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -7459,28 +7870,25 @@
         <v>8</v>
       </c>
       <c r="I133">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J133" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>353</v>
+      <c r="K133" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C134" t="s">
-        <v>189</v>
+        <v>396</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -7495,7 +7903,7 @@
         <v>8</v>
       </c>
       <c r="I134">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>25</v>
@@ -7504,25 +7912,25 @@
         <v>302</v>
       </c>
       <c r="L134" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -7531,29 +7939,34 @@
         <v>8</v>
       </c>
       <c r="I135">
-        <v>51</v>
-      </c>
-      <c r="J135" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K135" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="C136" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -7562,29 +7975,28 @@
         <v>8</v>
       </c>
       <c r="I136">
-        <v>51</v>
-      </c>
-      <c r="J136" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K136" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L136" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A137" s="28"/>
       <c r="B137" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -7596,31 +8008,31 @@
         <v>8</v>
       </c>
       <c r="I137">
-        <v>52</v>
-      </c>
-      <c r="J137" s="17" t="s">
-        <v>287</v>
+        <v>50</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L137" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="C138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -7632,26 +8044,28 @@
         <v>8</v>
       </c>
       <c r="I138">
-        <v>52</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>289</v>
+        <v>50</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L138" s="1"/>
-    </row>
-    <row r="139" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="L138" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C139" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -7660,34 +8074,29 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>8</v>
       </c>
       <c r="I139">
-        <v>53</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J139" s="4"/>
       <c r="K139" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L139" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="C140" t="s">
-        <v>172</v>
+        <v>381</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>534</v>
+        <v>379</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -7696,136 +8105,276 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>8</v>
       </c>
       <c r="I140">
-        <v>54</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J140" s="4"/>
       <c r="K140" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="L140" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A141" s="28"/>
       <c r="B141" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>535</v>
+        <v>373</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>8</v>
       </c>
       <c r="I141">
+        <v>52</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L141" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="28"/>
+      <c r="B142" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142" t="s">
+        <v>190</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="I142">
+        <v>52</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="28"/>
+      <c r="B143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" t="s">
+        <v>171</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>8</v>
+      </c>
+      <c r="I143">
+        <v>53</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L143" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="28"/>
+      <c r="B144" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" t="s">
+        <v>172</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="I144">
         <v>54</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J144" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="28"/>
+      <c r="B145" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="I145">
+        <v>54</v>
+      </c>
+      <c r="J145" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K141" s="1" t="s">
+      <c r="K145" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L145" t="s">
         <v>358</v>
       </c>
-      <c r="L141" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="9"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="24" t="s">
+    </row>
+    <row r="146" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-    </row>
-    <row r="144" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="26" t="s">
+      <c r="C147" s="7"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+    </row>
+    <row r="148" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B149" t="s">
         <v>259</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C149" t="s">
         <v>260</v>
       </c>
-      <c r="J145" s="4"/>
-      <c r="L145" t="s">
+      <c r="J149" s="4"/>
+      <c r="L149" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="26"/>
-      <c r="J146" s="4"/>
-    </row>
-    <row r="147" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="27" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="26"/>
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="27"/>
-      <c r="B149" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="27"/>
+      <c r="B153" t="s">
         <v>262</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C153" t="s">
         <v>263</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J153" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L153" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A54:A70"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="A90:A141"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A58:A74"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A94:A145"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A31:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7835,10 +8384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7847,11 +8396,12 @@
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7860,81 +8410,373 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" t="s">
         <v>586</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="C3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E6" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>587</v>
-      </c>
-      <c r="C3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>636</v>
       </c>
-      <c r="C6" t="s">
-        <v>635</v>
-      </c>
-      <c r="D6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" t="s">
         <v>637</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>640</v>
       </c>
-      <c r="C7" t="s">
-        <v>641</v>
-      </c>
-      <c r="D7" t="s">
-        <v>642</v>
-      </c>
-      <c r="E7" t="s">
-        <v>643</v>
-      </c>
       <c r="F7" t="s">
-        <v>644</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C9" t="s">
+        <v>666</v>
+      </c>
+      <c r="D9" t="s">
+        <v>667</v>
+      </c>
+      <c r="E9" t="s">
+        <v>668</v>
+      </c>
+      <c r="F9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" t="s">
+        <v>663</v>
+      </c>
+      <c r="D10" t="s">
+        <v>655</v>
+      </c>
+      <c r="E10" t="s">
+        <v>662</v>
+      </c>
+      <c r="F10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D13" t="s">
+        <v>674</v>
+      </c>
+      <c r="E13" t="s">
+        <v>675</v>
+      </c>
+      <c r="F13" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>679</v>
+      </c>
+      <c r="C15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>682</v>
+      </c>
+      <c r="D16" t="s">
+        <v>674</v>
+      </c>
+      <c r="E16" t="s">
+        <v>683</v>
+      </c>
+      <c r="F16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>688</v>
+      </c>
+      <c r="C18" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C19" t="s">
+        <v>686</v>
+      </c>
+      <c r="D19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E19" t="s">
+        <v>687</v>
+      </c>
+      <c r="F19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>691</v>
+      </c>
+      <c r="C21" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C22" t="s">
+        <v>697</v>
+      </c>
+      <c r="D22" t="s">
+        <v>655</v>
+      </c>
+      <c r="E22" t="s">
+        <v>699</v>
+      </c>
+      <c r="F22" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C23" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" t="s">
+        <v>698</v>
+      </c>
+      <c r="D24" t="s">
+        <v>655</v>
+      </c>
+      <c r="E24" t="s">
+        <v>699</v>
+      </c>
+      <c r="F24" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C26" t="s">
+        <v>703</v>
+      </c>
+      <c r="D26" t="s">
+        <v>704</v>
+      </c>
+      <c r="E26" t="s">
+        <v>705</v>
+      </c>
+      <c r="F26" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>707</v>
+      </c>
+      <c r="C27" t="s">
+        <v>708</v>
+      </c>
+      <c r="D27" t="s">
+        <v>704</v>
+      </c>
+      <c r="E27" t="s">
+        <v>705</v>
+      </c>
+      <c r="F27" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>709</v>
+      </c>
+      <c r="C29" t="s">
+        <v>710</v>
+      </c>
+      <c r="D29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E29" t="s">
+        <v>714</v>
+      </c>
+      <c r="F29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>711</v>
+      </c>
+      <c r="C30" t="s">
+        <v>712</v>
+      </c>
+      <c r="D30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E30" t="s">
+        <v>714</v>
+      </c>
+      <c r="F30" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>746</v>
+      </c>
+      <c r="B35" t="s">
+        <v>743</v>
+      </c>
+      <c r="C35" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>744</v>
+      </c>
+      <c r="C36" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>745</v>
+      </c>
+      <c r="C37" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7942,10 +8784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7957,9 +8799,10 @@
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="60.109375" customWidth="1"/>
     <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7968,173 +8811,347 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>586</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>625</v>
+        <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="H4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F5" t="s">
         <v>611</v>
       </c>
-      <c r="D5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>612</v>
       </c>
-      <c r="F5" t="s">
-        <v>614</v>
-      </c>
-      <c r="G5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E6" t="s">
         <v>616</v>
       </c>
-      <c r="C6" t="s">
-        <v>617</v>
-      </c>
-      <c r="D6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E6" t="s">
-        <v>619</v>
-      </c>
       <c r="G6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="C7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E7" t="s">
         <v>620</v>
       </c>
-      <c r="D7" t="s">
-        <v>618</v>
-      </c>
-      <c r="E7" t="s">
-        <v>623</v>
-      </c>
       <c r="F7" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="G7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+      <c r="H7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D8" t="s">
+        <v>615</v>
+      </c>
+      <c r="E8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F8" t="s">
+        <v>635</v>
+      </c>
+      <c r="G8" t="s">
         <v>621</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E9" t="s">
+        <v>626</v>
+      </c>
+      <c r="F9" t="s">
         <v>627</v>
       </c>
-      <c r="D8" t="s">
-        <v>618</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" t="s">
+        <v>719</v>
+      </c>
+      <c r="D10" t="s">
+        <v>717</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" t="s">
+        <v>605</v>
+      </c>
+      <c r="E13" t="s">
+        <v>609</v>
+      </c>
+      <c r="F13" t="s">
+        <v>611</v>
+      </c>
+      <c r="G13" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>613</v>
+      </c>
+      <c r="C14" t="s">
+        <v>614</v>
+      </c>
+      <c r="D14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E14" t="s">
+        <v>616</v>
+      </c>
+      <c r="G14" t="s">
         <v>629</v>
       </c>
-      <c r="F8" t="s">
-        <v>630</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C15" t="s">
+        <v>601</v>
+      </c>
+      <c r="D15" t="s">
+        <v>605</v>
+      </c>
+      <c r="E15" t="s">
+        <v>610</v>
+      </c>
+      <c r="F15" t="s">
+        <v>606</v>
+      </c>
+      <c r="G15" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="H15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>619</v>
+      </c>
+      <c r="C16" t="s">
+        <v>617</v>
+      </c>
+      <c r="D16" t="s">
+        <v>605</v>
+      </c>
+      <c r="E16" t="s">
+        <v>620</v>
+      </c>
+      <c r="F16" t="s">
+        <v>635</v>
+      </c>
+      <c r="G16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>718</v>
+      </c>
+      <c r="C17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D17" t="s">
+        <v>588</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C18" t="s">
+        <v>731</v>
+      </c>
+      <c r="D18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F18" t="s">
+        <v>734</v>
+      </c>
+      <c r="G18" t="s">
+        <v>735</v>
+      </c>
+      <c r="H18" t="s">
+        <v>736</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8144,10 +9161,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8197,61 +9214,81 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" t="s">
         <v>360</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
         <v>365</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" t="s">
         <v>368</v>
-      </c>
-      <c r="C4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" t="s">
         <v>383</v>
       </c>
-      <c r="B5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>385</v>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F6" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -8262,9 +9299,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
@@ -8664,17 +9731,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
-    <sheet name="IO Event" sheetId="4" r:id="rId2"/>
-    <sheet name="GameEvent" sheetId="5" r:id="rId3"/>
-    <sheet name="Modifier" sheetId="3" r:id="rId4"/>
-    <sheet name="音色" sheetId="6" r:id="rId5"/>
-    <sheet name="request(未完成)" sheetId="2" r:id="rId6"/>
+    <sheet name="Error訊息" sheetId="7" r:id="rId2"/>
+    <sheet name="IO Event" sheetId="4" r:id="rId3"/>
+    <sheet name="GameEvent" sheetId="5" r:id="rId4"/>
+    <sheet name="Modifier" sheetId="3" r:id="rId5"/>
+    <sheet name="音色" sheetId="6" r:id="rId6"/>
+    <sheet name="request(未完成)" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="864">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1596,18 +1596,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>段落小節數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClockRateModifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1621,10 +1613,6 @@
   </si>
   <si>
     <t>調整左右手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1680,10 +1668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>難度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手:0為無設定，1為只用左手，2為只用右手
 難度:0為無設定，1為簡單，2為困難</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,12 +1729,6 @@
   <si>
     <t>{
 "UserId":unsigned int
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Status":short
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2592,10 +2570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A,B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2703,10 +2677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電腦控制踏板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>時間暫停</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2766,10 +2736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>踏踏板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A(int):踏下狀態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2778,10 +2744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-踏下，-1-放開</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>切換踏板狀態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2994,10 +2956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電源狀態: 0-關閉電源，1-開啟電源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按下暫停鍵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3106,11 +3064,414 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電腦播放琴音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GamePlaySound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高
+B(float):音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高(24~84)</t>
+  </si>
+  <si>
+    <t>A(int):音高
+B(int):-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,0.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App-&gt;琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由app控制的切換八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高
+B(float):時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallEffect,36,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由app去控制流光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallSpeedModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整落下速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度: 常見速度有32(快)、28、24、20、16(慢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常每首歌曲都有內建的落下速度，所以不用調整。這個是給Instant模式中即時由App控制燈光使用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換畫面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉螢幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App-&gt;琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnOffScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳送電子琴錯誤訊號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyboardErrorMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":string
+"Description":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解釋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command not found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封包command錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong packet format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封包格式錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong packet json context format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封包中json格式錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong event name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤遊戲事件名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong event parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤遊戲事件參數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong event format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤遊戲事件格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤IO事件名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤IO事件格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤IO事件參數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Message":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式執行錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段落小節數(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度(float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicGameModifier,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatPracticeModifier,2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClockRateModifier,0.8,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandDifficultyModifier,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallSpeedModifier,32,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlaySound,47,0.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生光點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpotEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到事件後立刻亮起光點，時間代表該光點維持多久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpotEffect,49,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由app控制琴鍵發光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppPlaySound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App播放琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App控制踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppControlPedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppPlaySound,47,0.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppControlPedal,1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parse sheetmusic error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析譜檔錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitch Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤音高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間代表多久以後流光會落到打擊點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3119,122 +3480,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A(int):音高
-B(float):音量</t>
+    <t>遊戲控制踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲播放琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由App去控制播放琴的琴音，不是玩家彈出的琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppStopSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>音高(24~84)</t>
-  </si>
-  <si>
-    <t>A(int):音高
-B(float):音量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A(int):音高
-B(int):-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,0.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App-&gt;琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由app控制的切換八度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由App去播放的琴音，不是玩家彈出的琴音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>產生流光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FallEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A(int):音高
-B(float):時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間代表多久以後落到打擊點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FallEffect,36,0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由app去控制流光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FallSpeedModifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整落下速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度: 常見速度有32(快)、28、24、20、16(慢)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通常每首歌曲都有內建的落下速度，所以不用調整。這個是給Instant模式中即時由App控制燈光使用的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切換畫面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關閉螢幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>調整音量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App-&gt;琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchScreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TurnOffScreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjustVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppStopSound,47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由App去停止琴的琴音。如果遊戲或App控制踏板踏下的狀態，則這個指令不會有效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳轉小節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(int)跳轉後的小節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionJump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionJump,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反覆練彈模式下只會傳送跳轉小節，不會傳送跳轉時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳轉小節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當傳送繼續事件以後，要過一秒鐘緩衝時間才會實際恢復遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用遊戲模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor-MusicGameModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor-RepeatPracticeModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameStopSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameStopSound,47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由遊戲去停止琴的琴音。如果遊戲或App控制踏板踏下的狀態，則這個指令不會有效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤使用手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小節錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:踏下，-1:放開</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedal,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PedalState,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerState,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電源狀態: 0:關閉電源，1:開啟電源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensitiveState,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SustainState,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftOctave,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftOctaveState,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionKnob,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedKnob,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicVolume,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PianoVolume,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PedalPlugin,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarphonePlugin,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍芽
+(Bluetooth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲事件
+(Game Event)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO事件
+(IO Event)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式執行
+(Program Runtime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲執行
+(Game Runtime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3259,7 +3722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3332,6 +3795,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3347,7 +3822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3440,6 +3915,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3726,11 +4222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3792,10 +4288,10 @@
       <c r="C2" s="16"/>
       <c r="D2" s="21"/>
       <c r="E2" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>303</v>
@@ -3892,7 +4388,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3925,7 +4421,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3946,7 +4442,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L7" s="16"/>
     </row>
@@ -3959,7 +4455,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -3989,10 +4485,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4013,7 +4509,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
@@ -4025,7 +4521,7 @@
         <v>266</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4046,7 +4542,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
@@ -4058,7 +4554,7 @@
         <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4079,7 +4575,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L11" t="s">
         <v>265</v>
@@ -4094,7 +4590,7 @@
         <v>271</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4115,7 +4611,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L12" t="s">
         <v>272</v>
@@ -4124,13 +4620,13 @@
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4149,19 +4645,19 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C14" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4180,7 +4676,7 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -4192,7 +4688,7 @@
         <v>215</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4225,7 +4721,7 @@
         <v>119</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4246,7 +4742,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4258,7 +4754,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4291,7 +4787,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -4312,7 +4808,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -4324,7 +4820,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4345,7 +4841,7 @@
         <v>25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -4357,7 +4853,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -4378,7 +4874,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4386,7 +4882,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -4395,7 +4891,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -4428,7 +4924,7 @@
         <v>124</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -4461,7 +4957,7 @@
         <v>126</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -4494,7 +4990,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4521,13 +5017,13 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -4552,13 +5048,13 @@
     <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C27" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4583,13 +5079,13 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C28" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -4614,13 +5110,13 @@
     <row r="29" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C29" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -4641,66 +5137,66 @@
         <v>25</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" t="s">
+        <v>734</v>
+      </c>
+      <c r="C30" t="s">
+        <v>735</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
       <c r="C32" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -4712,58 +5208,58 @@
         <v>25</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>432</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>297</v>
+        <v>478</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
-        <v>21</v>
+      <c r="K33" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4777,20 +5273,20 @@
       <c r="J34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>2</v>
+      <c r="K34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>484</v>
+        <v>296</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -4799,40 +5295,40 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4844,63 +5340,63 @@
         <v>25</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>256</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" t="s">
-        <v>257</v>
-      </c>
-      <c r="C39" t="s">
-        <v>377</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>486</v>
-      </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4915,64 +5411,64 @@
         <v>25</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L39" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
       <c r="B40" t="s">
-        <v>541</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>537</v>
+        <v>374</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="L40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
       <c r="B41" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C41" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4984,61 +5480,61 @@
         <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
       <c r="B42" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C42" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
       <c r="B43" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C43" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -5050,19 +5546,19 @@
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C44" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -5071,40 +5567,40 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="29"/>
       <c r="B45" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C45" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -5116,69 +5612,66 @@
         <v>25</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+      <c r="B46" t="s">
+        <v>541</v>
+      </c>
+      <c r="C46" t="s">
+        <v>535</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="C47" t="s">
-        <v>402</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="L47" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>397</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -5190,64 +5683,67 @@
         <v>25</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="L48" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
       <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>212</v>
+        <v>0</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C50" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>4</v>
@@ -5255,100 +5751,100 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>213</v>
+      <c r="J50" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C51" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>286</v>
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C52" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>286</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="B53" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5357,22 +5853,22 @@
         <v>3</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="B54" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C54" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -5381,73 +5877,73 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" t="s">
         <v>411</v>
       </c>
       <c r="C55" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -5459,66 +5955,66 @@
         <v>25</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="28"/>
+      <c r="B57" t="s">
+        <v>407</v>
+      </c>
+      <c r="C57" t="s">
+        <v>414</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>178</v>
-      </c>
       <c r="D59" s="10" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -5527,64 +6023,64 @@
         <v>0</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A60" s="29"/>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>568</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
-        <v>455</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>135</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -5596,61 +6092,61 @@
         <v>28</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A62" s="29"/>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>451</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>287</v>
+        <v>1</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A63" s="29"/>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -5658,101 +6154,100 @@
       <c r="I63">
         <v>2</v>
       </c>
-      <c r="J63" s="5" t="s">
-        <v>289</v>
+      <c r="J63" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="1"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="64" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
-        <v>562</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>559</v>
+        <v>179</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>5</v>
       </c>
       <c r="I64">
-        <v>3</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>286</v>
+        <v>2</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>569</v>
+        <v>26</v>
       </c>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
       <c r="B65" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C65" t="s">
+        <v>554</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>566</v>
-      </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>5</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A66" s="29"/>
       <c r="B66" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C66" t="s">
+        <v>555</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>567</v>
-      </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -5764,20 +6259,20 @@
         <v>28</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>302</v>
+        <v>563</v>
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>559</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>556</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -5786,40 +6281,41 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67">
         <v>5</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K67" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -5830,62 +6326,62 @@
       <c r="J68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="B69" t="s">
-        <v>457</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>5</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K69" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>452</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -5896,62 +6392,62 @@
       <c r="J70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>422</v>
+      <c r="K70" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="29"/>
       <c r="B71" t="s">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>458</v>
+        <v>181</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71">
         <v>5</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A72" s="29"/>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C72" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -5963,19 +6459,19 @@
         <v>28</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>456</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>454</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -5984,31 +6480,31 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73">
         <v>5</v>
       </c>
       <c r="I73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A74" s="29"/>
       <c r="B74" t="s">
-        <v>462</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>498</v>
+        <v>167</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -6017,40 +6513,40 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>5</v>
       </c>
       <c r="I74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
+      <c r="K74" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="29"/>
       <c r="B75" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C75" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -6059,37 +6555,37 @@
         <v>9</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>302</v>
+        <v>28</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
+      <c r="A76" s="25"/>
       <c r="B76" t="s">
-        <v>570</v>
+        <v>458</v>
       </c>
       <c r="C76" t="s">
-        <v>571</v>
+        <v>494</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>5</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>25</v>
@@ -6098,63 +6594,63 @@
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="28" t="s">
+    <row r="77" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" t="s">
+        <v>565</v>
+      </c>
+      <c r="C77" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>44</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>6</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" t="s">
-        <v>141</v>
-      </c>
       <c r="D79" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>6</v>
@@ -6166,61 +6662,61 @@
         <v>28</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>438</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>6</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
-        <v>464</v>
+        <v>139</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -6232,61 +6728,61 @@
         <v>28</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>6</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>6</v>
@@ -6298,66 +6794,66 @@
         <v>28</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>54</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>143</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>7</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>308</v>
-      </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>7</v>
@@ -6368,38 +6864,35 @@
       <c r="J86" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A87" s="29"/>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>511</v>
+        <v>308</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87">
         <v>7</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>25</v>
@@ -6407,26 +6900,29 @@
       <c r="K87" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="L87" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A88" s="29"/>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>7</v>
@@ -6438,19 +6934,19 @@
         <v>25</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A89" s="29"/>
       <c r="B89" t="s">
-        <v>391</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>389</v>
+        <v>146</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -6459,36 +6955,40 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H89">
         <v>7</v>
       </c>
       <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="29"/>
       <c r="B90" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C90" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>7</v>
@@ -6499,16 +6999,16 @@
       <c r="J90" s="4"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="29"/>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>386</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -6517,43 +7017,36 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>7</v>
       </c>
       <c r="I91">
-        <v>3</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L91" t="s">
-        <v>310</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A92" s="29"/>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>7</v>
@@ -6565,85 +7058,88 @@
         <v>25</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="29"/>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L92" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="28" t="s">
+      <c r="L93" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B95" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
-      <c r="B95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" t="s">
-        <v>148</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>8</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="C95" s="8"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>8</v>
@@ -6655,37 +7151,34 @@
         <v>25</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A97" s="28"/>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H97">
         <v>8</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>25</v>
@@ -6693,29 +7186,29 @@
       <c r="K97" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="L97" t="s">
-        <v>313</v>
+      <c r="L97" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A98" s="28"/>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>8</v>
@@ -6727,62 +7220,67 @@
         <v>25</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="L98" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A99" s="28"/>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>8</v>
       </c>
       <c r="I99">
-        <v>2</v>
-      </c>
-      <c r="J99" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K99" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="L99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>8</v>
@@ -6792,67 +7290,62 @@
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L100" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>8</v>
       </c>
       <c r="I101">
-        <v>3</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J101" s="4"/>
       <c r="K101" s="1" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="L101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A102" s="28"/>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E102">
         <v>2</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>8</v>
@@ -6864,22 +7357,22 @@
         <v>25</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="L102" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A103" s="28"/>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -6888,40 +7381,43 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>8</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="L103" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A104" s="28"/>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>8</v>
@@ -6933,67 +7429,64 @@
         <v>25</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L104" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>8</v>
       </c>
       <c r="I105">
-        <v>5</v>
-      </c>
-      <c r="J105" s="17" t="s">
-        <v>287</v>
+        <v>4</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="L105" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>8</v>
@@ -7001,102 +7494,105 @@
       <c r="I106">
         <v>5</v>
       </c>
-      <c r="J106" s="5" t="s">
-        <v>289</v>
+      <c r="J106" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L106" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="L106" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="107" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>6</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>286</v>
+        <v>5</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L107" t="s">
-        <v>326</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A108" s="28"/>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>8</v>
       </c>
       <c r="I108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>286</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="L108" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A109" s="28"/>
       <c r="B109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>8</v>
@@ -7105,67 +7601,67 @@
         <v>7</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L109" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A110" s="28"/>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110">
         <v>8</v>
       </c>
       <c r="I110">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="L110" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A111" s="28"/>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>8</v>
@@ -7177,80 +7673,77 @@
         <v>25</v>
       </c>
       <c r="K111" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="28"/>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L112" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
-      <c r="B112" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="28"/>
-      <c r="B113" t="s">
-        <v>448</v>
-      </c>
-      <c r="C113" t="s">
-        <v>446</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>8</v>
-      </c>
-      <c r="I113">
-        <v>16</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="L113" t="s">
-        <v>340</v>
-      </c>
+      <c r="B113" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="28"/>
       <c r="B114" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>517</v>
+        <v>339</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -7261,61 +7754,64 @@
       <c r="I114">
         <v>16</v>
       </c>
-      <c r="J114" s="4"/>
-      <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="J114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L114" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="28"/>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>444</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>341</v>
+        <v>512</v>
       </c>
       <c r="E115">
         <v>2</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>8</v>
       </c>
       <c r="I115">
-        <v>17</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J115" s="4"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A116" s="28"/>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>518</v>
+        <v>341</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>8</v>
@@ -7327,100 +7823,97 @@
         <v>25</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>302</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>445</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
         <v>8</v>
       </c>
       <c r="I117">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L117" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A118" s="28"/>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>8</v>
       </c>
       <c r="I118">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L118" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="E119">
         <v>2</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>8</v>
@@ -7432,61 +7925,64 @@
         <v>25</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="L119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>8</v>
       </c>
       <c r="I120">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K120" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K120" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>8</v>
@@ -7497,65 +7993,65 @@
       <c r="J121" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L121" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C122" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H122">
         <v>8</v>
       </c>
       <c r="I122">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K122" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K122" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L122" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>8</v>
@@ -7566,23 +8062,20 @@
       <c r="J123" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L123" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>393</v>
+        <v>187</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -7591,38 +8084,43 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124">
         <v>8</v>
       </c>
       <c r="I124">
-        <v>22</v>
-      </c>
-      <c r="J124" s="4"/>
-      <c r="K124" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="J124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L124" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>8</v>
@@ -7631,20 +8129,20 @@
         <v>22</v>
       </c>
       <c r="J125" s="4"/>
-      <c r="K125" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -7653,38 +8151,38 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H126">
         <v>8</v>
       </c>
       <c r="I126">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J126" s="4"/>
-      <c r="K126" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K126" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>8</v>
@@ -7693,63 +8191,63 @@
         <v>23</v>
       </c>
       <c r="J127" s="4"/>
-      <c r="K127" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L127" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128">
         <v>8</v>
       </c>
       <c r="I128">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J128" s="4"/>
-      <c r="K128" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K128" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L128" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>344</v>
+        <v>525</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>8</v>
@@ -7758,63 +8256,63 @@
         <v>24</v>
       </c>
       <c r="J129" s="4"/>
-      <c r="K129" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L129" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A130" s="28"/>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>386</v>
+        <v>207</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>531</v>
+        <v>344</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130">
         <v>8</v>
       </c>
       <c r="I130">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J130" s="4"/>
-      <c r="K130" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="K130" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L130" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C131" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>8</v>
@@ -7823,81 +8321,79 @@
         <v>25</v>
       </c>
       <c r="J131" s="4"/>
-      <c r="K131" s="1" t="s">
+      <c r="K131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="28"/>
+      <c r="B132" t="s">
+        <v>384</v>
+      </c>
+      <c r="C132" t="s">
+        <v>383</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>8</v>
+      </c>
+      <c r="I132">
+        <v>25</v>
+      </c>
+      <c r="J132" s="4"/>
+      <c r="K132" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L131" t="s">
+      <c r="L132" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="28"/>
-      <c r="B132" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
-      <c r="B133" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" t="s">
-        <v>395</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E133">
-        <v>2</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>8</v>
-      </c>
-      <c r="I133">
-        <v>48</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K133" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>8</v>
@@ -7908,68 +8404,65 @@
       <c r="J134" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K134" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L134" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="K134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C135" t="s">
-        <v>164</v>
+        <v>392</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135">
         <v>8</v>
       </c>
       <c r="I135">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="L135" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>8</v>
@@ -7981,64 +8474,64 @@
         <v>25</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A137" s="28"/>
       <c r="B137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>8</v>
       </c>
       <c r="I137">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C138" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>8</v>
@@ -8050,22 +8543,22 @@
         <v>25</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L138" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="B139" t="s">
-        <v>251</v>
+        <v>92</v>
       </c>
       <c r="C139" t="s">
-        <v>380</v>
+        <v>189</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -8074,38 +8567,43 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>8</v>
       </c>
       <c r="I139">
-        <v>51</v>
-      </c>
-      <c r="J139" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K139" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="L139" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C140" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>8</v>
@@ -8115,67 +8613,62 @@
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L140" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A141" s="28"/>
       <c r="B141" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="C141" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H141">
         <v>8</v>
       </c>
       <c r="I141">
-        <v>52</v>
-      </c>
-      <c r="J141" s="17" t="s">
-        <v>287</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J141" s="4"/>
       <c r="K141" s="1" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="L141" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A142" s="28"/>
       <c r="B142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>8</v>
@@ -8183,102 +8676,105 @@
       <c r="I142">
         <v>52</v>
       </c>
-      <c r="J142" s="5" t="s">
-        <v>289</v>
+      <c r="J142" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L142" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="L142" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="143" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A143" s="28"/>
       <c r="B143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>8</v>
       </c>
       <c r="I143">
-        <v>53</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>286</v>
+        <v>52</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L143" t="s">
-        <v>326</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A144" s="28"/>
       <c r="B144" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>533</v>
+        <v>372</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>8</v>
       </c>
       <c r="I144">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J144" s="4" t="s">
         <v>286</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="L144" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A145" s="28"/>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E145">
         <v>2</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>8</v>
@@ -8287,94 +8783,127 @@
         <v>54</v>
       </c>
       <c r="J145" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="28"/>
+      <c r="B146" t="s">
+        <v>94</v>
+      </c>
+      <c r="C146" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
+      </c>
+      <c r="I146">
+        <v>54</v>
+      </c>
+      <c r="J146" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K145" s="1" t="s">
+      <c r="K146" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L146" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="24" t="s">
+    <row r="147" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="7"/>
-    </row>
-    <row r="148" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26" t="s">
+      <c r="C148" s="7"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+    </row>
+    <row r="149" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>259</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>260</v>
       </c>
-      <c r="J149" s="4"/>
-      <c r="L149" t="s">
+      <c r="J150" s="4"/>
+      <c r="L150" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="26"/>
-      <c r="J150" s="4"/>
-    </row>
-    <row r="151" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="9"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="27" t="s">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="26"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="27"/>
-      <c r="B153" t="s">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="27"/>
+      <c r="B154" t="s">
         <v>262</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>263</v>
       </c>
-      <c r="J153" s="4" t="s">
+      <c r="J154" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L154" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A153:A154"/>
     <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A58:A74"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A94:A145"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A59:A75"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="A95:A146"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A32:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8384,10 +8913,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>859</v>
+      </c>
+      <c r="B2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="C3" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="D3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="C4" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4" t="s">
+        <v>749</v>
+      </c>
+      <c r="E4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="C5" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="D5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="B7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="D7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="C8" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="D8" t="s">
+        <v>758</v>
+      </c>
+      <c r="E8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="C9" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="D9" t="s">
+        <v>755</v>
+      </c>
+      <c r="E9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="13" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" t="s">
+        <v>760</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="D13" t="s">
+        <v>752</v>
+      </c>
+      <c r="E13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="C14" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="D14" t="s">
+        <v>758</v>
+      </c>
+      <c r="E14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="C15" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="D15" t="s">
+        <v>755</v>
+      </c>
+      <c r="E15" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="B17" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" t="s">
+        <v>766</v>
+      </c>
+      <c r="E17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="C18" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="D18" t="s">
+        <v>795</v>
+      </c>
+      <c r="E18" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="C19" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>863</v>
+      </c>
+      <c r="B21" t="s">
+        <v>798</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D21" t="s">
+        <v>800</v>
+      </c>
+      <c r="E21" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="C22" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D22" t="s">
+        <v>803</v>
+      </c>
+      <c r="E22" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="C23" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="D23" t="s">
+        <v>837</v>
+      </c>
+      <c r="E23" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="C24" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="D24" t="s">
+        <v>840</v>
+      </c>
+      <c r="E24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8410,384 +9235,440 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="B2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" t="s">
         <v>583</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>630</v>
+      <c r="E2" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G2" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>622</v>
+        <v>711</v>
+      </c>
+      <c r="F3" t="s">
+        <v>710</v>
       </c>
       <c r="G3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>842</v>
       </c>
       <c r="C4" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="D4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>724</v>
+        <v>609</v>
+      </c>
+      <c r="E4" t="s">
+        <v>626</v>
       </c>
       <c r="F4" t="s">
-        <v>722</v>
+        <v>843</v>
       </c>
       <c r="G4" t="s">
-        <v>726</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
+      <c r="B5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F5" t="s">
+        <v>668</v>
+      </c>
+      <c r="G5" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="C6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D6" t="s">
-        <v>615</v>
-      </c>
-      <c r="E6" t="s">
-        <v>634</v>
-      </c>
-      <c r="F6" t="s">
-        <v>636</v>
+        <v>676</v>
+      </c>
+      <c r="G6" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" t="s">
-        <v>637</v>
+        <v>680</v>
       </c>
       <c r="C7" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="D7" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="E7" t="s">
-        <v>640</v>
+        <v>678</v>
       </c>
       <c r="F7" t="s">
-        <v>677</v>
+        <v>848</v>
+      </c>
+      <c r="G7" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
+      <c r="B8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C8" t="s">
+        <v>662</v>
+      </c>
+      <c r="G8" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D9" t="s">
         <v>665</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>666</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>667</v>
       </c>
-      <c r="E9" t="s">
-        <v>668</v>
-      </c>
-      <c r="F9" t="s">
-        <v>669</v>
+      <c r="G9" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>663</v>
-      </c>
-      <c r="D10" t="s">
-        <v>655</v>
-      </c>
-      <c r="E10" t="s">
-        <v>662</v>
-      </c>
-      <c r="F10" t="s">
-        <v>678</v>
+        <v>672</v>
+      </c>
+      <c r="G10" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
+      <c r="B11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" t="s">
+        <v>665</v>
+      </c>
+      <c r="E11" t="s">
+        <v>674</v>
+      </c>
+      <c r="F11" t="s">
+        <v>675</v>
+      </c>
+      <c r="G11" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="C12" t="s">
-        <v>671</v>
+        <v>657</v>
+      </c>
+      <c r="D12" t="s">
+        <v>658</v>
+      </c>
+      <c r="E12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F12" t="s">
+        <v>660</v>
+      </c>
+      <c r="G12" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C13" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="D13" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="E13" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="F13" t="s">
-        <v>676</v>
+        <v>669</v>
+      </c>
+      <c r="G13" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" t="s">
+        <v>681</v>
+      </c>
+      <c r="C14" t="s">
+        <v>682</v>
+      </c>
+      <c r="G14" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C15" t="s">
-        <v>681</v>
+        <v>687</v>
+      </c>
+      <c r="D15" t="s">
+        <v>646</v>
+      </c>
+      <c r="E15" t="s">
+        <v>689</v>
+      </c>
+      <c r="F15" t="s">
+        <v>690</v>
+      </c>
+      <c r="G15" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C16" t="s">
-        <v>682</v>
-      </c>
-      <c r="D16" t="s">
-        <v>674</v>
-      </c>
-      <c r="E16" t="s">
-        <v>683</v>
-      </c>
-      <c r="F16" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" t="s">
+        <v>685</v>
+      </c>
+      <c r="C17" t="s">
+        <v>688</v>
+      </c>
+      <c r="D17" t="s">
+        <v>646</v>
+      </c>
+      <c r="E17" t="s">
+        <v>689</v>
+      </c>
+      <c r="F17" t="s">
+        <v>691</v>
+      </c>
+      <c r="G17" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C18" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="D18" t="s">
+        <v>694</v>
+      </c>
+      <c r="E18" t="s">
+        <v>695</v>
+      </c>
+      <c r="F18" t="s">
+        <v>696</v>
+      </c>
+      <c r="G18" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="C19" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="D19" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="E19" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="F19" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+      <c r="G19" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" t="s">
+        <v>699</v>
+      </c>
+      <c r="C20" t="s">
+        <v>700</v>
+      </c>
+      <c r="D20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E20" t="s">
+        <v>704</v>
+      </c>
+      <c r="F20" t="s">
+        <v>705</v>
+      </c>
+      <c r="G20" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="C21" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>696</v>
-      </c>
-      <c r="C22" t="s">
-        <v>697</v>
-      </c>
-      <c r="D22" t="s">
-        <v>655</v>
-      </c>
-      <c r="E22" t="s">
-        <v>699</v>
-      </c>
-      <c r="F22" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>693</v>
-      </c>
-      <c r="C23" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>695</v>
-      </c>
-      <c r="C24" t="s">
-        <v>698</v>
-      </c>
-      <c r="D24" t="s">
-        <v>655</v>
-      </c>
-      <c r="E24" t="s">
-        <v>699</v>
-      </c>
-      <c r="F24" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+      <c r="D21" t="s">
+        <v>703</v>
+      </c>
+      <c r="E21" t="s">
+        <v>704</v>
+      </c>
+      <c r="F21" t="s">
+        <v>705</v>
+      </c>
+      <c r="G21" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>730</v>
+      </c>
       <c r="B26" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="C26" t="s">
-        <v>703</v>
-      </c>
-      <c r="D26" t="s">
-        <v>704</v>
-      </c>
-      <c r="E26" t="s">
-        <v>705</v>
-      </c>
-      <c r="F26" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="C27" t="s">
-        <v>708</v>
-      </c>
-      <c r="D27" t="s">
-        <v>704</v>
-      </c>
-      <c r="E27" t="s">
-        <v>705</v>
-      </c>
-      <c r="F27" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>709</v>
-      </c>
-      <c r="C29" t="s">
-        <v>710</v>
-      </c>
-      <c r="D29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E29" t="s">
-        <v>714</v>
-      </c>
-      <c r="F29" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>711</v>
-      </c>
-      <c r="C30" t="s">
-        <v>712</v>
-      </c>
-      <c r="D30" t="s">
-        <v>713</v>
-      </c>
-      <c r="E30" t="s">
-        <v>714</v>
-      </c>
-      <c r="F30" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>746</v>
-      </c>
-      <c r="B35" t="s">
-        <v>743</v>
-      </c>
-      <c r="C35" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>744</v>
-      </c>
-      <c r="C36" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>745</v>
-      </c>
-      <c r="C37" t="s">
-        <v>749</v>
+        <v>732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>729</v>
+      </c>
+      <c r="C28" t="s">
+        <v>733</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A2:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8797,12 +9678,13 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="60.109375" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="60.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8811,347 +9693,553 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>585</v>
+        <v>826</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H2" t="s">
         <v>597</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G3" t="s">
         <v>593</v>
       </c>
-      <c r="D3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" t="s">
         <v>598</v>
       </c>
-      <c r="F3" t="s">
-        <v>599</v>
-      </c>
-      <c r="G3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G4" t="s">
         <v>600</v>
       </c>
-      <c r="C4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" t="s">
-        <v>605</v>
-      </c>
-      <c r="E4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G4" t="s">
-        <v>628</v>
-      </c>
       <c r="H4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+      <c r="I4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C5" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G5" t="s">
         <v>605</v>
       </c>
-      <c r="E5" t="s">
-        <v>609</v>
-      </c>
-      <c r="F5" t="s">
-        <v>611</v>
-      </c>
-      <c r="G5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E6" t="s">
-        <v>616</v>
-      </c>
-      <c r="G6" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="H6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>818</v>
       </c>
       <c r="C7" t="s">
-        <v>654</v>
+        <v>821</v>
       </c>
       <c r="D7" t="s">
-        <v>656</v>
+        <v>819</v>
       </c>
       <c r="E7" t="s">
-        <v>620</v>
-      </c>
-      <c r="F7" t="s">
-        <v>657</v>
-      </c>
-      <c r="G7" t="s">
-        <v>659</v>
+        <v>820</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="H7" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+      <c r="I7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="C8" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="D8" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="E8" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" t="s">
-        <v>635</v>
+        <v>613</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="G8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="H8" t="s">
+        <v>650</v>
+      </c>
+      <c r="I8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D9" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E9" t="s">
-        <v>626</v>
-      </c>
-      <c r="F9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G9" t="s">
         <v>627</v>
       </c>
-      <c r="G9" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D10" t="s">
+        <v>609</v>
+      </c>
+      <c r="E10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G10" t="s">
+        <v>620</v>
+      </c>
+      <c r="H10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C11" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H11" t="s">
+        <v>781</v>
+      </c>
+      <c r="I11" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C12" t="s">
+        <v>832</v>
+      </c>
+      <c r="D12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="H12" t="s">
+        <v>833</v>
+      </c>
+      <c r="I12" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>714</v>
+      </c>
+      <c r="B15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D15" t="s">
+        <v>599</v>
+      </c>
+      <c r="E15" t="s">
+        <v>603</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G15" t="s">
+        <v>605</v>
+      </c>
+      <c r="H15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>607</v>
+      </c>
+      <c r="C16" t="s">
+        <v>608</v>
+      </c>
+      <c r="D16" t="s">
+        <v>599</v>
+      </c>
+      <c r="E16" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="H16" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>824</v>
+      </c>
+      <c r="C17" t="s">
+        <v>821</v>
+      </c>
+      <c r="D17" t="s">
+        <v>819</v>
+      </c>
+      <c r="E17" t="s">
+        <v>820</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H17" t="s">
+        <v>822</v>
+      </c>
+      <c r="I17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>594</v>
+      </c>
+      <c r="C18" t="s">
+        <v>595</v>
+      </c>
+      <c r="D18" t="s">
+        <v>599</v>
+      </c>
+      <c r="E18" t="s">
+        <v>604</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G18" t="s">
+        <v>600</v>
+      </c>
+      <c r="H18" t="s">
+        <v>621</v>
+      </c>
+      <c r="I18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>612</v>
+      </c>
+      <c r="C19" t="s">
+        <v>611</v>
+      </c>
+      <c r="D19" t="s">
+        <v>599</v>
+      </c>
+      <c r="E19" t="s">
+        <v>613</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G19" t="s">
+        <v>627</v>
+      </c>
+      <c r="H19" t="s">
+        <v>614</v>
+      </c>
+      <c r="I19" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>790</v>
+      </c>
+      <c r="C20" t="s">
+        <v>791</v>
+      </c>
+      <c r="D20" t="s">
+        <v>609</v>
+      </c>
+      <c r="E20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G20" t="s">
+        <v>620</v>
+      </c>
+      <c r="H20" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>789</v>
+      </c>
+      <c r="C21" t="s">
+        <v>788</v>
+      </c>
+      <c r="D21" t="s">
+        <v>583</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H21" t="s">
+        <v>792</v>
+      </c>
+      <c r="I21" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>789</v>
+      </c>
+      <c r="C22" t="s">
+        <v>813</v>
+      </c>
+      <c r="D22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="H22" t="s">
+        <v>816</v>
+      </c>
+      <c r="I22" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>716</v>
+      </c>
+      <c r="C23" t="s">
+        <v>717</v>
+      </c>
+      <c r="D23" t="s">
         <v>718</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E23" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="D10" t="s">
-        <v>717</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G23" t="s">
+        <v>808</v>
+      </c>
+      <c r="H23" t="s">
+        <v>720</v>
+      </c>
+      <c r="I23" t="s">
         <v>721</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H10" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>727</v>
-      </c>
-      <c r="B13" t="s">
-        <v>607</v>
-      </c>
-      <c r="C13" t="s">
-        <v>608</v>
-      </c>
-      <c r="D13" t="s">
-        <v>605</v>
-      </c>
-      <c r="E13" t="s">
-        <v>609</v>
-      </c>
-      <c r="F13" t="s">
-        <v>611</v>
-      </c>
-      <c r="G13" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>613</v>
-      </c>
-      <c r="C14" t="s">
-        <v>614</v>
-      </c>
-      <c r="D14" t="s">
-        <v>605</v>
-      </c>
-      <c r="E14" t="s">
-        <v>616</v>
-      </c>
-      <c r="G14" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>600</v>
-      </c>
-      <c r="C15" t="s">
-        <v>601</v>
-      </c>
-      <c r="D15" t="s">
-        <v>605</v>
-      </c>
-      <c r="E15" t="s">
-        <v>610</v>
-      </c>
-      <c r="F15" t="s">
-        <v>606</v>
-      </c>
-      <c r="G15" t="s">
-        <v>628</v>
-      </c>
-      <c r="H15" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>619</v>
-      </c>
-      <c r="C16" t="s">
-        <v>617</v>
-      </c>
-      <c r="D16" t="s">
-        <v>605</v>
-      </c>
-      <c r="E16" t="s">
-        <v>620</v>
-      </c>
-      <c r="F16" t="s">
-        <v>635</v>
-      </c>
-      <c r="G16" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>718</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="24" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>782</v>
+      </c>
+      <c r="C24" t="s">
+        <v>783</v>
+      </c>
+      <c r="D24" t="s">
+        <v>784</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="D17" t="s">
-        <v>588</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H17" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>730</v>
-      </c>
-      <c r="C18" t="s">
-        <v>731</v>
-      </c>
-      <c r="D18" t="s">
-        <v>732</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="F18" t="s">
-        <v>734</v>
-      </c>
-      <c r="G18" t="s">
-        <v>735</v>
-      </c>
-      <c r="H18" t="s">
-        <v>736</v>
+      <c r="F24" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G24" t="s">
+        <v>785</v>
+      </c>
+      <c r="H24" t="s">
+        <v>786</v>
+      </c>
+      <c r="I24" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9159,12 +10247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9175,9 +10263,10 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="44.5546875" customWidth="1"/>
     <col min="6" max="6" width="58.109375" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>273</v>
       </c>
@@ -9196,8 +10285,11 @@
       <c r="F1" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -9214,10 +10306,13 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="G2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -9225,7 +10320,7 @@
         <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>770</v>
       </c>
       <c r="D3" t="s">
         <v>360</v>
@@ -9234,61 +10329,73 @@
         <v>362</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="G3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D4" t="s">
         <v>364</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" t="s">
         <v>367</v>
       </c>
-      <c r="C4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B5" t="s">
-        <v>369</v>
-      </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>772</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>773</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="G5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="D6" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="F6" t="s">
-        <v>742</v>
+        <v>725</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G6" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -9297,12 +10404,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9312,14 +10419,19 @@
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>835</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9327,12 +10439,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A46"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="895">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1739,17 +1739,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:已有完整主程式
-1:已有部分主程式
--1:沒有主程式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NewFirmwareData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewFirmwareSplitFileSegment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1784,14 +1774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>傳送新電子琴主程式結束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到傳送新電子琴主程式結束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FinishWriteNewFirmwareSplit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1801,27 +1783,6 @@
   </si>
   <si>
     <t>要求重傳新電子琴主程式分割片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求重傳新電子琴主程式分割</t>
-  </si>
-  <si>
-    <t>RequestRewriteNewFirmwareSplit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishWriteNewFirmware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AckFinishWriteNewFirmware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"FileName":string
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2146,38 +2107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03000401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04120401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02110402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02000403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02120403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02110404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02000405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02120405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02000500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2426,17 +2355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"FileName":string
-"Split":string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>split的數字代表這個檔案分為幾個分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RequestRewriteHardwareLogFileSegment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3698,6 +3616,220 @@
   <si>
     <t>遊戲執行
 (Game Runtime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestNewFirmwareSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckRequestNewFirmwareSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求新電子琴主程式分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到要求新電子琴主程式分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+"Status":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=0代表將開始傳送，status&lt;0代表要求失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功更新新電子琴主程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到成功更新新電子琴主程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishRequestNewFirmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckFinishRequestNewFirmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常都傳status=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split的數字代表這個檔案分為幾個分割，app要先將主程式切成多個分割，每個分割16kb，並且告知分割數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName為主程式名稱連接分割片段，例如主程式為Mto3a5dc，分割片段為第42段，名稱就是Mto3a5dc.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileName為主程式名稱連接分割片段，例如主程式為Mto3a5dc，分割片段為第42段，名稱就是Mto3a5dc.42
+status=0代表將開始傳送，status&lt;0代表要求失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已有完整主程式
+1:已有部分主程式
+2:已有更新主程式
+-1:沒有主程式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+"Status":short
+("TempFileName":string)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果以有更新的主程式，就會在TempFileName欄位放入更新的主程式。目前的設計下沒辦法回朔版本，更新的時候只會抓版本更新的主程式，不會抓舊的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhiteKeyTargetLineModifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整白鍵打擊點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高打擊點為10，低打擊點為15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用來調整白鍵的打擊點高度，Meteor和Instant模式都適用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhiteKeyTargetLineModifier,10,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除新電子琴主程式分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearNewFirmwareSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到清除新電子琴主程式分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckClearNewFirmwareSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03000403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04120403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02100406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02020406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status=0為成功，status&lt;0為失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combine firmware error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組合電子琴主程式錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般
+(General)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容皆可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"FileName":string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewFirmwareSplitFileSegment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3901,24 +4033,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3936,6 +4050,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4222,11 +4354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4291,7 +4423,7 @@
         <v>373</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>303</v>
@@ -4306,7 +4438,7 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -4344,7 +4476,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="34"/>
       <c r="B5" t="s">
         <v>112</v>
       </c>
@@ -4380,7 +4512,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="34"/>
       <c r="B6" t="s">
         <v>114</v>
       </c>
@@ -4388,7 +4520,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4413,7 +4545,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="34"/>
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -4421,7 +4553,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4442,12 +4574,12 @@
         <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="34"/>
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -4455,7 +4587,7 @@
         <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4480,15 +4612,15 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="34"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4509,11 +4641,11 @@
         <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="34"/>
       <c r="B10" t="s">
         <v>268</v>
       </c>
@@ -4521,7 +4653,7 @@
         <v>266</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4542,11 +4674,11 @@
         <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="34"/>
       <c r="B11" t="s">
         <v>269</v>
       </c>
@@ -4554,7 +4686,7 @@
         <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4575,14 +4707,14 @@
         <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="34"/>
       <c r="B12" t="s">
         <v>270</v>
       </c>
@@ -4590,7 +4722,7 @@
         <v>271</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4611,22 +4743,22 @@
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="34"/>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C13" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4645,19 +4777,19 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" t="s">
-        <v>449</v>
-      </c>
-      <c r="C14" t="s">
-        <v>448</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4676,11 +4808,11 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="34"/>
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -4688,7 +4820,7 @@
         <v>215</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4713,7 +4845,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="34"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -4721,7 +4853,7 @@
         <v>119</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4742,11 +4874,11 @@
         <v>25</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="34"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -4754,7 +4886,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4779,7 +4911,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="34"/>
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -4787,7 +4919,7 @@
         <v>121</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -4812,7 +4944,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="34"/>
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -4820,7 +4952,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4845,7 +4977,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="34"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -4853,7 +4985,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -4881,8 +5013,8 @@
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>430</v>
+      <c r="A22" s="35" t="s">
+        <v>421</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -4891,7 +5023,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -4916,7 +5048,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="35"/>
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -4924,7 +5056,7 @@
         <v>124</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -4949,7 +5081,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="35"/>
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -4957,7 +5089,7 @@
         <v>126</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -4982,7 +5114,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="35"/>
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +5122,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -5015,15 +5147,15 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="35"/>
       <c r="B26" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="C26" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -5046,15 +5178,15 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="35"/>
       <c r="B27" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="C27" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -5077,15 +5209,15 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="35"/>
       <c r="B28" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="C28" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -5108,15 +5240,15 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="35"/>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="C29" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -5141,15 +5273,15 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="35"/>
       <c r="B30" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="C30" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -5170,24 +5302,24 @@
         <v>25</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -5212,15 +5344,15 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="34"/>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -5241,11 +5373,11 @@
         <v>25</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="34"/>
       <c r="B34" t="s">
         <v>19</v>
       </c>
@@ -5278,7 +5410,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="34"/>
       <c r="B35" t="s">
         <v>18</v>
       </c>
@@ -5311,7 +5443,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="34"/>
       <c r="B36" t="s">
         <v>39</v>
       </c>
@@ -5319,7 +5451,7 @@
         <v>133</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -5344,7 +5476,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="34"/>
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -5352,7 +5484,7 @@
         <v>132</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -5380,7 +5512,7 @@
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
@@ -5415,7 +5547,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="35"/>
       <c r="B40" t="s">
         <v>257</v>
       </c>
@@ -5423,7 +5555,7 @@
         <v>374</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -5451,15 +5583,15 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
+      <c r="A41" s="35"/>
       <c r="B41" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C41" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -5480,19 +5612,19 @@
         <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
+      <c r="A42" s="35"/>
       <c r="B42" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="C42" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -5513,19 +5645,19 @@
         <v>25</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="35"/>
       <c r="B43" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C43" t="s">
+        <v>513</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>547</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5546,19 +5678,19 @@
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="35"/>
       <c r="B44" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="C44" t="s">
+        <v>514</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>548</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -5579,19 +5711,19 @@
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="35"/>
       <c r="B45" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C45" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -5612,19 +5744,19 @@
         <v>25</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="35"/>
       <c r="B46" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C46" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -5645,24 +5777,24 @@
         <v>25</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -5683,14 +5815,14 @@
         <v>25</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>552</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="81" x14ac:dyDescent="0.3">
+      <c r="A49" s="34"/>
       <c r="B49" t="s">
         <v>24</v>
       </c>
@@ -5698,7 +5830,7 @@
         <v>177</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -5719,25 +5851,28 @@
         <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>302</v>
+        <v>860</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
+        <v>859</v>
+      </c>
+      <c r="M49" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="34"/>
       <c r="B50" t="s">
-        <v>402</v>
+        <v>869</v>
       </c>
       <c r="C50" t="s">
-        <v>398</v>
+        <v>870</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>484</v>
+        <v>873</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5751,26 +5886,27 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" s="17" t="s">
-        <v>212</v>
+      <c r="J50" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
+        <v>884</v>
+      </c>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="34"/>
       <c r="B51" t="s">
-        <v>403</v>
+        <v>871</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>872</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>485</v>
+        <v>874</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5784,24 +5920,26 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>213</v>
+      <c r="J51" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="34"/>
       <c r="B52" t="s">
-        <v>410</v>
+        <v>847</v>
       </c>
       <c r="C52" t="s">
-        <v>400</v>
+        <v>845</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>486</v>
+        <v>875</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -5810,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -5819,23 +5957,25 @@
         <v>2</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
+        <v>893</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="34"/>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>848</v>
       </c>
       <c r="C53" t="s">
-        <v>408</v>
+        <v>846</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>487</v>
+        <v>876</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -5844,40 +5984,43 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+      <c r="B54" t="s">
+        <v>400</v>
+      </c>
+      <c r="C54" t="s">
+        <v>894</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="E54">
         <v>3</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" t="s">
-        <v>405</v>
-      </c>
-      <c r="C54" t="s">
-        <v>409</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5885,98 +6028,100 @@
       <c r="I54">
         <v>3</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>25</v>
+      <c r="J54" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="81" x14ac:dyDescent="0.3">
+      <c r="A55" s="34"/>
       <c r="B55" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>489</v>
+        <v>878</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
       <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="34"/>
       <c r="B56" t="s">
         <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>490</v>
+        <v>879</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>4</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+        <v>534</v>
+      </c>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="34"/>
       <c r="B57" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>491</v>
+        <v>880</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -5988,260 +6133,267 @@
         <v>25</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="34"/>
+      <c r="B58" t="s">
+        <v>403</v>
+      </c>
+      <c r="C58" t="s">
+        <v>405</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="34"/>
+      <c r="B59" t="s">
+        <v>851</v>
+      </c>
+      <c r="C59" t="s">
+        <v>853</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="34"/>
+      <c r="B60" t="s">
+        <v>852</v>
+      </c>
+      <c r="C60" t="s">
+        <v>854</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>5</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" t="s">
-        <v>450</v>
-      </c>
-      <c r="C62" t="s">
-        <v>451</v>
-      </c>
       <c r="D62" s="10" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="35"/>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>5</v>
       </c>
       <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>287</v>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="35"/>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>5</v>
       </c>
       <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>289</v>
+        <v>1</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="35"/>
       <c r="B65" t="s">
-        <v>557</v>
+        <v>441</v>
       </c>
       <c r="C65" t="s">
-        <v>554</v>
+        <v>442</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>5</v>
       </c>
       <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L65" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="35"/>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E66">
         <v>3</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="B66" t="s">
-        <v>558</v>
-      </c>
-      <c r="C66" t="s">
-        <v>555</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -6253,29 +6405,28 @@
         <v>5</v>
       </c>
       <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="35"/>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E67">
         <v>4</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
-      <c r="B67" t="s">
-        <v>559</v>
-      </c>
-      <c r="C67" t="s">
-        <v>556</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6287,26 +6438,26 @@
         <v>5</v>
       </c>
       <c r="I67">
-        <v>4</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
+    <row r="68" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="35"/>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>538</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>535</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -6315,31 +6466,32 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>5</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K68" t="s">
-        <v>21</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
+      <c r="A69" s="35"/>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>536</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -6348,31 +6500,32 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>5</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
+        <v>544</v>
+      </c>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="35"/>
       <c r="B70" t="s">
-        <v>452</v>
+        <v>540</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>537</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -6381,130 +6534,131 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>5</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
+      <c r="K70" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="35"/>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>5</v>
       </c>
       <c r="I71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>417</v>
+      <c r="K71" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
+      <c r="A72" s="35"/>
       <c r="B72" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>453</v>
+        <v>180</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72">
         <v>5</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="35"/>
       <c r="B73" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C73" t="s">
-        <v>454</v>
+        <v>174</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>5</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>419</v>
+      <c r="K73" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
+      <c r="A74" s="35"/>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -6513,37 +6667,37 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>5</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="35"/>
       <c r="B75" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C75" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6552,31 +6706,31 @@
         <v>5</v>
       </c>
       <c r="I75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K75" t="s">
-        <v>21</v>
+      <c r="K75" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
+      <c r="A76" s="35"/>
       <c r="B76" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C76" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6585,25 +6739,25 @@
         <v>5</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>302</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+      <c r="A77" s="35"/>
       <c r="B77" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>566</v>
+        <v>167</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -6618,233 +6772,261 @@
         <v>5</v>
       </c>
       <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="35"/>
+      <c r="B78" t="s">
+        <v>448</v>
+      </c>
+      <c r="C78" t="s">
+        <v>476</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>9</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="25"/>
+      <c r="B79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C79" t="s">
+        <v>477</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>9</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
+      <c r="B80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C80" t="s">
+        <v>547</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
         <v>10</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="28" t="s">
+      <c r="K80" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>44</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C82" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>6</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>4</v>
-      </c>
-      <c r="H80">
-        <v>6</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
-      <c r="B81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>6</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
-      <c r="B82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" t="s">
-        <v>459</v>
-      </c>
       <c r="D82" s="10" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>6</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="34"/>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83">
         <v>6</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>196</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
+      <c r="A84" s="34"/>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>6</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
-        <v>53</v>
-      </c>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="34"/>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>450</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="34"/>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>307</v>
+        <v>487</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -6856,28 +7038,28 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="81" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
+        <v>28</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="34"/>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>308</v>
+        <v>488</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -6889,97 +7071,66 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="29"/>
-      <c r="B88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>7</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>7</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
+      <c r="K89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+      <c r="A90" s="35"/>
       <c r="B90" t="s">
-        <v>387</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>144</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>508</v>
+        <v>308</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -6988,27 +7139,34 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H90">
         <v>7</v>
       </c>
       <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" s="4"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="35"/>
       <c r="B91" t="s">
-        <v>388</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>386</v>
+        <v>145</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -7017,63 +7175,64 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>7</v>
       </c>
       <c r="I91">
-        <v>2</v>
-      </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="35"/>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>7</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="L92" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="35"/>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>387</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>385</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -7082,333 +7241,321 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>7</v>
       </c>
       <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="35"/>
+      <c r="B94" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" t="s">
+        <v>386</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>7</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="35"/>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>7</v>
+      </c>
+      <c r="I95">
         <v>3</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J95" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L93" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
+      <c r="K95" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="35"/>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>175</v>
+        <v>494</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="28"/>
-      <c r="B97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>4</v>
-      </c>
-      <c r="H97">
-        <v>8</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
-      <c r="B98" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>8</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L98" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="L96" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="34"/>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>8</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L99" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="28"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="34"/>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
-        <v>288</v>
+        <v>149</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100">
         <v>8</v>
       </c>
       <c r="I100">
-        <v>2</v>
-      </c>
-      <c r="J100" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K100" s="1" t="s">
-        <v>196</v>
+        <v>283</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="28"/>
+      <c r="A101" s="34"/>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>150</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>8</v>
       </c>
       <c r="I101">
-        <v>2</v>
-      </c>
-      <c r="J101" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K101" s="1" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="L101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="28"/>
+      <c r="A102" s="34"/>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E102">
         <v>2</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>8</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="L102" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="28"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="34"/>
       <c r="B103" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E103">
         <v>2</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>8</v>
       </c>
       <c r="I103">
-        <v>3</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J103" s="4"/>
       <c r="K103" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L103" t="s">
-        <v>318</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
+      <c r="A104" s="34"/>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -7417,31 +7564,32 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>8</v>
       </c>
       <c r="I104">
-        <v>4</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J104" s="4"/>
       <c r="K104" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="L104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="34"/>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -7450,143 +7598,142 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>8</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L105" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="28"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="34"/>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>8</v>
       </c>
       <c r="I106">
-        <v>5</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>287</v>
+        <v>3</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="L106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="28"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="34"/>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>5</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>289</v>
+        <v>4</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L107" s="1"/>
-    </row>
-    <row r="108" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="28"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="34"/>
       <c r="B108" t="s">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>8</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L108" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="28"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="34"/>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -7598,28 +7745,31 @@
         <v>8</v>
       </c>
       <c r="I109">
-        <v>7</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>286</v>
+        <v>5</v>
+      </c>
+      <c r="J109" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L109" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="34"/>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -7631,250 +7781,258 @@
         <v>8</v>
       </c>
       <c r="I110">
-        <v>7</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L110" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="34"/>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>8</v>
       </c>
       <c r="I111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="28"/>
+        <v>325</v>
+      </c>
+      <c r="L111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="34"/>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>8</v>
       </c>
       <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="34"/>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
         <v>8</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="K113" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L112" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="28"/>
-      <c r="B113" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="28"/>
+      <c r="L113" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="34"/>
       <c r="B114" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>8</v>
       </c>
       <c r="I114">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J114" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L114" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="28"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="34"/>
       <c r="B115" t="s">
-        <v>444</v>
+        <v>73</v>
       </c>
       <c r="C115" t="s">
-        <v>442</v>
+        <v>201</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>512</v>
+        <v>337</v>
       </c>
       <c r="E115">
         <v>2</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115">
         <v>8</v>
       </c>
       <c r="I115">
-        <v>16</v>
-      </c>
-      <c r="J115" s="4"/>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="28"/>
-      <c r="B116" t="s">
-        <v>88</v>
-      </c>
-      <c r="C116" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E116">
-        <v>2</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
         <v>8</v>
       </c>
-      <c r="I116">
-        <v>17</v>
-      </c>
-      <c r="J116" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
+      <c r="K115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L115" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="34"/>
+      <c r="B116" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="34"/>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>434</v>
       </c>
       <c r="C117" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>513</v>
+        <v>339</v>
       </c>
       <c r="E117">
         <v>2</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>8</v>
       </c>
       <c r="I117">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="28"/>
+        <v>558</v>
+      </c>
+      <c r="L117" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="34"/>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>435</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>433</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -7883,34 +8041,27 @@
         <v>8</v>
       </c>
       <c r="I118">
-        <v>18</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L118" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="J118" s="4"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="34"/>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>515</v>
+        <v>341</v>
       </c>
       <c r="E119">
         <v>2</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -7919,34 +8070,31 @@
         <v>8</v>
       </c>
       <c r="I119">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J119" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L119" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="28"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="34"/>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C120" t="s">
-        <v>185</v>
+        <v>436</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -7955,163 +8103,163 @@
         <v>8</v>
       </c>
       <c r="I120">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="28"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="34"/>
       <c r="B121" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>8</v>
       </c>
       <c r="I121">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J121" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K121" t="s">
-        <v>21</v>
+      <c r="K121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L121" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="28"/>
+      <c r="A122" s="34"/>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C122" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>8</v>
       </c>
       <c r="I122">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="L122" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="28"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="34"/>
       <c r="B123" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>8</v>
       </c>
       <c r="I123">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K123" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="28"/>
+      <c r="K123" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="34"/>
       <c r="B124" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C124" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>8</v>
       </c>
       <c r="I124">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L124" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="28"/>
+      <c r="K124" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="34"/>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>389</v>
+        <v>186</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -8120,29 +8268,34 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>8</v>
       </c>
       <c r="I125">
-        <v>22</v>
-      </c>
-      <c r="J125" s="4"/>
-      <c r="K125" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="28"/>
+        <v>20</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L125" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="34"/>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>390</v>
+        <v>159</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -8151,60 +8304,67 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>8</v>
       </c>
       <c r="I126">
-        <v>22</v>
-      </c>
-      <c r="J126" s="4"/>
-      <c r="K126" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="34"/>
       <c r="B127" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
         <v>8</v>
       </c>
       <c r="I127">
-        <v>23</v>
-      </c>
-      <c r="J127" s="4"/>
-      <c r="K127" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="28"/>
+      <c r="J127" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L127" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="34"/>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C128" t="s">
-        <v>203</v>
+        <v>389</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -8213,32 +8373,29 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>8</v>
       </c>
       <c r="I128">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J128" s="4"/>
-      <c r="K128" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L128" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="28"/>
+      <c r="K128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="34"/>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C129" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -8247,150 +8404,165 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129">
         <v>8</v>
       </c>
       <c r="I129">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J129" s="4"/>
-      <c r="K129" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="28"/>
+      <c r="K129" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="34"/>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="C130" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>8</v>
       </c>
       <c r="I130">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J130" s="4"/>
-      <c r="K130" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L130" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="28"/>
+      <c r="K130" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="34"/>
       <c r="B131" t="s">
-        <v>381</v>
+        <v>163</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131">
         <v>8</v>
       </c>
       <c r="I131">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J131" s="4"/>
-      <c r="K131" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="28"/>
+      <c r="K131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L131" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="34"/>
       <c r="B132" t="s">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>383</v>
+        <v>206</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>8</v>
       </c>
       <c r="I132">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J132" s="4"/>
-      <c r="K132" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L132" t="s">
+      <c r="K132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="34"/>
+      <c r="B133" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <v>24</v>
+      </c>
+      <c r="J133" s="4"/>
+      <c r="K133" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L133" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="28"/>
-      <c r="B133" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-    </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="28"/>
+      <c r="A134" s="34"/>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>381</v>
       </c>
       <c r="C134" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>345</v>
+        <v>509</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -8399,31 +8571,29 @@
         <v>8</v>
       </c>
       <c r="I134">
-        <v>48</v>
-      </c>
-      <c r="J134" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="J134" s="4"/>
       <c r="K134" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="28"/>
+      <c r="A135" s="34"/>
       <c r="B135" t="s">
-        <v>86</v>
+        <v>384</v>
       </c>
       <c r="C135" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>346</v>
+        <v>510</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -8432,169 +8602,147 @@
         <v>8</v>
       </c>
       <c r="I135">
-        <v>48</v>
-      </c>
-      <c r="J135" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="J135" s="4"/>
       <c r="K135" s="1" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="L135" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A136" s="28"/>
-      <c r="B136" t="s">
-        <v>87</v>
-      </c>
-      <c r="C136" t="s">
-        <v>164</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E136">
-        <v>2</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>8</v>
-      </c>
-      <c r="I136">
-        <v>49</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="28"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="34"/>
+      <c r="B136" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="34"/>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C137" t="s">
-        <v>188</v>
+        <v>391</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>8</v>
       </c>
       <c r="I137">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K137" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="28"/>
+      <c r="K137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="34"/>
       <c r="B138" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C138" t="s">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H138">
         <v>8</v>
       </c>
       <c r="I138">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="28"/>
+        <v>302</v>
+      </c>
+      <c r="L138" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A139" s="34"/>
       <c r="B139" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>8</v>
       </c>
       <c r="I139">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J139" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L139" t="s">
-        <v>353</v>
+        <v>414</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="28"/>
+      <c r="A140" s="34"/>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="C140" t="s">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -8603,29 +8751,31 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>8</v>
       </c>
       <c r="I140">
-        <v>51</v>
-      </c>
-      <c r="J140" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K140" s="1" t="s">
-        <v>253</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="28"/>
+      <c r="A141" s="34"/>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="C141" t="s">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -8634,141 +8784,138 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>8</v>
       </c>
       <c r="I141">
-        <v>51</v>
-      </c>
-      <c r="J141" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K141" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L141" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="28"/>
+        <v>351</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="34"/>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="C142" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142">
         <v>8</v>
       </c>
       <c r="I142">
-        <v>52</v>
-      </c>
-      <c r="J142" s="17" t="s">
-        <v>287</v>
+        <v>50</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="L142" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="28"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="34"/>
       <c r="B143" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="C143" t="s">
-        <v>190</v>
+        <v>377</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>8</v>
       </c>
       <c r="I143">
-        <v>52</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>289</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J143" s="4"/>
       <c r="K143" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L143" s="1"/>
-    </row>
-    <row r="144" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="28"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="34"/>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>378</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144">
         <v>8</v>
       </c>
       <c r="I144">
-        <v>53</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>286</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J144" s="4"/>
       <c r="K144" s="1" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="L144" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="28"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="34"/>
       <c r="B145" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C145" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>528</v>
+        <v>370</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -8780,28 +8927,31 @@
         <v>8</v>
       </c>
       <c r="I145">
-        <v>54</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>286</v>
+        <v>52</v>
+      </c>
+      <c r="J145" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L145" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="34"/>
       <c r="B146" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>529</v>
+        <v>371</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -8813,94 +8963,197 @@
         <v>8</v>
       </c>
       <c r="I146">
+        <v>52</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="34"/>
+      <c r="B147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>8</v>
+      </c>
+      <c r="I147">
+        <v>53</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="34"/>
+      <c r="B148" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" t="s">
+        <v>172</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+      <c r="I148">
         <v>54</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J148" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="34"/>
+      <c r="B149" t="s">
+        <v>94</v>
+      </c>
+      <c r="C149" t="s">
+        <v>191</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>8</v>
+      </c>
+      <c r="I149">
+        <v>54</v>
+      </c>
+      <c r="J149" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K146" s="1" t="s">
+      <c r="K149" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L149" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="24" t="s">
+    <row r="150" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B151" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="7"/>
-    </row>
-    <row r="149" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B150" t="s">
-        <v>259</v>
-      </c>
-      <c r="C150" t="s">
-        <v>260</v>
-      </c>
-      <c r="J150" s="4"/>
-      <c r="L150" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="26"/>
-      <c r="J151" s="4"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
     </row>
     <row r="152" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="27" t="s">
+    <row r="153" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153" t="s">
+        <v>259</v>
+      </c>
+      <c r="C153" t="s">
+        <v>260</v>
+      </c>
+      <c r="J153" s="4"/>
+      <c r="L153" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="32"/>
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="27"/>
-      <c r="B154" t="s">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="33"/>
+      <c r="B157" t="s">
         <v>262</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C157" t="s">
         <v>263</v>
       </c>
-      <c r="J154" s="4" t="s">
+      <c r="J157" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L157" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A150:A151"/>
     <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A156:A157"/>
     <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="A59:A75"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="A95:A146"/>
+    <mergeCell ref="A48:A60"/>
+    <mergeCell ref="A62:A78"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A98:A149"/>
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="A32:A37"/>
@@ -8913,10 +9166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8925,276 +9178,315 @@
     <col min="3" max="3" width="8.88671875" style="10"/>
     <col min="4" max="4" width="32.109375" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="31" t="s">
-        <v>738</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
-        <v>739</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>740</v>
-      </c>
-      <c r="F1" s="32"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="36" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>859</v>
+      <c r="A2" s="27" t="s">
+        <v>840</v>
       </c>
       <c r="B2" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="D2" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="E2" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="C3" s="10" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="D3" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="E3" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="C4" s="10" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="D4" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="E4" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="C5" s="10" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="D5" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="E5" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>860</v>
+      <c r="A7" s="28" t="s">
+        <v>841</v>
       </c>
       <c r="B7" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="D7" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="E7" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="29"/>
       <c r="C8" s="10" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="D8" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="E8" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="29"/>
       <c r="C9" s="10" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="D9" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="E9" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>861</v>
+      <c r="A13" s="27" t="s">
+        <v>842</v>
       </c>
       <c r="B13" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="D13" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="E13" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="C14" s="10" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="D14" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="E14" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="C15" s="10" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="D15" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="E15" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
-        <v>862</v>
+      <c r="A17" s="28" t="s">
+        <v>843</v>
       </c>
       <c r="B17" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="D17" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="E17" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="29"/>
       <c r="C18" s="10" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="D18" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="E18" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="29"/>
       <c r="C19" s="10" t="s">
-        <v>797</v>
+        <v>729</v>
+      </c>
+      <c r="D19" t="s">
+        <v>886</v>
+      </c>
+      <c r="E19" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>863</v>
-      </c>
-      <c r="B21" t="s">
-        <v>798</v>
-      </c>
+      <c r="A20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
       <c r="C21" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="D21" t="s">
-        <v>800</v>
-      </c>
-      <c r="E21" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="C22" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="D22" t="s">
-        <v>803</v>
-      </c>
-      <c r="E22" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="B23" t="s">
+        <v>779</v>
+      </c>
       <c r="C23" s="10" t="s">
-        <v>836</v>
+        <v>780</v>
       </c>
       <c r="D23" t="s">
-        <v>837</v>
+        <v>781</v>
       </c>
       <c r="E23" t="s">
-        <v>838</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="C24" s="10" t="s">
-        <v>839</v>
+        <v>783</v>
       </c>
       <c r="D24" t="s">
-        <v>840</v>
+        <v>784</v>
       </c>
       <c r="E24" t="s">
-        <v>841</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="C25" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="D25" t="s">
+        <v>818</v>
+      </c>
+      <c r="E25" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="C26" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="D26" t="s">
+        <v>821</v>
+      </c>
+      <c r="E26" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="B29" t="s">
+        <v>889</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="E29" t="s">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -9235,423 +9527,423 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F4" t="s">
+        <v>824</v>
+      </c>
+      <c r="G4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="B2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" t="s">
-        <v>584</v>
-      </c>
-      <c r="C3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F3" t="s">
-        <v>710</v>
-      </c>
-      <c r="G3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" t="s">
-        <v>842</v>
-      </c>
-      <c r="C4" t="s">
-        <v>625</v>
-      </c>
-      <c r="D4" t="s">
-        <v>609</v>
-      </c>
-      <c r="E4" t="s">
-        <v>626</v>
-      </c>
-      <c r="F4" t="s">
-        <v>843</v>
-      </c>
-      <c r="G4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>657</v>
+      </c>
+      <c r="G6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C7" t="s">
+        <v>658</v>
+      </c>
+      <c r="D7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" t="s">
+        <v>659</v>
+      </c>
+      <c r="F7" t="s">
+        <v>829</v>
+      </c>
+      <c r="G7" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" t="s">
+        <v>643</v>
+      </c>
+      <c r="G8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C9" t="s">
+        <v>645</v>
+      </c>
+      <c r="D9" t="s">
+        <v>646</v>
+      </c>
+      <c r="E9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F9" t="s">
+        <v>648</v>
+      </c>
+      <c r="G9" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" t="s">
+        <v>653</v>
+      </c>
+      <c r="G10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F11" t="s">
+        <v>656</v>
+      </c>
+      <c r="G11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" t="s">
+        <v>638</v>
+      </c>
+      <c r="D12" t="s">
+        <v>639</v>
+      </c>
+      <c r="E12" t="s">
+        <v>640</v>
+      </c>
+      <c r="F12" t="s">
+        <v>641</v>
+      </c>
+      <c r="G12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" t="s">
+        <v>635</v>
+      </c>
+      <c r="D13" t="s">
+        <v>627</v>
+      </c>
+      <c r="E13" t="s">
+        <v>634</v>
+      </c>
+      <c r="F13" t="s">
+        <v>650</v>
+      </c>
+      <c r="G13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" t="s">
+        <v>662</v>
+      </c>
+      <c r="C14" t="s">
+        <v>663</v>
+      </c>
+      <c r="G14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C15" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" t="s">
+        <v>627</v>
+      </c>
+      <c r="E15" t="s">
+        <v>670</v>
+      </c>
+      <c r="F15" t="s">
+        <v>671</v>
+      </c>
+      <c r="G15" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" t="s">
+        <v>664</v>
+      </c>
+      <c r="C16" t="s">
+        <v>665</v>
+      </c>
+      <c r="G16" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" t="s">
+        <v>666</v>
+      </c>
+      <c r="C17" t="s">
+        <v>669</v>
+      </c>
+      <c r="D17" t="s">
+        <v>627</v>
+      </c>
+      <c r="E17" t="s">
+        <v>670</v>
+      </c>
+      <c r="F17" t="s">
+        <v>672</v>
+      </c>
+      <c r="G17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C18" t="s">
+        <v>674</v>
+      </c>
+      <c r="D18" t="s">
+        <v>675</v>
+      </c>
+      <c r="E18" t="s">
+        <v>676</v>
+      </c>
+      <c r="F18" t="s">
+        <v>677</v>
+      </c>
+      <c r="G18" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" t="s">
+        <v>678</v>
+      </c>
+      <c r="C19" t="s">
+        <v>679</v>
+      </c>
+      <c r="D19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E19" t="s">
+        <v>676</v>
+      </c>
+      <c r="F19" t="s">
+        <v>677</v>
+      </c>
+      <c r="G19" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" t="s">
+        <v>680</v>
+      </c>
+      <c r="C20" t="s">
+        <v>681</v>
+      </c>
+      <c r="D20" t="s">
         <v>628</v>
       </c>
-      <c r="C5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D5" t="s">
-        <v>630</v>
-      </c>
-      <c r="E5" t="s">
-        <v>631</v>
-      </c>
-      <c r="F5" t="s">
-        <v>668</v>
-      </c>
-      <c r="G5" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" t="s">
-        <v>679</v>
-      </c>
-      <c r="C6" t="s">
-        <v>676</v>
-      </c>
-      <c r="G6" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C7" t="s">
-        <v>677</v>
-      </c>
-      <c r="D7" t="s">
-        <v>665</v>
-      </c>
-      <c r="E7" t="s">
-        <v>678</v>
-      </c>
-      <c r="F7" t="s">
-        <v>848</v>
-      </c>
-      <c r="G7" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" t="s">
-        <v>661</v>
-      </c>
-      <c r="C8" t="s">
-        <v>662</v>
-      </c>
-      <c r="G8" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" t="s">
-        <v>663</v>
-      </c>
-      <c r="C9" t="s">
-        <v>664</v>
-      </c>
-      <c r="D9" t="s">
-        <v>665</v>
-      </c>
-      <c r="E9" t="s">
-        <v>666</v>
-      </c>
-      <c r="F9" t="s">
-        <v>667</v>
-      </c>
-      <c r="G9" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C10" t="s">
-        <v>672</v>
-      </c>
-      <c r="G10" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" t="s">
-        <v>671</v>
-      </c>
-      <c r="C11" t="s">
-        <v>673</v>
-      </c>
-      <c r="D11" t="s">
-        <v>665</v>
-      </c>
-      <c r="E11" t="s">
-        <v>674</v>
-      </c>
-      <c r="F11" t="s">
-        <v>675</v>
-      </c>
-      <c r="G11" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" t="s">
-        <v>656</v>
-      </c>
-      <c r="C12" t="s">
-        <v>657</v>
-      </c>
-      <c r="D12" t="s">
-        <v>658</v>
-      </c>
-      <c r="E12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F12" t="s">
-        <v>660</v>
-      </c>
-      <c r="G12" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" t="s">
-        <v>655</v>
-      </c>
-      <c r="C13" t="s">
-        <v>654</v>
-      </c>
-      <c r="D13" t="s">
-        <v>646</v>
-      </c>
-      <c r="E13" t="s">
-        <v>653</v>
-      </c>
-      <c r="F13" t="s">
-        <v>669</v>
-      </c>
-      <c r="G13" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E20" t="s">
+        <v>685</v>
+      </c>
+      <c r="F20" t="s">
+        <v>686</v>
+      </c>
+      <c r="G20" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" t="s">
         <v>682</v>
       </c>
-      <c r="G14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" t="s">
+      <c r="C21" t="s">
+        <v>683</v>
+      </c>
+      <c r="D21" t="s">
+        <v>684</v>
+      </c>
+      <c r="E21" t="s">
+        <v>685</v>
+      </c>
+      <c r="F21" t="s">
         <v>686</v>
       </c>
-      <c r="C15" t="s">
-        <v>687</v>
-      </c>
-      <c r="D15" t="s">
-        <v>646</v>
-      </c>
-      <c r="E15" t="s">
-        <v>689</v>
-      </c>
-      <c r="F15" t="s">
-        <v>690</v>
-      </c>
-      <c r="G15" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" t="s">
-        <v>683</v>
-      </c>
-      <c r="C16" t="s">
-        <v>684</v>
-      </c>
-      <c r="G16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" t="s">
-        <v>685</v>
-      </c>
-      <c r="C17" t="s">
-        <v>688</v>
-      </c>
-      <c r="D17" t="s">
-        <v>646</v>
-      </c>
-      <c r="E17" t="s">
-        <v>689</v>
-      </c>
-      <c r="F17" t="s">
-        <v>691</v>
-      </c>
-      <c r="G17" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" t="s">
-        <v>692</v>
-      </c>
-      <c r="C18" t="s">
-        <v>693</v>
-      </c>
-      <c r="D18" t="s">
-        <v>694</v>
-      </c>
-      <c r="E18" t="s">
-        <v>695</v>
-      </c>
-      <c r="F18" t="s">
-        <v>696</v>
-      </c>
-      <c r="G18" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" t="s">
-        <v>697</v>
-      </c>
-      <c r="C19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D19" t="s">
-        <v>694</v>
-      </c>
-      <c r="E19" t="s">
-        <v>695</v>
-      </c>
-      <c r="F19" t="s">
-        <v>696</v>
-      </c>
-      <c r="G19" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" t="s">
-        <v>699</v>
-      </c>
-      <c r="C20" t="s">
-        <v>700</v>
-      </c>
-      <c r="D20" t="s">
-        <v>647</v>
-      </c>
-      <c r="E20" t="s">
-        <v>704</v>
-      </c>
-      <c r="F20" t="s">
-        <v>705</v>
-      </c>
-      <c r="G20" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" t="s">
-        <v>701</v>
-      </c>
-      <c r="C21" t="s">
-        <v>702</v>
-      </c>
-      <c r="D21" t="s">
-        <v>703</v>
-      </c>
-      <c r="E21" t="s">
-        <v>704</v>
-      </c>
-      <c r="F21" t="s">
-        <v>705</v>
-      </c>
       <c r="G21" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="B26" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C27" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="C28" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -9693,548 +9985,548 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" t="s">
         <v>579</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" t="s">
         <v>580</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="E4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H4" t="s">
+        <v>602</v>
+      </c>
+      <c r="I4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C7" t="s">
+        <v>802</v>
+      </c>
+      <c r="D7" t="s">
+        <v>800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H7" t="s">
+        <v>803</v>
+      </c>
+      <c r="I7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D8" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G8" t="s">
+        <v>629</v>
+      </c>
+      <c r="H8" t="s">
+        <v>631</v>
+      </c>
+      <c r="I8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C10" t="s">
+        <v>598</v>
+      </c>
+      <c r="D10" t="s">
+        <v>590</v>
+      </c>
+      <c r="E10" t="s">
+        <v>600</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G10" t="s">
+        <v>601</v>
+      </c>
+      <c r="H10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" t="s">
+        <v>792</v>
+      </c>
+      <c r="C11" t="s">
+        <v>689</v>
+      </c>
+      <c r="D11" t="s">
+        <v>688</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="B2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H11" t="s">
+        <v>762</v>
+      </c>
+      <c r="I11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C12" t="s">
+        <v>813</v>
+      </c>
+      <c r="D12" t="s">
+        <v>564</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="H2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D3" t="s">
-        <v>588</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="G3" t="s">
-        <v>593</v>
-      </c>
-      <c r="H3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E4" t="s">
-        <v>604</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G4" t="s">
-        <v>600</v>
-      </c>
-      <c r="H4" t="s">
-        <v>621</v>
-      </c>
-      <c r="I4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" t="s">
-        <v>601</v>
-      </c>
-      <c r="C5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" t="s">
-        <v>599</v>
-      </c>
-      <c r="E5" t="s">
-        <v>603</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G5" t="s">
-        <v>605</v>
-      </c>
-      <c r="H5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D6" t="s">
-        <v>609</v>
-      </c>
-      <c r="E6" t="s">
-        <v>610</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="H6" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" t="s">
-        <v>818</v>
-      </c>
-      <c r="C7" t="s">
-        <v>821</v>
-      </c>
-      <c r="D7" t="s">
-        <v>819</v>
-      </c>
-      <c r="E7" t="s">
-        <v>820</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="H7" t="s">
-        <v>822</v>
-      </c>
-      <c r="I7" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C8" t="s">
-        <v>645</v>
-      </c>
-      <c r="D8" t="s">
-        <v>647</v>
-      </c>
-      <c r="E8" t="s">
-        <v>613</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="G8" t="s">
-        <v>648</v>
-      </c>
-      <c r="H8" t="s">
-        <v>650</v>
-      </c>
-      <c r="I8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" t="s">
-        <v>612</v>
-      </c>
-      <c r="C9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D9" t="s">
-        <v>609</v>
-      </c>
-      <c r="E9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G9" t="s">
-        <v>627</v>
-      </c>
-      <c r="H9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" t="s">
-        <v>810</v>
-      </c>
-      <c r="C10" t="s">
-        <v>617</v>
-      </c>
-      <c r="D10" t="s">
-        <v>609</v>
-      </c>
-      <c r="E10" t="s">
-        <v>619</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G10" t="s">
-        <v>620</v>
-      </c>
-      <c r="H10" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" t="s">
-        <v>811</v>
-      </c>
-      <c r="C11" t="s">
-        <v>708</v>
-      </c>
-      <c r="D11" t="s">
-        <v>707</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H11" t="s">
-        <v>781</v>
-      </c>
-      <c r="I11" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" t="s">
-        <v>789</v>
-      </c>
-      <c r="C12" t="s">
-        <v>832</v>
-      </c>
-      <c r="D12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H12" t="s">
         <v>814</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" t="s">
         <v>815</v>
       </c>
-      <c r="H12" t="s">
-        <v>833</v>
-      </c>
-      <c r="I12" t="s">
-        <v>834</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="B15" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="C15" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="D15" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E15" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="G15" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="H15" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="C16" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="D16" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E16" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="H16" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="C17" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="D17" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="E17" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="H17" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="I17" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C18" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="D18" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="G18" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="H18" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="I18" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="C19" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="D19" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E19" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="G19" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="H19" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="I19" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="C20" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="D20" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="E20" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G20" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="H20" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="C21" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="D21" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="H21" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="I21" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="C22" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D22" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="H22" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="I22" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="C23" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="D23" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G23" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="H23" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="I23" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C24" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="D24" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G24" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="H24" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="I24" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -10249,15 +10541,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
@@ -10286,7 +10578,7 @@
         <v>278</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -10309,7 +10601,7 @@
         <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -10320,7 +10612,7 @@
         <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="D3" t="s">
         <v>360</v>
@@ -10332,7 +10624,7 @@
         <v>369</v>
       </c>
       <c r="G3" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -10343,7 +10635,7 @@
         <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="D4" t="s">
         <v>364</v>
@@ -10352,7 +10644,7 @@
         <v>366</v>
       </c>
       <c r="G4" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -10363,39 +10655,62 @@
         <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="D5" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="B6" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="C6" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="D6" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="G6" t="s">
-        <v>780</v>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B7" t="s">
+        <v>863</v>
+      </c>
+      <c r="C7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F7" t="s">
+        <v>867</v>
+      </c>
+      <c r="G7" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -10408,7 +10723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -10427,10 +10742,10 @@
         <v>210</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -10494,7 +10809,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -10511,7 +10826,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -10526,7 +10841,7 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -10543,7 +10858,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="35"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -10592,7 +10907,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
@@ -10603,7 +10918,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="34"/>
       <c r="B15" t="s">
         <v>223</v>
       </c>
@@ -10612,7 +10927,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="34"/>
       <c r="B16" t="s">
         <v>224</v>
       </c>
@@ -10621,7 +10936,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="34"/>
       <c r="B17" t="s">
         <v>225</v>
       </c>
@@ -10630,7 +10945,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="34"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -10645,7 +10960,7 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
@@ -10656,7 +10971,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -10705,7 +11020,7 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B27" t="s">
@@ -10716,7 +11031,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="34"/>
       <c r="B28" t="s">
         <v>234</v>
       </c>
@@ -10725,10 +11040,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="34"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="34"/>
       <c r="B30" t="s">
         <v>236</v>
       </c>
@@ -10737,7 +11052,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="34"/>
       <c r="B31" t="s">
         <v>238</v>
       </c>
@@ -10746,7 +11061,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="34"/>
       <c r="B32" t="s">
         <v>240</v>
       </c>
@@ -10755,10 +11070,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -10773,12 +11088,12 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="37"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -10793,12 +11108,12 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
+      <c r="A40" s="32"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
@@ -10813,21 +11128,21 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+      <c r="A43" s="33"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
+      <c r="A44" s="33"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
+      <c r="A45" s="33"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="922">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2267,14 +2267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AppReadKeyboardInstruments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnAppReadKeyboardInstruments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KeyboardFinishSwitchInstrument</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2308,19 +2300,6 @@
   </si>
   <si>
     <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Name":string
-"Status":short
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"Instruments":[string,...]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3495,10 +3474,6 @@
   </si>
   <si>
     <t>由遊戲去停止琴的琴音。如果遊戲或App控制踏板踏下的狀態，則這個指令不會有效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3830,6 +3805,147 @@
   </si>
   <si>
     <t>NewFirmwareSplitFileSegment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Name":string
+"Reverb":bool
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverb=false代表不開reverb，Reverb=true代表開reverb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoirePure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AliciaKeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2JapaneseStudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解釋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamaha C3 Neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamaha U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamaha CFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漸變音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單一音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Native Instruments-Alicia Keys音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Native Instruments-Noire音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xln-Modern Upright音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addictive Keys-Piano V2音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steinway Model D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HansZimmerPiano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spitfire-Hans Zimmer Piano音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppReadKeyboardInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnAppReadKeyboardInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Name":string
+"Reverb":bool
+"Status":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status=0:收到並且即將開始切換音色
+Status=-1:已是此音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Name":string
+"Reverb":bool
+"Status":int
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status=0:完成音色切換
+Status=-1:音色切換失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擬真音色-柔和鋼琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擬真音色-日產鋼琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoftPiano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spitfire-Soft piano音色包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4356,9 +4472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5149,13 +5265,13 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" t="s">
+        <v>610</v>
+      </c>
+      <c r="C26" t="s">
         <v>614</v>
       </c>
-      <c r="C26" t="s">
-        <v>618</v>
-      </c>
       <c r="D26" s="10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -5180,13 +5296,13 @@
     <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C27" t="s">
+        <v>614</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -5211,13 +5327,13 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="35"/>
       <c r="B28" t="s">
+        <v>611</v>
+      </c>
+      <c r="C28" t="s">
         <v>615</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="10" t="s">
         <v>619</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>623</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -5242,13 +5358,13 @@
     <row r="29" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C29" t="s">
+        <v>616</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>620</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -5275,13 +5391,13 @@
     <row r="30" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -5302,7 +5418,7 @@
         <v>25</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5582,16 +5698,16 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C41" t="s">
-        <v>515</v>
+        <v>910</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -5612,19 +5728,19 @@
         <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C42" t="s">
-        <v>516</v>
+        <v>911</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -5645,19 +5761,22 @@
         <v>25</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+      <c r="L42" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C43" t="s">
         <v>513</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -5678,19 +5797,22 @@
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+      <c r="L43" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C44" t="s">
         <v>514</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -5711,19 +5833,22 @@
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="81" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C45" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -5744,19 +5869,22 @@
         <v>25</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>419</v>
+        <v>914</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -5777,7 +5905,7 @@
         <v>25</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5818,7 +5946,7 @@
         <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="81" x14ac:dyDescent="0.3">
@@ -5851,25 +5979,25 @@
         <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="M49" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C50" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -5890,20 +6018,20 @@
         <v>25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
       <c r="B51" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C51" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -5927,19 +6055,19 @@
         <v>302</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
       <c r="B52" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C52" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -5960,22 +6088,22 @@
         <v>25</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C53" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -5996,10 +6124,10 @@
         <v>25</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
@@ -6008,10 +6136,10 @@
         <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -6044,7 +6172,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -6078,7 +6206,7 @@
         <v>398</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -6099,7 +6227,7 @@
         <v>286</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L56" s="1"/>
     </row>
@@ -6112,7 +6240,7 @@
         <v>404</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -6145,7 +6273,7 @@
         <v>405</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -6175,13 +6303,13 @@
     <row r="59" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
       <c r="B59" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C59" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -6208,13 +6336,13 @@
     <row r="60" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
       <c r="B60" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C60" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -6238,7 +6366,7 @@
         <v>407</v>
       </c>
       <c r="L60" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6342,7 +6470,7 @@
         <v>28</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -6378,7 +6506,7 @@
         <v>302</v>
       </c>
       <c r="L65" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -6451,13 +6579,13 @@
     <row r="68" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A68" s="35"/>
       <c r="B68" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C68" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -6478,20 +6606,20 @@
         <v>286</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="B69" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C69" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -6512,20 +6640,20 @@
         <v>28</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A70" s="35"/>
       <c r="B70" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C70" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -6559,7 +6687,7 @@
         <v>173</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -6592,7 +6720,7 @@
         <v>180</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -6625,7 +6753,7 @@
         <v>174</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -6658,7 +6786,7 @@
         <v>181</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -6691,7 +6819,7 @@
         <v>444</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -6724,7 +6852,7 @@
         <v>445</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -6757,7 +6885,7 @@
         <v>167</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -6790,7 +6918,7 @@
         <v>476</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -6823,7 +6951,7 @@
         <v>477</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -6850,13 +6978,13 @@
     <row r="80" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C80" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -6877,7 +7005,7 @@
         <v>25</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7350,7 +7478,7 @@
         <v>302</v>
       </c>
       <c r="L96" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -8011,7 +8139,7 @@
         <v>25</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L117" t="s">
         <v>340</v>
@@ -9184,70 +9312,70 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="26"/>
       <c r="B1" s="36" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="26" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="C3" s="10" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="C4" s="10" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="C5" s="10" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9260,43 +9388,43 @@
     </row>
     <row r="7" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="C8" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="D8" t="s">
         <v>735</v>
       </c>
-      <c r="D8" t="s">
-        <v>739</v>
-      </c>
       <c r="E8" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="C9" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D9" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E9" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9309,43 +9437,43 @@
     </row>
     <row r="13" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B13" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D13" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E13" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="C14" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="D14" t="s">
         <v>735</v>
       </c>
-      <c r="D14" t="s">
-        <v>739</v>
-      </c>
       <c r="E14" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="C15" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D15" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E15" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -9358,43 +9486,43 @@
     </row>
     <row r="17" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B17" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E17" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="C18" s="10" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D18" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E18" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="C19" s="10" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D19" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E19" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9403,7 +9531,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="C21" s="10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9416,55 +9544,55 @@
     </row>
     <row r="23" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B23" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D23" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E23" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="C24" s="10" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D24" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E24" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="C25" s="10" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D25" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E25" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="C26" s="10" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D26" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E26" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9477,16 +9605,16 @@
     </row>
     <row r="29" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B29" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E29" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -9527,423 +9655,423 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F4" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G4" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G5" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F7" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G7" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C9" t="s">
+        <v>641</v>
+      </c>
+      <c r="D9" t="s">
+        <v>642</v>
+      </c>
+      <c r="E9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F9" t="s">
         <v>644</v>
       </c>
-      <c r="C9" t="s">
-        <v>645</v>
-      </c>
-      <c r="D9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E9" t="s">
-        <v>647</v>
-      </c>
-      <c r="F9" t="s">
-        <v>648</v>
-      </c>
       <c r="G9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C10" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G10" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E11" t="s">
+        <v>651</v>
+      </c>
+      <c r="F11" t="s">
         <v>652</v>
       </c>
-      <c r="C11" t="s">
-        <v>654</v>
-      </c>
-      <c r="D11" t="s">
-        <v>646</v>
-      </c>
-      <c r="E11" t="s">
-        <v>655</v>
-      </c>
-      <c r="F11" t="s">
-        <v>656</v>
-      </c>
       <c r="G11" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C12" t="s">
+        <v>634</v>
+      </c>
+      <c r="D12" t="s">
+        <v>635</v>
+      </c>
+      <c r="E12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F12" t="s">
         <v>637</v>
       </c>
-      <c r="C12" t="s">
-        <v>638</v>
-      </c>
-      <c r="D12" t="s">
-        <v>639</v>
-      </c>
-      <c r="E12" t="s">
-        <v>640</v>
-      </c>
-      <c r="F12" t="s">
-        <v>641</v>
-      </c>
       <c r="G12" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C13" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E13" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F13" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G13" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G14" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" t="s">
+        <v>663</v>
+      </c>
+      <c r="C15" t="s">
+        <v>664</v>
+      </c>
+      <c r="D15" t="s">
+        <v>623</v>
+      </c>
+      <c r="E15" t="s">
+        <v>666</v>
+      </c>
+      <c r="F15" t="s">
         <v>667</v>
       </c>
-      <c r="C15" t="s">
-        <v>668</v>
-      </c>
-      <c r="D15" t="s">
-        <v>627</v>
-      </c>
-      <c r="E15" t="s">
-        <v>670</v>
-      </c>
-      <c r="F15" t="s">
-        <v>671</v>
-      </c>
       <c r="G15" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C16" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G16" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" t="s">
+        <v>662</v>
+      </c>
+      <c r="C17" t="s">
+        <v>665</v>
+      </c>
+      <c r="D17" t="s">
+        <v>623</v>
+      </c>
+      <c r="E17" t="s">
         <v>666</v>
       </c>
-      <c r="C17" t="s">
-        <v>669</v>
-      </c>
-      <c r="D17" t="s">
-        <v>627</v>
-      </c>
-      <c r="E17" t="s">
-        <v>670</v>
-      </c>
       <c r="F17" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G17" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" t="s">
+        <v>670</v>
+      </c>
+      <c r="D18" t="s">
+        <v>671</v>
+      </c>
+      <c r="E18" t="s">
+        <v>672</v>
+      </c>
+      <c r="F18" t="s">
         <v>673</v>
       </c>
-      <c r="C18" t="s">
-        <v>674</v>
-      </c>
-      <c r="D18" t="s">
-        <v>675</v>
-      </c>
-      <c r="E18" t="s">
-        <v>676</v>
-      </c>
-      <c r="F18" t="s">
-        <v>677</v>
-      </c>
       <c r="G18" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C19" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D19" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E19" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F19" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G19" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C20" t="s">
+        <v>677</v>
+      </c>
+      <c r="D20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E20" t="s">
         <v>681</v>
       </c>
-      <c r="D20" t="s">
-        <v>628</v>
-      </c>
-      <c r="E20" t="s">
-        <v>685</v>
-      </c>
       <c r="F20" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G20" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" t="s">
+        <v>678</v>
+      </c>
+      <c r="C21" t="s">
+        <v>679</v>
+      </c>
+      <c r="D21" t="s">
+        <v>680</v>
+      </c>
+      <c r="E21" t="s">
+        <v>681</v>
+      </c>
+      <c r="F21" t="s">
         <v>682</v>
       </c>
-      <c r="C21" t="s">
-        <v>683</v>
-      </c>
-      <c r="D21" t="s">
-        <v>684</v>
-      </c>
-      <c r="E21" t="s">
-        <v>685</v>
-      </c>
-      <c r="F21" t="s">
-        <v>686</v>
-      </c>
       <c r="G21" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B26" t="s">
+        <v>704</v>
+      </c>
+      <c r="C26" t="s">
         <v>708</v>
-      </c>
-      <c r="C26" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>705</v>
+      </c>
+      <c r="C27" t="s">
         <v>709</v>
-      </c>
-      <c r="C27" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>706</v>
+      </c>
+      <c r="C28" t="s">
         <v>710</v>
-      </c>
-      <c r="C28" t="s">
-        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -9985,297 +10113,297 @@
         <v>210</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" t="s">
         <v>576</v>
       </c>
-      <c r="D4" t="s">
-        <v>580</v>
-      </c>
       <c r="E4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G5" t="s">
         <v>582</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>583</v>
-      </c>
-      <c r="D5" t="s">
-        <v>580</v>
-      </c>
-      <c r="E5" t="s">
-        <v>584</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G5" t="s">
-        <v>586</v>
-      </c>
-      <c r="H5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C7" t="s">
+        <v>798</v>
+      </c>
+      <c r="D7" t="s">
+        <v>796</v>
+      </c>
+      <c r="E7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H7" t="s">
         <v>799</v>
       </c>
-      <c r="C7" t="s">
-        <v>802</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
         <v>800</v>
-      </c>
-      <c r="E7" t="s">
-        <v>801</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="H7" t="s">
-        <v>803</v>
-      </c>
-      <c r="I7" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" t="s">
+        <v>624</v>
+      </c>
+      <c r="E8" t="s">
+        <v>590</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G8" t="s">
         <v>625</v>
       </c>
-      <c r="C8" t="s">
-        <v>626</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
+        <v>627</v>
+      </c>
+      <c r="I8" t="s">
         <v>628</v>
-      </c>
-      <c r="E8" t="s">
-        <v>594</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="G8" t="s">
-        <v>629</v>
-      </c>
-      <c r="H8" t="s">
-        <v>631</v>
-      </c>
-      <c r="I8" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C9" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D9" t="s">
+        <v>586</v>
+      </c>
+      <c r="E9" t="s">
         <v>590</v>
       </c>
-      <c r="E9" t="s">
-        <v>594</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G9" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H9" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C10" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D11" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H11" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I11" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C12" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H12" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I12" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -10283,250 +10411,250 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" t="s">
+        <v>579</v>
+      </c>
+      <c r="D15" t="s">
+        <v>576</v>
+      </c>
+      <c r="E15" t="s">
+        <v>580</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G15" t="s">
         <v>582</v>
       </c>
-      <c r="C15" t="s">
+      <c r="H15" t="s">
         <v>583</v>
-      </c>
-      <c r="D15" t="s">
-        <v>580</v>
-      </c>
-      <c r="E15" t="s">
-        <v>584</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G15" t="s">
-        <v>586</v>
-      </c>
-      <c r="H15" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D16" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E16" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H16" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C17" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D17" t="s">
+        <v>796</v>
+      </c>
+      <c r="E17" t="s">
+        <v>797</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H17" t="s">
+        <v>799</v>
+      </c>
+      <c r="I17" t="s">
         <v>800</v>
-      </c>
-      <c r="E17" t="s">
-        <v>801</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="H17" t="s">
-        <v>803</v>
-      </c>
-      <c r="I17" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C18" t="s">
+        <v>572</v>
+      </c>
+      <c r="D18" t="s">
         <v>576</v>
       </c>
-      <c r="D18" t="s">
-        <v>580</v>
-      </c>
       <c r="E18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G18" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H18" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D19" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E19" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G19" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H19" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I19" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C20" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D20" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G20" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H20" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C21" t="s">
+        <v>765</v>
+      </c>
+      <c r="D21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H21" t="s">
         <v>769</v>
       </c>
-      <c r="D21" t="s">
-        <v>564</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="H21" t="s">
-        <v>773</v>
-      </c>
       <c r="I21" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C22" t="s">
+        <v>790</v>
+      </c>
+      <c r="D22" t="s">
+        <v>560</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H22" t="s">
+        <v>793</v>
+      </c>
+      <c r="I22" t="s">
         <v>794</v>
-      </c>
-      <c r="D22" t="s">
-        <v>564</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H22" t="s">
-        <v>797</v>
-      </c>
-      <c r="I22" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C23" t="s">
+        <v>694</v>
+      </c>
+      <c r="D23" t="s">
+        <v>695</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G23" t="s">
+        <v>785</v>
+      </c>
+      <c r="H23" t="s">
         <v>697</v>
       </c>
-      <c r="C23" t="s">
+      <c r="I23" t="s">
         <v>698</v>
-      </c>
-      <c r="D23" t="s">
-        <v>699</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G23" t="s">
-        <v>789</v>
-      </c>
-      <c r="H23" t="s">
-        <v>701</v>
-      </c>
-      <c r="I23" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>759</v>
+      </c>
+      <c r="C24" t="s">
+        <v>760</v>
+      </c>
+      <c r="D24" t="s">
+        <v>761</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G24" t="s">
+        <v>762</v>
+      </c>
+      <c r="H24" t="s">
         <v>763</v>
       </c>
-      <c r="C24" t="s">
+      <c r="I24" t="s">
         <v>764</v>
-      </c>
-      <c r="D24" t="s">
-        <v>765</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G24" t="s">
-        <v>766</v>
-      </c>
-      <c r="H24" t="s">
-        <v>767</v>
-      </c>
-      <c r="I24" t="s">
-        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -10578,7 +10706,7 @@
         <v>278</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -10601,7 +10729,7 @@
         <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -10612,7 +10740,7 @@
         <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D3" t="s">
         <v>360</v>
@@ -10624,7 +10752,7 @@
         <v>369</v>
       </c>
       <c r="G3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -10635,7 +10763,7 @@
         <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D4" t="s">
         <v>364</v>
@@ -10644,7 +10772,7 @@
         <v>366</v>
       </c>
       <c r="G4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -10655,62 +10783,62 @@
         <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B6" t="s">
-        <v>704</v>
-      </c>
-      <c r="C6" t="s">
-        <v>755</v>
-      </c>
-      <c r="D6" t="s">
-        <v>705</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="G6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D7" t="s">
+        <v>860</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F7" t="s">
         <v>862</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>863</v>
-      </c>
-      <c r="C7" t="s">
-        <v>864</v>
-      </c>
-      <c r="D7" t="s">
-        <v>865</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="F7" t="s">
-        <v>867</v>
-      </c>
-      <c r="G7" t="s">
-        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -10721,20 +10849,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10742,15 +10872,106 @@
         <v>210</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>816</v>
+        <v>900</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>816</v>
+        <v>896</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D5" t="s">
+        <v>906</v>
+      </c>
+      <c r="E5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>907</v>
+      </c>
+      <c r="B6" t="s">
+        <v>908</v>
+      </c>
+      <c r="C6" t="s">
+        <v>901</v>
+      </c>
+      <c r="D6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C7" t="s">
+        <v>901</v>
+      </c>
+      <c r="D7" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="GameEvent" sheetId="5" r:id="rId4"/>
     <sheet name="Modifier" sheetId="3" r:id="rId5"/>
     <sheet name="音色" sheetId="6" r:id="rId6"/>
-    <sheet name="request(未完成)" sheetId="2" r:id="rId7"/>
+    <sheet name="request(未完成)" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="991">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2491,17 +2491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A:(int)得分種類
-B:(int)分數
-C:(int)總分
-D:(int)目前連擊數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分種類：0-Miss, 1-Bad, 2-Ok, 3-Good, 4-Great, 5-Perfect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>切換八度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2591,28 +2580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A(float):時間
-B(int):音高
-C(float):音量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameControlPedal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameControlPedal,1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:(float)持續踏著的時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A代表從現在起要踏著多久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShiftOctave,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3006,11 +2973,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A(int):音高
-B(float):時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FallEffect,36,0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3048,10 +3010,6 @@
   </si>
   <si>
     <t>調整音量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App-&gt;琴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3118,10 +3076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wrong packet format</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封包格式錯誤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3276,10 +3230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收到事件後立刻亮起光點，時間代表該光點維持多久</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpotEffect,49,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3296,22 +3246,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>App控制踏板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppControlPedal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppPlaySound,47,0.92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AppControlPedal,1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3360,24 +3298,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要求失敗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>時間代表多久以後流光會落到打擊點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音高(24~84)
-音量(0~1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲控制踏板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3808,144 +3733,546 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NoirePure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AliciaKeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解釋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamaha C3 Neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamaha U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamaha CFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漸變音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Native Instruments-Alicia Keys音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Native Instruments-Noire音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xln-Modern Upright音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steinway Model D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HansZimmerPiano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spitfire-Hans Zimmer Piano音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppReadKeyboardInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnAppReadKeyboardInstrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status=0:收到並且即將開始切換音色
+Status=-1:已是此音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status=0:完成音色切換
+Status=-1:音色切換失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設音色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosendorfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosendorfer 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivory II Studio Grand音色包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steinway Model B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還沒做好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steinway Model D Mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殘響設定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "Name":string
 "Reverb":bool
+"ReverbIntervals":[float,...](optional)
+"ReverbVolumes":[float,...](optional)
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reverb=false代表不開reverb，Reverb=true代表開reverb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoirePure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AliciaKeys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2JapaneseStudio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解釋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yamaha C3 Neo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yamaha U3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yamaha CFX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漸變音色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單一音色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Native Instruments-Alicia Keys音色包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Native Instruments-Noire音色包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xln-Modern Upright音色包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addictive Keys-Piano V2音色包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steinway Model D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HansZimmerPiano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spitfire-Hans Zimmer Piano音色包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppReadKeyboardInstrument</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnAppReadKeyboardInstrument</t>
+    <t>Reverb=false代表不開reverb，Reverb=true代表開reverb
+ReverbIntervals是五個殘響之間的間隔時間，必須要設定五個
+ReverbVolumes是五個殘響的音量，必須要設定五個</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
 "Name":string
 "Reverb":bool
-"Status":short
+"ReverbIntervals":[float,...](optional)
+"ReverbVolumes":[float,...](optional)
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status=0:收到並且即將開始切換音色
-Status=-1:已是此音色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
 "Name":string
 "Reverb":bool
+"ReverbIntervals":[float,...](optional)
+"ReverbVolumes":[float,...](optional)
+"Status":short
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Name":string
+"Reverb":bool
+"ReverbIntervals":[float,...](optional)
+"ReverbVolumes":[float,...](optional)
 "Status":int
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status=0:完成音色切換
-Status=-1:音色切換失敗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設音色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擬真音色-柔和鋼琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擬真音色-日產鋼琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoftPiano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spitfire-Soft piano音色包</t>
+    <t>App-&gt;琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(待定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲停止琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App停止琴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高
+B(float):時間(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高
+B(float):時間(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppPedalDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App踩下踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App放開踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppPedalUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppPedalDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppPedalUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"BT000"
+"Description":"command not found..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong packet format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"BT001"
+"Description":"wrong packet format..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"BT002"
+"Description":"wrong json..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"GE000"
+"Description":"wrong event name..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"GE001"
+"Description":"wrong event format..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong event parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"GE002"
+"Description":"wrong event parameter..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"IE000"
+"Description":"wrong event name..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"IE001"
+"Description":"wrong event format..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"IE002"
+"Description":"wrong event parameter..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音色
+(Instrument)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong instrument name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音色名稱錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong instrument revern setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殘響設定錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail load instrument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載入音色失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong Modifier name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier名稱錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier in wrong ruleset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier用於錯誤的遊戲模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong Modifier parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier參數錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檔案封包格式錯誤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"BT004"
+"Description":"request fail..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrong packet file format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"Code":"BT003"
+"Description":"wrong packet file format..."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor
+Instant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyboardErrorMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟KeyboardErrorMessage不同，這個只是把電子琴內部的error丟出去而已，不是用於溝通使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放開琴鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏下踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放開踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PedalDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PedalUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(float):時間</t>
+  </si>
+  <si>
+    <t>A(float):時間
+B(int):音高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高(24~84)
+音量(0~1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(float):時間
+B(int):音高
+C(float):音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這邊的時間是指遊戲的時間，例如遊戲進行到第53秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止光點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopSpotEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(int):音高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到事件後立刻亮起光點，時間代表該光點維持多久
+如果B=0，代表持續亮著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉光點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopSpotEffect,49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由app控制琴鍵關閉燈光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(int)得分種類
+B:(int)分數
+C:(int)總分
+D:(int)目前連擊數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分種類：0-None, 1-Miss, 2-Bad, 3-Ok, 4-Good, 5-Great, 6-Perfect
+總分：這首歌的總分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionJump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameControlPedalDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameControlPedalDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲控制放開踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲控制踏下踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameControlPedalUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:(int)八度移動方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八度移動方向: -1-降低八度, 1-升高八度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftOctave,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4473,8 +4800,8 @@
   <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5265,13 +5592,13 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" t="s">
+        <v>603</v>
+      </c>
+      <c r="C26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="C26" t="s">
-        <v>614</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>617</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -5296,13 +5623,13 @@
     <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C27" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -5327,13 +5654,13 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="35"/>
       <c r="B28" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C28" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -5358,13 +5685,13 @@
     <row r="29" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" t="s">
+        <v>606</v>
+      </c>
+      <c r="C29" t="s">
+        <v>609</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="C29" t="s">
-        <v>616</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>620</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -5391,13 +5718,13 @@
     <row r="30" spans="1:11" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C30" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -5418,7 +5745,7 @@
         <v>25</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -5704,7 +6031,7 @@
         <v>517</v>
       </c>
       <c r="C41" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>524</v>
@@ -5731,13 +6058,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" t="s">
         <v>518</v>
       </c>
       <c r="C42" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>525</v>
@@ -5761,13 +6088,13 @@
         <v>25</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="L42" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" t="s">
         <v>519</v>
@@ -5797,13 +6124,13 @@
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="L43" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" t="s">
         <v>520</v>
@@ -5833,13 +6160,13 @@
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="81" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" t="s">
         <v>521</v>
@@ -5869,10 +6196,10 @@
         <v>25</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -5946,7 +6273,7 @@
         <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="81" x14ac:dyDescent="0.3">
@@ -5979,25 +6306,25 @@
         <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="M49" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="C50" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -6018,20 +6345,20 @@
         <v>25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
       <c r="B51" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="C51" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -6055,19 +6382,19 @@
         <v>302</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
       <c r="B52" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="C52" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -6088,22 +6415,22 @@
         <v>25</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="C53" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -6124,10 +6451,10 @@
         <v>25</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
@@ -6136,10 +6463,10 @@
         <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -6172,7 +6499,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -6206,7 +6533,7 @@
         <v>398</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -6240,7 +6567,7 @@
         <v>404</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -6273,7 +6600,7 @@
         <v>405</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -6303,13 +6630,13 @@
     <row r="59" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
       <c r="B59" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="C59" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -6336,13 +6663,13 @@
     <row r="60" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
       <c r="B60" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="C60" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -6366,7 +6693,7 @@
         <v>407</v>
       </c>
       <c r="L60" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6506,7 +6833,7 @@
         <v>302</v>
       </c>
       <c r="L65" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -7005,7 +7332,10 @@
         <v>25</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
+      </c>
+      <c r="L80" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7478,7 +7808,7 @@
         <v>302</v>
       </c>
       <c r="L96" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -9294,327 +9624,521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="10"/>
     <col min="4" max="4" width="32.109375" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
+      <c r="A1" s="26" t="s">
+        <v>957</v>
+      </c>
       <c r="B1" s="36" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="26" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="B2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D2" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="E2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="C3" s="10" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D3" t="s">
-        <v>723</v>
+        <v>921</v>
       </c>
       <c r="E3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="C4" s="10" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="D4" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="E4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="C5" s="10" t="s">
-        <v>783</v>
+        <v>941</v>
       </c>
       <c r="D5" t="s">
-        <v>782</v>
+        <v>953</v>
       </c>
       <c r="E5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>836</v>
-      </c>
-      <c r="B7" t="s">
-        <v>738</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="C6" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="D6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E6" t="s">
+        <v>769</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="B8" t="s">
         <v>728</v>
       </c>
-      <c r="D7" t="s">
-        <v>729</v>
-      </c>
-      <c r="E7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
       <c r="C8" s="10" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="E8" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="C9" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E9" t="s">
+        <v>726</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="C10" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="D10" t="s">
+        <v>926</v>
+      </c>
+      <c r="E10" t="s">
+        <v>723</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="B17" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="D17" t="s">
+        <v>719</v>
+      </c>
+      <c r="E17" t="s">
+        <v>729</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="C18" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D18" t="s">
+        <v>725</v>
+      </c>
+      <c r="E18" t="s">
+        <v>730</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="C19" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="D19" t="s">
+        <v>722</v>
+      </c>
+      <c r="E19" t="s">
+        <v>731</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="B24" t="s">
+        <v>735</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="D24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E24" t="s">
         <v>734</v>
       </c>
-      <c r="D9" t="s">
-        <v>732</v>
-      </c>
-      <c r="E9" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="B13" t="s">
-        <v>737</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="D13" t="s">
-        <v>729</v>
-      </c>
-      <c r="E13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="C14" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" t="s">
         <v>735</v>
       </c>
-      <c r="E14" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="C15" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="D15" t="s">
-        <v>732</v>
-      </c>
-      <c r="E15" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>838</v>
-      </c>
-      <c r="B17" t="s">
-        <v>745</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="D17" t="s">
-        <v>743</v>
-      </c>
-      <c r="E17" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="C18" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="D18" t="s">
-        <v>772</v>
-      </c>
-      <c r="E18" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="C19" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="D19" t="s">
-        <v>881</v>
-      </c>
-      <c r="E19" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="C21" s="10" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="B23" t="s">
-        <v>775</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="D23" t="s">
-        <v>777</v>
-      </c>
-      <c r="E23" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="C24" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="D24" t="s">
-        <v>780</v>
-      </c>
-      <c r="E24" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
       <c r="C25" s="10" t="s">
-        <v>812</v>
+        <v>757</v>
       </c>
       <c r="D25" t="s">
-        <v>813</v>
+        <v>758</v>
       </c>
       <c r="E25" t="s">
-        <v>814</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="29"/>
+      <c r="B26" t="s">
+        <v>735</v>
+      </c>
       <c r="C26" s="10" t="s">
-        <v>815</v>
+        <v>715</v>
       </c>
       <c r="D26" t="s">
-        <v>816</v>
+        <v>864</v>
       </c>
       <c r="E26" t="s">
-        <v>817</v>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" t="s">
+        <v>735</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="D27" t="s">
+        <v>942</v>
+      </c>
+      <c r="E27" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>883</v>
-      </c>
+      <c r="A28" s="29"/>
+      <c r="B28" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="D28" t="s">
+        <v>948</v>
+      </c>
+      <c r="E28" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
       <c r="B29" t="s">
-        <v>884</v>
+        <v>735</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>885</v>
+        <v>947</v>
+      </c>
+      <c r="D29" t="s">
+        <v>944</v>
       </c>
       <c r="E29" t="s">
-        <v>887</v>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="C31" s="10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="B33" t="s">
+        <v>761</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="D33" t="s">
+        <v>763</v>
+      </c>
+      <c r="E33" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" t="s">
+        <v>761</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D34" t="s">
+        <v>766</v>
+      </c>
+      <c r="E34" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" t="s">
+        <v>761</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D35" t="s">
+        <v>796</v>
+      </c>
+      <c r="E35" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D36" t="s">
+        <v>799</v>
+      </c>
+      <c r="E36" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="B40" t="s">
+        <v>932</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D40" t="s">
+        <v>933</v>
+      </c>
+      <c r="E40" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" t="s">
+        <v>932</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="D41" t="s">
+        <v>936</v>
+      </c>
+      <c r="E41" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" t="s">
+        <v>932</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="D42" t="s">
+        <v>939</v>
+      </c>
+      <c r="E42" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="B46" t="s">
+        <v>867</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="E46" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -9631,8 +10155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9664,15 +10188,15 @@
         <v>557</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
         <v>558</v>
@@ -9684,13 +10208,13 @@
         <v>560</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G2" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -9705,378 +10229,384 @@
         <v>560</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F3" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="G3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F4" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="G4" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E5" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F5" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="G5" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C6" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="G6" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="D7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F7" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="G7" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C8" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G8" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C9" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D9" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E9" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F9" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G9" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C10" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G10" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C11" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D11" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E11" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F11" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G11" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C12" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D12" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F12" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="G12" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C13" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D13" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" t="s">
         <v>623</v>
       </c>
-      <c r="E13" t="s">
-        <v>630</v>
-      </c>
       <c r="F13" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G13" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C14" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C15" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D15" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E15" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F15" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="G15" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C16" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="G16" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C17" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D17" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E17" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F17" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G17" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C18" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E18" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F18" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G18" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C19" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D19" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E19" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F19" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G19" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C20" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D20" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E20" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F20" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G20" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C21" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D21" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E21" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F21" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G21" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>707</v>
+      <c r="A26" s="34" t="s">
+        <v>906</v>
       </c>
       <c r="B26" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C26" t="s">
-        <v>708</v>
+        <v>699</v>
+      </c>
+      <c r="D26" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
       <c r="B27" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C27" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
       <c r="B28" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C28" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10085,16 +10615,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
@@ -10119,21 +10649,21 @@
         <v>556</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>557</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
         <v>566</v>
@@ -10145,521 +10675,645 @@
         <v>568</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>593</v>
+        <v>970</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>786</v>
+        <v>969</v>
       </c>
       <c r="H2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>959</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
+        <v>962</v>
       </c>
       <c r="D3" t="s">
-        <v>565</v>
+        <v>963</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>569</v>
+        <v>968</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="G3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>960</v>
       </c>
       <c r="C4" t="s">
-        <v>572</v>
+        <v>964</v>
       </c>
       <c r="D4" t="s">
-        <v>576</v>
-      </c>
-      <c r="E4" t="s">
-        <v>581</v>
+        <v>965</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>967</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G4" t="s">
-        <v>577</v>
-      </c>
-      <c r="H4" t="s">
-        <v>598</v>
-      </c>
-      <c r="I4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>961</v>
       </c>
       <c r="C5" t="s">
-        <v>579</v>
+        <v>966</v>
       </c>
       <c r="D5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E5" t="s">
-        <v>580</v>
+        <v>965</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>967</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G5" t="s">
-        <v>582</v>
-      </c>
-      <c r="H5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C6" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="D6" t="s">
-        <v>586</v>
-      </c>
-      <c r="E6" t="s">
-        <v>587</v>
+        <v>565</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>980</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>804</v>
+        <v>787</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>981</v>
       </c>
       <c r="H6" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" t="s">
-        <v>795</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>798</v>
+        <v>570</v>
       </c>
       <c r="D7" t="s">
-        <v>796</v>
+        <v>574</v>
       </c>
       <c r="E7" t="s">
-        <v>797</v>
+        <v>988</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>806</v>
+        <v>788</v>
+      </c>
+      <c r="G7" t="s">
+        <v>989</v>
       </c>
       <c r="H7" t="s">
-        <v>799</v>
+        <v>990</v>
       </c>
       <c r="I7" t="s">
-        <v>800</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
-        <v>622</v>
+        <v>577</v>
       </c>
       <c r="D8" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="E8" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="G8" t="s">
-        <v>625</v>
+        <v>580</v>
       </c>
       <c r="H8" t="s">
-        <v>627</v>
-      </c>
-      <c r="I8" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E9" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G9" t="s">
-        <v>604</v>
+        <v>787</v>
       </c>
       <c r="H9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C10" t="s">
-        <v>594</v>
+        <v>982</v>
       </c>
       <c r="D10" t="s">
-        <v>586</v>
+        <v>779</v>
       </c>
       <c r="E10" t="s">
-        <v>596</v>
+        <v>780</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G10" t="s">
-        <v>597</v>
+        <v>789</v>
       </c>
       <c r="H10" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+      <c r="I10" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>614</v>
       </c>
       <c r="C11" t="s">
-        <v>685</v>
+        <v>615</v>
       </c>
       <c r="D11" t="s">
-        <v>684</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>686</v>
+        <v>617</v>
+      </c>
+      <c r="E11" t="s">
+        <v>588</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>592</v>
+        <v>789</v>
+      </c>
+      <c r="G11" t="s">
+        <v>618</v>
       </c>
       <c r="H11" t="s">
-        <v>758</v>
+        <v>620</v>
       </c>
       <c r="I11" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" t="s">
-        <v>766</v>
+        <v>587</v>
       </c>
       <c r="C12" t="s">
-        <v>809</v>
+        <v>586</v>
       </c>
       <c r="D12" t="s">
-        <v>560</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>791</v>
+        <v>584</v>
+      </c>
+      <c r="E12" t="s">
+        <v>588</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
+      </c>
+      <c r="G12" t="s">
+        <v>597</v>
       </c>
       <c r="H12" t="s">
-        <v>810</v>
-      </c>
-      <c r="I12" t="s">
-        <v>811</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>691</v>
-      </c>
+      <c r="B13" t="s">
+        <v>986</v>
+      </c>
+      <c r="C13" t="s">
+        <v>983</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H13" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" t="s">
+        <v>985</v>
+      </c>
+      <c r="C14" t="s">
+        <v>987</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
       <c r="B15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C15" t="s">
+        <v>678</v>
+      </c>
+      <c r="D15" t="s">
+        <v>677</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H15" t="s">
+        <v>748</v>
+      </c>
+      <c r="I15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C16" t="s">
+        <v>792</v>
+      </c>
+      <c r="D16" t="s">
+        <v>560</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H16" t="s">
+        <v>793</v>
+      </c>
+      <c r="I16" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="B19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" t="s">
+        <v>577</v>
+      </c>
+      <c r="D19" t="s">
+        <v>574</v>
+      </c>
+      <c r="E19" t="s">
         <v>578</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F19" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G19" t="s">
+        <v>580</v>
+      </c>
+      <c r="H19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" t="s">
+        <v>574</v>
+      </c>
+      <c r="E20" t="s">
+        <v>585</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C21" t="s">
+        <v>781</v>
+      </c>
+      <c r="D21" t="s">
+        <v>779</v>
+      </c>
+      <c r="E21" t="s">
+        <v>780</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H21" t="s">
+        <v>782</v>
+      </c>
+      <c r="I21" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" t="s">
+        <v>587</v>
+      </c>
+      <c r="C22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D22" t="s">
+        <v>574</v>
+      </c>
+      <c r="E22" t="s">
+        <v>588</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G22" t="s">
+        <v>597</v>
+      </c>
+      <c r="H22" t="s">
+        <v>589</v>
+      </c>
+      <c r="I22" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C23" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" t="s">
+        <v>574</v>
+      </c>
+      <c r="E23" t="s">
         <v>579</v>
       </c>
-      <c r="D15" t="s">
-        <v>576</v>
-      </c>
-      <c r="E15" t="s">
-        <v>580</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G15" t="s">
-        <v>582</v>
-      </c>
-      <c r="H15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>584</v>
-      </c>
-      <c r="C16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D16" t="s">
-        <v>576</v>
-      </c>
-      <c r="E16" t="s">
-        <v>587</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="H16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>801</v>
-      </c>
-      <c r="C17" t="s">
-        <v>798</v>
-      </c>
-      <c r="D17" t="s">
-        <v>796</v>
-      </c>
-      <c r="E17" t="s">
-        <v>797</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="H17" t="s">
-        <v>799</v>
-      </c>
-      <c r="I17" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>571</v>
-      </c>
-      <c r="C18" t="s">
-        <v>572</v>
-      </c>
-      <c r="D18" t="s">
-        <v>576</v>
-      </c>
-      <c r="E18" t="s">
-        <v>581</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G18" t="s">
-        <v>577</v>
-      </c>
-      <c r="H18" t="s">
-        <v>598</v>
-      </c>
-      <c r="I18" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>589</v>
-      </c>
-      <c r="C19" t="s">
-        <v>588</v>
-      </c>
-      <c r="D19" t="s">
-        <v>576</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F23" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G23" t="s">
+        <v>575</v>
+      </c>
+      <c r="H23" t="s">
+        <v>591</v>
+      </c>
+      <c r="I23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" t="s">
+        <v>914</v>
+      </c>
+      <c r="C24" t="s">
+        <v>913</v>
+      </c>
+      <c r="D24" t="s">
+        <v>917</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H24" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" t="s">
+        <v>915</v>
+      </c>
+      <c r="C25" t="s">
+        <v>916</v>
+      </c>
+      <c r="D25" t="s">
+        <v>917</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H25" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" t="s">
+        <v>755</v>
+      </c>
+      <c r="C26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D26" t="s">
+        <v>560</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G19" t="s">
-        <v>604</v>
-      </c>
-      <c r="H19" t="s">
-        <v>591</v>
-      </c>
-      <c r="I19" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>767</v>
-      </c>
-      <c r="C20" t="s">
-        <v>768</v>
-      </c>
-      <c r="D20" t="s">
-        <v>586</v>
-      </c>
-      <c r="E20" t="s">
-        <v>596</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G20" t="s">
-        <v>597</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="H26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I26" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" t="s">
+        <v>910</v>
+      </c>
+      <c r="C27" t="s">
+        <v>773</v>
+      </c>
+      <c r="D27" t="s">
+        <v>560</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H27" t="s">
+        <v>776</v>
+      </c>
+      <c r="I27" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" t="s">
+        <v>686</v>
+      </c>
+      <c r="C28" t="s">
+        <v>687</v>
+      </c>
+      <c r="D28" t="s">
+        <v>688</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G28" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>766</v>
-      </c>
-      <c r="C21" t="s">
-        <v>765</v>
-      </c>
-      <c r="D21" t="s">
-        <v>560</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H21" t="s">
-        <v>769</v>
-      </c>
-      <c r="I21" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>766</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="H28" t="s">
+        <v>689</v>
+      </c>
+      <c r="I28" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" t="s">
+        <v>749</v>
+      </c>
+      <c r="C29" t="s">
+        <v>750</v>
+      </c>
+      <c r="D29" t="s">
+        <v>751</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D22" t="s">
-        <v>560</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="H22" t="s">
-        <v>793</v>
-      </c>
-      <c r="I22" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>693</v>
-      </c>
-      <c r="C23" t="s">
-        <v>694</v>
-      </c>
-      <c r="D23" t="s">
-        <v>695</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G23" t="s">
-        <v>785</v>
-      </c>
-      <c r="H23" t="s">
-        <v>697</v>
-      </c>
-      <c r="I23" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>759</v>
-      </c>
-      <c r="C24" t="s">
-        <v>760</v>
-      </c>
-      <c r="D24" t="s">
-        <v>761</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G24" t="s">
-        <v>762</v>
-      </c>
-      <c r="H24" t="s">
-        <v>763</v>
-      </c>
-      <c r="I24" t="s">
-        <v>764</v>
+      <c r="G29" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="H29" t="s">
+        <v>752</v>
+      </c>
+      <c r="I29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>972</v>
+      </c>
+      <c r="C30" t="s">
+        <v>973</v>
+      </c>
+      <c r="D30" t="s">
+        <v>974</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G30" t="s">
+        <v>977</v>
+      </c>
+      <c r="H30" t="s">
+        <v>978</v>
+      </c>
+      <c r="I30" t="s">
+        <v>979</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10669,10 +11323,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10682,11 +11336,12 @@
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="44.5546875" customWidth="1"/>
-    <col min="6" max="6" width="58.109375" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="58.109375" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>273</v>
       </c>
@@ -10703,13 +11358,16 @@
         <v>277</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -10726,13 +11384,16 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G2" t="s">
         <v>368</v>
       </c>
-      <c r="G2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -10740,7 +11401,7 @@
         <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D3" t="s">
         <v>360</v>
@@ -10749,13 +11410,16 @@
         <v>362</v>
       </c>
       <c r="F3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G3" t="s">
         <v>369</v>
       </c>
-      <c r="G3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>363</v>
       </c>
@@ -10763,19 +11427,22 @@
         <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D4" t="s">
         <v>364</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>955</v>
+      </c>
+      <c r="H4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>379</v>
       </c>
@@ -10783,81 +11450,91 @@
         <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D5" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>955</v>
+      </c>
+      <c r="H5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B6" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C6" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D6" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>956</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="B7" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="C7" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="D7" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="F7" t="s">
-        <v>862</v>
+        <v>844</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>956</v>
       </c>
       <c r="G7" t="s">
-        <v>863</v>
+        <v>845</v>
+      </c>
+      <c r="H7" t="s">
+        <v>846</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="42.88671875" customWidth="1"/>
@@ -10872,100 +11549,119 @@
         <v>210</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="B2" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="C2" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="D2" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B3" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="C3" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="D3" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="B4" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="C4" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="D4" t="s">
-        <v>905</v>
+        <v>884</v>
+      </c>
+      <c r="E4" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>919</v>
+        <v>895</v>
       </c>
       <c r="B5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C5" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="D5" t="s">
-        <v>906</v>
-      </c>
-      <c r="E5" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="B6" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="C6" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="D6" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>918</v>
-      </c>
-      <c r="B7" t="s">
-        <v>920</v>
-      </c>
-      <c r="C7" t="s">
-        <v>901</v>
-      </c>
-      <c r="D7" t="s">
-        <v>921</v>
+        <v>897</v>
+      </c>
+      <c r="E7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>899</v>
+      </c>
+      <c r="E8" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -10979,7 +11675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/藍芽傳輸規劃_20210604.xlsx
+++ b/藍芽傳輸規劃_20210604.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="992">
   <si>
     <t>識別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3302,10 +3302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>時間代表多久以後流光會落到打擊點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遊戲播放琴音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4273,6 +4269,14 @@
   </si>
   <si>
     <t>ShiftOctave,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeJump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間代表多久以後流光會落到打擊點，請根據目前的fall speed調整，B不能小於(16/[FallSpeed])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4799,9 +4803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6031,7 +6035,7 @@
         <v>517</v>
       </c>
       <c r="C41" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>524</v>
@@ -6064,7 +6068,7 @@
         <v>518</v>
       </c>
       <c r="C42" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>525</v>
@@ -6088,10 +6092,10 @@
         <v>25</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
@@ -6124,10 +6128,10 @@
         <v>25</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -6160,10 +6164,10 @@
         <v>25</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -6196,10 +6200,10 @@
         <v>25</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -6273,7 +6277,7 @@
         <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="81" x14ac:dyDescent="0.3">
@@ -6306,25 +6310,25 @@
         <v>25</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="M49" t="s">
         <v>838</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="M49" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="34"/>
       <c r="B50" t="s">
+        <v>846</v>
+      </c>
+      <c r="C50" t="s">
         <v>847</v>
       </c>
-      <c r="C50" t="s">
-        <v>848</v>
-      </c>
       <c r="D50" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -6345,20 +6349,20 @@
         <v>25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
       <c r="B51" t="s">
+        <v>848</v>
+      </c>
+      <c r="C51" t="s">
         <v>849</v>
       </c>
-      <c r="C51" t="s">
-        <v>850</v>
-      </c>
       <c r="D51" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -6382,19 +6386,19 @@
         <v>302</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
       <c r="B52" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C52" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -6415,22 +6419,22 @@
         <v>25</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
       <c r="B53" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C53" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -6451,10 +6455,10 @@
         <v>25</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="113.4" x14ac:dyDescent="0.3">
@@ -6463,10 +6467,10 @@
         <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -6499,7 +6503,7 @@
         <v>397</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -6533,7 +6537,7 @@
         <v>398</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -6567,7 +6571,7 @@
         <v>404</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -6600,7 +6604,7 @@
         <v>405</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -6630,13 +6634,13 @@
     <row r="59" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
       <c r="B59" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C59" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -6663,13 +6667,13 @@
     <row r="60" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
       <c r="B60" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C60" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -6693,7 +6697,7 @@
         <v>407</v>
       </c>
       <c r="L60" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6833,7 +6837,7 @@
         <v>302</v>
       </c>
       <c r="L65" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -7335,7 +7339,7 @@
         <v>732</v>
       </c>
       <c r="L80" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -9626,7 +9630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -9641,7 +9645,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>706</v>
@@ -9654,12 +9658,12 @@
         <v>708</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B2" t="s">
         <v>710</v>
@@ -9674,7 +9678,7 @@
         <v>712</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
@@ -9683,13 +9687,13 @@
         <v>713</v>
       </c>
       <c r="D3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E3" t="s">
         <v>714</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
@@ -9704,28 +9708,28 @@
         <v>717</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="C5" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D5" t="s">
+        <v>952</v>
+      </c>
+      <c r="E5" t="s">
+        <v>949</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="E5" t="s">
-        <v>950</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="C6" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D6" t="s">
         <v>768</v>
@@ -9734,7 +9738,7 @@
         <v>769</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9747,7 +9751,7 @@
     </row>
     <row r="8" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B8" t="s">
         <v>728</v>
@@ -9762,7 +9766,7 @@
         <v>720</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
@@ -9777,22 +9781,22 @@
         <v>726</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="C10" s="10" t="s">
         <v>724</v>
       </c>
       <c r="D10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E10" t="s">
         <v>723</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9817,7 +9821,7 @@
     </row>
     <row r="17" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B17" t="s">
         <v>727</v>
@@ -9832,7 +9836,7 @@
         <v>729</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
@@ -9847,7 +9851,7 @@
         <v>730</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
@@ -9862,7 +9866,7 @@
         <v>731</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9884,9 +9888,9 @@
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B24" t="s">
         <v>735</v>
@@ -9925,10 +9929,10 @@
         <v>715</v>
       </c>
       <c r="D26" t="s">
+        <v>863</v>
+      </c>
+      <c r="E26" t="s">
         <v>864</v>
-      </c>
-      <c r="E26" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -9937,13 +9941,13 @@
         <v>735</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="D27" t="s">
         <v>941</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>942</v>
-      </c>
-      <c r="E27" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9952,13 +9956,13 @@
         <v>735</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D28" t="s">
+        <v>947</v>
+      </c>
+      <c r="E28" t="s">
         <v>948</v>
-      </c>
-      <c r="E28" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9967,13 +9971,13 @@
         <v>735</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D29" t="s">
+        <v>943</v>
+      </c>
+      <c r="E29" t="s">
         <v>944</v>
-      </c>
-      <c r="E29" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9993,9 +9997,9 @@
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
     </row>
-    <row r="33" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B33" t="s">
         <v>761</v>
@@ -10031,13 +10035,13 @@
         <v>761</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="D35" t="s">
         <v>795</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>796</v>
-      </c>
-      <c r="E35" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -10046,13 +10050,13 @@
         <v>761</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="D36" t="s">
         <v>798</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>799</v>
-      </c>
-      <c r="E36" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10071,49 +10075,49 @@
     </row>
     <row r="40" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="B40" t="s">
         <v>931</v>
-      </c>
-      <c r="B40" t="s">
-        <v>932</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>711</v>
       </c>
       <c r="D40" t="s">
+        <v>932</v>
+      </c>
+      <c r="E40" t="s">
         <v>933</v>
-      </c>
-      <c r="E40" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="D41" t="s">
         <v>935</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>936</v>
-      </c>
-      <c r="E41" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C42" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="D42" t="s">
         <v>938</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>939</v>
-      </c>
-      <c r="E42" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -10129,16 +10133,16 @@
     </row>
     <row r="46" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
+        <v>865</v>
+      </c>
+      <c r="B46" t="s">
         <v>866</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>868</v>
-      </c>
       <c r="E46" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -10155,7 +10159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -10241,7 +10245,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
         <v>595</v>
@@ -10253,10 +10257,10 @@
         <v>596</v>
       </c>
       <c r="F4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G4" t="s">
         <v>802</v>
-      </c>
-      <c r="G4" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -10277,7 +10281,7 @@
         <v>638</v>
       </c>
       <c r="G5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10289,7 +10293,7 @@
         <v>646</v>
       </c>
       <c r="G6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -10307,10 +10311,10 @@
         <v>648</v>
       </c>
       <c r="F7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -10343,7 +10347,7 @@
         <v>637</v>
       </c>
       <c r="G9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -10376,7 +10380,7 @@
         <v>645</v>
       </c>
       <c r="G11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -10397,7 +10401,7 @@
         <v>630</v>
       </c>
       <c r="G12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -10418,7 +10422,7 @@
         <v>639</v>
       </c>
       <c r="G13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -10451,7 +10455,7 @@
         <v>660</v>
       </c>
       <c r="G15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -10484,7 +10488,7 @@
         <v>661</v>
       </c>
       <c r="G17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -10505,7 +10509,7 @@
         <v>666</v>
       </c>
       <c r="G18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -10526,7 +10530,7 @@
         <v>666</v>
       </c>
       <c r="G19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -10547,7 +10551,7 @@
         <v>675</v>
       </c>
       <c r="G20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -10568,12 +10572,12 @@
         <v>675</v>
       </c>
       <c r="G21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B26" t="s">
         <v>696</v>
@@ -10582,7 +10586,7 @@
         <v>699</v>
       </c>
       <c r="D26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -10617,8 +10621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10649,7 +10653,7 @@
         <v>556</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>557</v>
@@ -10675,87 +10679,87 @@
         <v>568</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2" t="s">
         <v>572</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D3" t="s">
         <v>962</v>
       </c>
-      <c r="D3" t="s">
-        <v>963</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>680</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D4" t="s">
         <v>964</v>
       </c>
-      <c r="D4" t="s">
-        <v>965</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C5" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5" t="s">
+        <v>964</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D5" t="s">
-        <v>965</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64.8" x14ac:dyDescent="0.3">
@@ -10770,13 +10774,13 @@
         <v>565</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="H6" t="s">
         <v>573</v>
@@ -10794,16 +10798,16 @@
         <v>574</v>
       </c>
       <c r="E7" t="s">
+        <v>987</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G7" t="s">
         <v>988</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>989</v>
-      </c>
-      <c r="H7" t="s">
-        <v>990</v>
       </c>
       <c r="I7" t="s">
         <v>622</v>
@@ -10824,7 +10828,7 @@
         <v>578</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G8" t="s">
         <v>580</v>
@@ -10848,7 +10852,7 @@
         <v>585</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H9" t="s">
         <v>592</v>
@@ -10857,25 +10861,25 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" t="s">
+        <v>777</v>
+      </c>
+      <c r="C10" t="s">
+        <v>981</v>
+      </c>
+      <c r="D10" t="s">
         <v>778</v>
       </c>
-      <c r="C10" t="s">
-        <v>982</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>779</v>
       </c>
-      <c r="E10" t="s">
-        <v>780</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H10" t="s">
+        <v>781</v>
+      </c>
+      <c r="I10" t="s">
         <v>782</v>
-      </c>
-      <c r="I10" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -10893,7 +10897,7 @@
         <v>588</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G11" t="s">
         <v>618</v>
@@ -10920,7 +10924,7 @@
         <v>588</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G12" t="s">
         <v>597</v>
@@ -10932,37 +10936,37 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C13" t="s">
+        <v>982</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H13" t="s">
         <v>983</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="H13" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C15" t="s">
         <v>678</v>
@@ -10974,7 +10978,7 @@
         <v>679</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>590</v>
@@ -10989,28 +10993,28 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D16" t="s">
         <v>560</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="H16" t="s">
+        <v>792</v>
+      </c>
+      <c r="I16" t="s">
         <v>793</v>
-      </c>
-      <c r="I16" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -11033,7 +11037,7 @@
         <v>578</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G19" t="s">
         <v>580</v>
@@ -11048,7 +11052,7 @@
         <v>582</v>
       </c>
       <c r="C20" t="s">
-        <v>583</v>
+        <v>990</v>
       </c>
       <c r="D20" t="s">
         <v>574</v>
@@ -11057,7 +11061,7 @@
         <v>585</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H20" t="s">
         <v>592</v>
@@ -11066,25 +11070,25 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C21" t="s">
+        <v>780</v>
+      </c>
+      <c r="D21" t="s">
+        <v>778</v>
+      </c>
+      <c r="E21" t="s">
+        <v>779</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H21" t="s">
         <v>781</v>
       </c>
-      <c r="D21" t="s">
-        <v>779</v>
-      </c>
-      <c r="E21" t="s">
-        <v>780</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>782</v>
-      </c>
-      <c r="I21" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -11102,7 +11106,7 @@
         <v>588</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G22" t="s">
         <v>597</v>
@@ -11111,7 +11115,7 @@
         <v>589</v>
       </c>
       <c r="I22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -11129,7 +11133,7 @@
         <v>579</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G23" t="s">
         <v>575</v>
@@ -11144,37 +11148,37 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C24" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D24" t="s">
+        <v>916</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H24" t="s">
         <v>917</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="H24" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" t="s">
+        <v>914</v>
+      </c>
+      <c r="C25" t="s">
         <v>915</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>916</v>
       </c>
-      <c r="D25" t="s">
-        <v>917</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H25" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
@@ -11192,7 +11196,7 @@
         <v>679</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>590</v>
@@ -11201,34 +11205,34 @@
         <v>756</v>
       </c>
       <c r="I26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D27" t="s">
         <v>560</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" t="s">
         <v>775</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>776</v>
-      </c>
-      <c r="I27" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
@@ -11243,13 +11247,13 @@
         <v>688</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G28" t="s">
-        <v>770</v>
+        <v>789</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>991</v>
       </c>
       <c r="H28" t="s">
         <v>689</v>
@@ -11270,13 +11274,13 @@
         <v>751</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H29" t="s">
         <v>752</v>
@@ -11287,28 +11291,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
+        <v>971</v>
+      </c>
+      <c r="C30" t="s">
         <v>972</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>973</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G30" t="s">
+        <v>976</v>
+      </c>
+      <c r="H30" t="s">
         <v>977</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>978</v>
-      </c>
-      <c r="I30" t="s">
-        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -11358,7 +11362,7 @@
         <v>277</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>278</v>
@@ -11384,7 +11388,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G2" t="s">
         <v>368</v>
@@ -11410,7 +11414,7 @@
         <v>362</v>
       </c>
       <c r="F3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G3" t="s">
         <v>369</v>
@@ -11436,7 +11440,7 @@
         <v>366</v>
       </c>
       <c r="F4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H4" t="s">
         <v>745</v>
@@ -11459,7 +11463,7 @@
         <v>380</v>
       </c>
       <c r="F5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H5" t="s">
         <v>746</v>
@@ -11482,7 +11486,7 @@
         <v>694</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>695</v>
@@ -11493,28 +11497,28 @@
     </row>
     <row r="7" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B7" t="s">
         <v>840</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>841</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>842</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="G7" t="s">
         <v>844</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>845</v>
-      </c>
-      <c r="H7" t="s">
-        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -11549,113 +11553,113 @@
         <v>210</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D3" t="s">
         <v>881</v>
-      </c>
-      <c r="D3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C5" t="s">
+        <v>880</v>
+      </c>
+      <c r="D5" t="s">
         <v>895</v>
-      </c>
-      <c r="B5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C5" t="s">
-        <v>881</v>
-      </c>
-      <c r="D5" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B6" t="s">
         <v>885</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>880</v>
+      </c>
+      <c r="D6" t="s">
         <v>886</v>
-      </c>
-      <c r="C6" t="s">
-        <v>881</v>
-      </c>
-      <c r="D6" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>896</v>
+      </c>
+      <c r="E7" t="s">
         <v>897</v>
-      </c>
-      <c r="E7" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>557</v>
